--- a/seeds/seeds.xlsx
+++ b/seeds/seeds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="357">
   <si>
     <t>id</t>
   </si>
@@ -701,6 +701,9 @@
     <t>id_type</t>
   </si>
   <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>id_sponsor</t>
   </si>
   <si>
@@ -710,202 +713,283 @@
     <t>Cinelândia</t>
   </si>
   <si>
+    <t>Rua Dos Filmes, 324</t>
+  </si>
+  <si>
     <t>uuid-restaurante-da-rose</t>
   </si>
   <si>
     <t>Restaurante da Rose</t>
   </si>
   <si>
+    <t>Avenida dos Pratos, 123</t>
+  </si>
+  <si>
     <t>uuid-parquemania</t>
   </si>
   <si>
     <t>Parquemania</t>
   </si>
   <si>
+    <t>Rua da Alegria, 123</t>
+  </si>
+  <si>
     <t>uuid-parque-da-crianca</t>
   </si>
   <si>
     <t>Parque da Criança</t>
   </si>
   <si>
+    <t>Rua Central, 32</t>
+  </si>
+  <si>
     <t>uuid-museu-do-espaco</t>
   </si>
   <si>
     <t>Museu do espaço</t>
   </si>
   <si>
+    <t>Avenida da descoberta, 123</t>
+  </si>
+  <si>
     <t>uuid-teatro-rural</t>
   </si>
   <si>
     <t>Teatro Rural</t>
   </si>
   <si>
+    <t>Rua dos Bois, 23</t>
+  </si>
+  <si>
     <t>uuid-zoo-safari-a-dentro</t>
   </si>
   <si>
     <t>Zoo Safari a Dentro</t>
   </si>
   <si>
+    <t>Avenida da Selva, 32</t>
+  </si>
+  <si>
     <t>uuid-lagoa-azul</t>
   </si>
   <si>
     <t>Lagoa Azul</t>
   </si>
   <si>
+    <t>Rua da Criança, 43</t>
+  </si>
+  <si>
     <t>uuid-serra-dos-cavalos</t>
   </si>
   <si>
     <t>Serra dos Cavalos</t>
   </si>
   <si>
+    <t>Trila ecológica do cavalo</t>
+  </si>
+  <si>
     <t>uuid-veneza-parque</t>
   </si>
   <si>
     <t>Veneza Parque</t>
   </si>
   <si>
+    <t>Rodovia das Águas, km 34</t>
+  </si>
+  <si>
     <t>uuid-centro-de-descobertas</t>
   </si>
   <si>
     <t>Centro de descobertas</t>
   </si>
   <si>
+    <t>Rua da descoberta, 32</t>
+  </si>
+  <si>
     <t>uuid-museu-das-artes</t>
   </si>
   <si>
     <t>Museu das Artes</t>
   </si>
   <si>
+    <t>Rua do Cateiro, 211</t>
+  </si>
+  <si>
     <t>uuid-jardim-botanico-da-cidade</t>
   </si>
   <si>
     <t>Jardim Botanico da Cidade</t>
   </si>
   <si>
+    <t>Rodovia Luiz Gonzaga, 43</t>
+  </si>
+  <si>
+    <t>uuid-patinaco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patinaço </t>
+  </si>
+  <si>
+    <t>Shopping da Cidade, 12</t>
+  </si>
+  <si>
+    <t>uuid-fliperama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fliperama </t>
+  </si>
+  <si>
+    <t>Avenida dos Jogos, 34</t>
+  </si>
+  <si>
+    <t>uuid-museu-da-criaca</t>
+  </si>
+  <si>
+    <t>Museu da Criaça</t>
+  </si>
+  <si>
+    <t>Rua da história, 11</t>
+  </si>
+  <si>
+    <t>uuid-picinic-da-sol</t>
+  </si>
+  <si>
+    <t>Picinic da Sol</t>
+  </si>
+  <si>
+    <t>Praça da Iluminação, centro</t>
+  </si>
+  <si>
+    <t>uuid-baoba</t>
+  </si>
+  <si>
+    <t>Baobá</t>
+  </si>
+  <si>
+    <t>Rua da  Selva, 42</t>
+  </si>
+  <si>
+    <t>uuid-rancho-alegre</t>
+  </si>
+  <si>
+    <t>Rancho Alegre</t>
+  </si>
+  <si>
+    <t>Avenida do Rancho, 235</t>
+  </si>
+  <si>
+    <t>uuid-piscinao-azul</t>
+  </si>
+  <si>
+    <t>Piscinão Azul</t>
+  </si>
+  <si>
+    <t>Rua dos clubes, 32</t>
+  </si>
+  <si>
+    <t>uuid-burguelandia</t>
+  </si>
+  <si>
+    <t>Burguelândia</t>
+  </si>
+  <si>
+    <t>Rua das comidas, 43</t>
+  </si>
+  <si>
+    <t>uuid-pizzamania</t>
+  </si>
+  <si>
+    <t>Pizzamania</t>
+  </si>
+  <si>
+    <t>uuid-casa-club</t>
+  </si>
+  <si>
+    <t>Casa Club</t>
+  </si>
+  <si>
+    <t>Rua dos clubes, 45</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>stars</t>
+  </si>
+  <si>
+    <t>id_user</t>
+  </si>
+  <si>
+    <t>Um lugar incrível para os amantes de cinema! A qualidade do som e da imagem é excelente, e a seleção de filmes sempre inclui os últimos lançamentos.</t>
+  </si>
+  <si>
+    <t>Comida caseira autêntica e um ambiente acolhedor. A Rose faz você se sentir em casa. Não deixe de provar o estrogonofe!</t>
+  </si>
+  <si>
+    <t>Um parque de diversões que superou todas as nossas expectativas! Ideal para todas as idades, com muitas atrações radicais e áreas temáticas.</t>
+  </si>
+  <si>
+    <t>Perfeito para um dia em família! Muitas atividades interativas para as crianças e espaços de descanso para os adultos</t>
+  </si>
+  <si>
+    <t>Fascinante! A exposição interativa é uma jornada incrível pelo universo. Recomendo muito para quem tem interesse em astronomia</t>
+  </si>
+  <si>
+    <t>Uma experiência única que combina arte e natureza. As peças são sempre emocionantes e o cenário ao ar livre é deslumbrante.</t>
+  </si>
+  <si>
+    <t>Uma experiência inesquecível! Ver os animais tão de perto foi emocionante. Excelente programa para as crianças aprenderem sobre conservação.</t>
+  </si>
+  <si>
+    <t>Um oásis de tranquilidade. Águas cristalinas e perfeitas para um mergulho refrescante. Um lugar maravilhoso para relaxar e se conectar com a natureza.</t>
+  </si>
+  <si>
+    <t>Para os aventureiros de plantão, a Serra dos Cavalos oferece trilhas desafiadoras com vistas de tirar o fôlego. Vale cada passo!</t>
+  </si>
+  <si>
+    <t>Uma mini-Veneza que encanta a todos. Os passeios de gôndola são românticos e a arquitetura é impressionante. Um pedacinho da Itália na cidade</t>
+  </si>
+  <si>
+    <t>Interativo e educativo, é o lugar ideal para crianças curiosas. As exposições mudam frequentemente, sempre trazendo novidades</t>
+  </si>
+  <si>
+    <t>Um espaço sublime que abriga coleções de arte impressionantes. A cada visita, descubro algo novo. Uma jóia cultural.</t>
+  </si>
+  <si>
+    <t>Um refúgio verde no meio da cidade. A diversidade de plantas e flores é estonteante, e os caminhos são perfeitos para uma caminhada tranquila.</t>
+  </si>
+  <si>
     <t>uuid-patinaço</t>
   </si>
   <si>
-    <t xml:space="preserve">Patinaço </t>
-  </si>
-  <si>
-    <t>uuid-fliperama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fliperama </t>
-  </si>
-  <si>
-    <t>uuid-museu-da-criaca</t>
-  </si>
-  <si>
-    <t>Museu da Criaça</t>
-  </si>
-  <si>
-    <t>uuid-picinic-da-sol</t>
-  </si>
-  <si>
-    <t>Picinic da Sol</t>
-  </si>
-  <si>
-    <t>uuid-baoba</t>
-  </si>
-  <si>
-    <t>Baobá</t>
-  </si>
-  <si>
-    <t>uuid-rancho-alegre</t>
-  </si>
-  <si>
-    <t>Rancho Alegre</t>
+    <t>A pista de patinação é ampla e bem cuidada. Um lugar divertido para famílias e amigos. Eles também oferecem aulas para iniciantes</t>
+  </si>
+  <si>
+    <t>Voltar no tempo e reviver a infância. O fliperama tem uma ótima seleção de jogos clássicos e novos. Ótimo lugar para se divertir.</t>
+  </si>
+  <si>
+    <t>Um lugar mágico cheio de atividades lúdicas e educativas. Meus filhos amaram e aprenderam muito brincando.</t>
+  </si>
+  <si>
+    <t>O local perfeito para um piquenique em família ou com amigos. Muita grama verde, sombras agradáveis e uma vista deslumbrante do pôr do sol.</t>
+  </si>
+  <si>
+    <t>Visitar o Baobá é como entrar em um conto de fadas. A árvore é majestosa e o ambiente ao redor é pacífico. Uma experiência memorável.</t>
+  </si>
+  <si>
+    <t>Um dia no campo cheio de diversão e aprendizado. As atividades de fazenda são ótimas para as crianças, e os funcionários são super simpáticos.</t>
   </si>
   <si>
     <t>uuid-piscinão-azul</t>
   </si>
   <si>
-    <t>Piscinão Azul</t>
-  </si>
-  <si>
-    <t>uuid-burguelandia</t>
-  </si>
-  <si>
-    <t>Burguelândia</t>
+    <t>A melhor fuga do calor! O parque aquático tem opções para todos, desde piscinas tranquilas até escorregadores emocionantes.</t>
+  </si>
+  <si>
+    <t>O paraíso dos hambúrgueres! Cada opção no menu é mais deliciosa que a outra. O ambiente é descontraído e perfeito para encontros</t>
   </si>
   <si>
     <t>uuid-pizzarolla</t>
-  </si>
-  <si>
-    <t>Pizzarolla</t>
-  </si>
-  <si>
-    <t>review</t>
-  </si>
-  <si>
-    <t>stars</t>
-  </si>
-  <si>
-    <t>id_user</t>
-  </si>
-  <si>
-    <t>Um lugar incrível para os amantes de cinema! A qualidade do som e da imagem é excelente, e a seleção de filmes sempre inclui os últimos lançamentos.</t>
-  </si>
-  <si>
-    <t>Comida caseira autêntica e um ambiente acolhedor. A Rose faz você se sentir em casa. Não deixe de provar o estrogonofe!</t>
-  </si>
-  <si>
-    <t>Um parque de diversões que superou todas as nossas expectativas! Ideal para todas as idades, com muitas atrações radicais e áreas temáticas.</t>
-  </si>
-  <si>
-    <t>Perfeito para um dia em família! Muitas atividades interativas para as crianças e espaços de descanso para os adultos</t>
-  </si>
-  <si>
-    <t>Fascinante! A exposição interativa é uma jornada incrível pelo universo. Recomendo muito para quem tem interesse em astronomia</t>
-  </si>
-  <si>
-    <t>Uma experiência única que combina arte e natureza. As peças são sempre emocionantes e o cenário ao ar livre é deslumbrante.</t>
-  </si>
-  <si>
-    <t>Uma experiência inesquecível! Ver os animais tão de perto foi emocionante. Excelente programa para as crianças aprenderem sobre conservação.</t>
-  </si>
-  <si>
-    <t>Um oásis de tranquilidade. Águas cristalinas e perfeitas para um mergulho refrescante. Um lugar maravilhoso para relaxar e se conectar com a natureza.</t>
-  </si>
-  <si>
-    <t>Para os aventureiros de plantão, a Serra dos Cavalos oferece trilhas desafiadoras com vistas de tirar o fôlego. Vale cada passo!</t>
-  </si>
-  <si>
-    <t>Uma mini-Veneza que encanta a todos. Os passeios de gôndola são românticos e a arquitetura é impressionante. Um pedacinho da Itália na cidade</t>
-  </si>
-  <si>
-    <t>Interativo e educativo, é o lugar ideal para crianças curiosas. As exposições mudam frequentemente, sempre trazendo novidades</t>
-  </si>
-  <si>
-    <t>Um espaço sublime que abriga coleções de arte impressionantes. A cada visita, descubro algo novo. Uma jóia cultural.</t>
-  </si>
-  <si>
-    <t>Um refúgio verde no meio da cidade. A diversidade de plantas e flores é estonteante, e os caminhos são perfeitos para uma caminhada tranquila.</t>
-  </si>
-  <si>
-    <t>A pista de patinação é ampla e bem cuidada. Um lugar divertido para famílias e amigos. Eles também oferecem aulas para iniciantes</t>
-  </si>
-  <si>
-    <t>Voltar no tempo e reviver a infância. O fliperama tem uma ótima seleção de jogos clássicos e novos. Ótimo lugar para se divertir.</t>
-  </si>
-  <si>
-    <t>Um lugar mágico cheio de atividades lúdicas e educativas. Meus filhos amaram e aprenderam muito brincando.</t>
-  </si>
-  <si>
-    <t>O local perfeito para um piquenique em família ou com amigos. Muita grama verde, sombras agradáveis e uma vista deslumbrante do pôr do sol.</t>
-  </si>
-  <si>
-    <t>Visitar o Baobá é como entrar em um conto de fadas. A árvore é majestosa e o ambiente ao redor é pacífico. Uma experiência memorável.</t>
-  </si>
-  <si>
-    <t>Um dia no campo cheio de diversão e aprendizado. As atividades de fazenda são ótimas para as crianças, e os funcionários são super simpáticos.</t>
-  </si>
-  <si>
-    <t>A melhor fuga do calor! O parque aquático tem opções para todos, desde piscinas tranquilas até escorregadores emocionantes.</t>
-  </si>
-  <si>
-    <t>O paraíso dos hambúrgueres! Cada opção no menu é mais deliciosa que a outra. O ambiente é descontraído e perfeito para encontros</t>
   </si>
   <si>
     <t>Uma pizzaria que se destaca. A massa fina e crocante e os ingredientes frescos fazem toda a diferença. Excelente atendimento também</t>
@@ -1473,6 +1557,10 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(A:A)"),"id")</f>
+        <v>id</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -1490,6 +1578,10 @@
       <c r="E2" s="3">
         <v>43834.125</v>
       </c>
+      <c r="G2" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-joey-doe")</f>
+        <v>uuid-joey-doe</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -1507,6 +1599,10 @@
       <c r="E3" s="3">
         <v>43835.125</v>
       </c>
+      <c r="G3" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-jane-silva")</f>
+        <v>uuid-jane-silva</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -1524,6 +1620,10 @@
       <c r="E4" s="3">
         <v>43875.125</v>
       </c>
+      <c r="G4" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-ivan-luiz")</f>
+        <v>uuid-ivan-luiz</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -1541,6 +1641,10 @@
       <c r="E5" s="3">
         <v>43837.125</v>
       </c>
+      <c r="G5" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-jose-maria")</f>
+        <v>uuid-jose-maria</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -1558,6 +1662,10 @@
       <c r="E6" s="3">
         <v>43875.125</v>
       </c>
+      <c r="G6" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-sandra-luna")</f>
+        <v>uuid-sandra-luna</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -1575,6 +1683,10 @@
       <c r="E7" s="3">
         <v>43895.125</v>
       </c>
+      <c r="G7" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-lucas-silva")</f>
+        <v>uuid-lucas-silva</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -1592,6 +1704,10 @@
       <c r="E8" s="3">
         <v>43859.125</v>
       </c>
+      <c r="G8" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-carla-almeida")</f>
+        <v>uuid-carla-almeida</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
@@ -1609,6 +1725,10 @@
       <c r="E9" s="3">
         <v>43924.125</v>
       </c>
+      <c r="G9" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-maria-julia")</f>
+        <v>uuid-maria-julia</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
@@ -1626,6 +1746,10 @@
       <c r="E10" s="3">
         <v>43834.125</v>
       </c>
+      <c r="G10" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-ana-paula")</f>
+        <v>uuid-ana-paula</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
@@ -1643,6 +1767,10 @@
       <c r="E11" s="3">
         <v>44932.125</v>
       </c>
+      <c r="G11" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-mario-neto")</f>
+        <v>uuid-mario-neto</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
@@ -1660,6 +1788,10 @@
       <c r="E12" s="3">
         <v>45349.125</v>
       </c>
+      <c r="G12" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-luiza-santos")</f>
+        <v>uuid-luiza-santos</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -1677,6 +1809,10 @@
       <c r="E13" s="3">
         <v>44973.125</v>
       </c>
+      <c r="G13" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-pedro-henrique")</f>
+        <v>uuid-pedro-henrique</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -1694,6 +1830,10 @@
       <c r="E14" s="3">
         <v>43904.125</v>
       </c>
+      <c r="G14" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-caroline-dias")</f>
+        <v>uuid-caroline-dias</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -1711,6 +1851,10 @@
       <c r="E15" s="3">
         <v>43856.125</v>
       </c>
+      <c r="G15" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-felipe-araujo")</f>
+        <v>uuid-felipe-araujo</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -1728,6 +1872,10 @@
       <c r="E16" s="3">
         <v>43855.125</v>
       </c>
+      <c r="G16" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-gabriela-moura")</f>
+        <v>uuid-gabriela-moura</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -1745,6 +1893,10 @@
       <c r="E17" s="3">
         <v>43886.125</v>
       </c>
+      <c r="G17" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-rodrigo-lima")</f>
+        <v>uuid-rodrigo-lima</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -1762,6 +1914,10 @@
       <c r="E18" s="3">
         <v>43866.125</v>
       </c>
+      <c r="G18" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-sophia-castro")</f>
+        <v>uuid-sophia-castro</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -1779,6 +1935,10 @@
       <c r="E19" s="3">
         <v>43888.125</v>
       </c>
+      <c r="G19" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-guilherme-oliveira")</f>
+        <v>uuid-guilherme-oliveira</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
@@ -1796,6 +1956,10 @@
       <c r="E20" s="3">
         <v>43852.125</v>
       </c>
+      <c r="G20" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-marcela-rodrigues")</f>
+        <v>uuid-marcela-rodrigues</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
@@ -1813,6 +1977,10 @@
       <c r="E21" s="3">
         <v>43887.125</v>
       </c>
+      <c r="G21" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-thiago-menezes")</f>
+        <v>uuid-thiago-menezes</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
@@ -1830,6 +1998,10 @@
       <c r="E22" s="3">
         <v>43946.125</v>
       </c>
+      <c r="G22" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-amanda-ferreira")</f>
+        <v>uuid-amanda-ferreira</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
@@ -1847,6 +2019,10 @@
       <c r="E23" s="3">
         <v>43852.125</v>
       </c>
+      <c r="G23" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-rafael-souza")</f>
+        <v>uuid-rafael-souza</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
@@ -1864,6 +2040,10 @@
       <c r="E24" s="3">
         <v>44962.125</v>
       </c>
+      <c r="G24" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-larissa-machado")</f>
+        <v>uuid-larissa-machado</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
@@ -1881,6 +2061,10 @@
       <c r="E25" s="3">
         <v>45349.125</v>
       </c>
+      <c r="G25" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-vinicius-costa")</f>
+        <v>uuid-vinicius-costa</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
@@ -1898,6 +2082,10 @@
       <c r="E26" s="3">
         <v>43839.125</v>
       </c>
+      <c r="G26" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-beatriz-lima")</f>
+        <v>uuid-beatriz-lima</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
@@ -1915,6 +2103,10 @@
       <c r="E27" s="3">
         <v>43886.125</v>
       </c>
+      <c r="G27" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-caio-martins")</f>
+        <v>uuid-caio-martins</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
@@ -1932,6 +2124,10 @@
       <c r="E28" s="3">
         <v>43910.125</v>
       </c>
+      <c r="G28" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-daniela-pires")</f>
+        <v>uuid-daniela-pires</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
@@ -1949,6 +2145,10 @@
       <c r="E29" s="3">
         <v>43859.125</v>
       </c>
+      <c r="G29" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-henrique-fonseca")</f>
+        <v>uuid-henrique-fonseca</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
@@ -1966,6 +2166,10 @@
       <c r="E30" s="3">
         <v>43861.125</v>
       </c>
+      <c r="G30" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-alice-barbosa")</f>
+        <v>uuid-alice-barbosa</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
@@ -1983,6 +2187,10 @@
       <c r="E31" s="3">
         <v>43899.125</v>
       </c>
+      <c r="G31" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-joão-victor")</f>
+        <v>uuid-joão-victor</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
@@ -2000,6 +2208,10 @@
       <c r="E32" s="3">
         <v>43865.125</v>
       </c>
+      <c r="G32" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-clara-nunes")</f>
+        <v>uuid-clara-nunes</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
@@ -2017,6 +2229,10 @@
       <c r="E33" s="3">
         <v>44981.125</v>
       </c>
+      <c r="G33" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-leonardo-teixeira")</f>
+        <v>uuid-leonardo-teixeira</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
@@ -2034,6 +2250,10 @@
       <c r="E34" s="3">
         <v>45295.125</v>
       </c>
+      <c r="G34" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-julia-vasconcelos")</f>
+        <v>uuid-julia-vasconcelos</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
@@ -2051,6 +2271,10 @@
       <c r="E35" s="3">
         <v>43844.125</v>
       </c>
+      <c r="G35" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-marcos-ribeiro")</f>
+        <v>uuid-marcos-ribeiro</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
@@ -2068,6 +2292,10 @@
       <c r="E36" s="3">
         <v>43837.125</v>
       </c>
+      <c r="G36" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-isabela-freitas")</f>
+        <v>uuid-isabela-freitas</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
@@ -2085,6 +2313,10 @@
       <c r="E37" s="3">
         <v>43919.125</v>
       </c>
+      <c r="G37" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-gustavo-pereira")</f>
+        <v>uuid-gustavo-pereira</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
@@ -2102,6 +2334,10 @@
       <c r="E38" s="3">
         <v>43897.125</v>
       </c>
+      <c r="G38" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-elisa-martinez")</f>
+        <v>uuid-elisa-martinez</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
@@ -2119,6 +2355,10 @@
       <c r="E39" s="3">
         <v>43893.125</v>
       </c>
+      <c r="G39" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-ricardo-alves")</f>
+        <v>uuid-ricardo-alves</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
@@ -2136,6 +2376,10 @@
       <c r="E40" s="3">
         <v>43876.125</v>
       </c>
+      <c r="G40" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-sara-carvalho")</f>
+        <v>uuid-sara-carvalho</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
@@ -2153,6 +2397,10 @@
       <c r="E41" s="3">
         <v>43937.125</v>
       </c>
+      <c r="G41" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-fernando-magalhães")</f>
+        <v>uuid-fernando-magalhães</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
@@ -2170,6 +2418,10 @@
       <c r="E42" s="3">
         <v>43907.125</v>
       </c>
+      <c r="G42" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-luana-borges")</f>
+        <v>uuid-luana-borges</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
@@ -2187,6 +2439,10 @@
       <c r="E43" s="3">
         <v>44982.125</v>
       </c>
+      <c r="G43" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-andre-luiz")</f>
+        <v>uuid-andre-luiz</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
@@ -2204,6 +2460,10 @@
       <c r="E44" s="3">
         <v>45360.125</v>
       </c>
+      <c r="G44" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-patricia-leal")</f>
+        <v>uuid-patricia-leal</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
@@ -2221,6 +2481,10 @@
       <c r="E45" s="3">
         <v>45373.125</v>
       </c>
+      <c r="G45" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-diego-santana")</f>
+        <v>uuid-diego-santana</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
@@ -2238,6 +2502,10 @@
       <c r="E46" s="3">
         <v>43930.125</v>
       </c>
+      <c r="G46" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-renata-melo")</f>
+        <v>uuid-renata-melo</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
@@ -2255,6 +2523,10 @@
       <c r="E47" s="3">
         <v>43864.125</v>
       </c>
+      <c r="G47" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-cesar-augusto")</f>
+        <v>uuid-cesar-augusto</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
@@ -2272,6 +2544,10 @@
       <c r="E48" s="3">
         <v>43835.125</v>
       </c>
+      <c r="G48" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-monica-gomes")</f>
+        <v>uuid-monica-gomes</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
@@ -2289,6 +2565,10 @@
       <c r="E49" s="3">
         <v>43836.125</v>
       </c>
+      <c r="G49" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-fabio-lopes")</f>
+        <v>uuid-fabio-lopes</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
@@ -2306,6 +2586,10 @@
       <c r="E50" s="3">
         <v>43837.125</v>
       </c>
+      <c r="G50" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-anita-oliveira")</f>
+        <v>uuid-anita-oliveira</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
@@ -2323,6 +2607,10 @@
       <c r="E51" s="3">
         <v>43838.125</v>
       </c>
+      <c r="G51" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-bruno-gonzalez")</f>
+        <v>uuid-bruno-gonzalez</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
@@ -2340,6 +2628,10 @@
       <c r="E52" s="3">
         <v>43857.125</v>
       </c>
+      <c r="G52" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-carolina-queiroz")</f>
+        <v>uuid-carolina-queiroz</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
@@ -2357,6 +2649,10 @@
       <c r="E53" s="3">
         <v>43861.125</v>
       </c>
+      <c r="G53" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-daniel-fernandes")</f>
+        <v>uuid-daniel-fernandes</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
@@ -2374,6 +2670,10 @@
       <c r="E54" s="3">
         <v>43901.125</v>
       </c>
+      <c r="G54" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-ester-vieira")</f>
+        <v>uuid-ester-vieira</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
@@ -2391,6 +2691,10 @@
       <c r="E55" s="3">
         <v>43842.125</v>
       </c>
+      <c r="G55" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-fabiana-mourão")</f>
+        <v>uuid-fabiana-mourão</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
@@ -2408,6 +2712,10 @@
       <c r="E56" s="3">
         <v>44951.125</v>
       </c>
+      <c r="G56" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-gabriel-nascimento")</f>
+        <v>uuid-gabriel-nascimento</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
@@ -2425,6 +2733,10 @@
       <c r="E57" s="3">
         <v>45337.125</v>
       </c>
+      <c r="G57" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-helena-ribeiro")</f>
+        <v>uuid-helena-ribeiro</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
@@ -2442,6 +2754,10 @@
       <c r="E58" s="3">
         <v>43887.125</v>
       </c>
+      <c r="G58" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-igor-campos")</f>
+        <v>uuid-igor-campos</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
@@ -2459,6 +2775,10 @@
       <c r="E59" s="3">
         <v>43898.125</v>
       </c>
+      <c r="G59" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-jessica-lima")</f>
+        <v>uuid-jessica-lima</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
@@ -2476,6 +2796,10 @@
       <c r="E60" s="3">
         <v>43909.125</v>
       </c>
+      <c r="G60" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-kleber-martins")</f>
+        <v>uuid-kleber-martins</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
@@ -2493,6 +2817,10 @@
       <c r="E61" s="3">
         <v>43920.125</v>
       </c>
+      <c r="G61" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-livia-souza")</f>
+        <v>uuid-livia-souza</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
@@ -2510,6 +2838,10 @@
       <c r="E62" s="3">
         <v>43843.125</v>
       </c>
+      <c r="G62" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-marcelo-pinto")</f>
+        <v>uuid-marcelo-pinto</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
@@ -2527,6 +2859,10 @@
       <c r="E63" s="3">
         <v>43854.125</v>
       </c>
+      <c r="G63" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-nadia-correia")</f>
+        <v>uuid-nadia-correia</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
@@ -2544,6 +2880,10 @@
       <c r="E64" s="3">
         <v>43872.125</v>
       </c>
+      <c r="G64" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-oscar-neves")</f>
+        <v>uuid-oscar-neves</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
@@ -2561,6 +2901,10 @@
       <c r="E65" s="3">
         <v>43864.125</v>
       </c>
+      <c r="G65" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-paula-rodrigues")</f>
+        <v>uuid-paula-rodrigues</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
@@ -2578,6 +2922,10 @@
       <c r="E66" s="3">
         <v>43903.125</v>
       </c>
+      <c r="G66" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-quiteria-machado")</f>
+        <v>uuid-quiteria-machado</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
@@ -2595,6 +2943,10 @@
       <c r="E67" s="3">
         <v>43853.125</v>
       </c>
+      <c r="G67" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-roberto-silveira")</f>
+        <v>uuid-roberto-silveira</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
@@ -2612,6 +2964,10 @@
       <c r="E68" s="3">
         <v>44961.125</v>
       </c>
+      <c r="G68" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-silvia-penna")</f>
+        <v>uuid-silvia-penna</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
@@ -2629,6 +2985,13 @@
       <c r="E69" s="3">
         <v>45304.125</v>
       </c>
+      <c r="G69" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-tiago-lobo")</f>
+        <v>uuid-tiago-lobo</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="G70" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2648,9 +3011,9 @@
     <col customWidth="1" min="1" max="1" width="23.38"/>
     <col customWidth="1" min="2" max="2" width="20.5"/>
     <col customWidth="1" min="3" max="3" width="27.0"/>
-    <col customWidth="1" min="4" max="4" width="18.38"/>
-    <col customWidth="1" min="5" max="5" width="20.38"/>
-    <col customWidth="1" min="6" max="6" width="17.0"/>
+    <col customWidth="1" min="4" max="5" width="18.38"/>
+    <col customWidth="1" min="6" max="6" width="20.38"/>
+    <col customWidth="1" min="7" max="7" width="17.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2667,635 +3030,723 @@
         <v>228</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="G2" s="3">
         <v>43834.125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="G3" s="3">
         <v>43835.125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="G4" s="3">
         <v>43875.125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="G5" s="3">
         <v>43837.125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="G6" s="3">
         <v>43875.125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43850.125</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>43895.125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>43853.125</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>43859.125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>43892.125</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>43924.125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>43831.125</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>43834.125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>44928.125</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>44932.125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>45293.125</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>45349.125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>44928.125</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>44973.125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>43850.125</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>43904.125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>43853.125</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>43856.125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E16" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="G16" s="3">
         <v>43855.125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E17" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="G17" s="3">
         <v>43886.125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E18" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="G18" s="3">
         <v>43866.125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E19" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="G19" s="3">
         <v>43888.125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>43850.125</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>43852.125</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>267</v>
+      <c r="A21" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>43853.125</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>43887.125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>43892.125</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>43946.125</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
-        <v>271</v>
+      <c r="A23" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <v>43831.125</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>43852.125</v>
       </c>
     </row>
     <row r="24">
-      <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
+      <c r="A24" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="2">
+        <v>43853.125</v>
+      </c>
+      <c r="G24" s="2">
+        <v>43887.125</v>
+      </c>
     </row>
     <row r="25">
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26">
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27">
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28">
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29">
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30">
-      <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31">
-      <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32">
-      <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33">
-      <c r="E33" s="2"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34">
-      <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35">
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36">
-      <c r="E36" s="2"/>
-      <c r="F36" s="3"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37">
-      <c r="E37" s="2"/>
-      <c r="F37" s="3"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38">
-      <c r="E38" s="2"/>
-      <c r="F38" s="3"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39">
-      <c r="E39" s="2"/>
-      <c r="F39" s="3"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40">
-      <c r="E40" s="2"/>
-      <c r="F40" s="3"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41">
-      <c r="E41" s="2"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42">
-      <c r="E42" s="2"/>
-      <c r="F42" s="3"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43">
-      <c r="E43" s="2"/>
-      <c r="F43" s="3"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44">
-      <c r="E44" s="2"/>
-      <c r="F44" s="3"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45">
-      <c r="E45" s="2"/>
-      <c r="F45" s="3"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46">
-      <c r="E46" s="2"/>
-      <c r="F46" s="3"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47">
-      <c r="E47" s="2"/>
-      <c r="F47" s="3"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48">
-      <c r="E48" s="2"/>
-      <c r="F48" s="3"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49">
-      <c r="E49" s="2"/>
-      <c r="F49" s="3"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50">
-      <c r="E50" s="2"/>
-      <c r="F50" s="3"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="3"/>
     </row>
     <row r="51">
-      <c r="E51" s="2"/>
-      <c r="F51" s="3"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="3"/>
     </row>
     <row r="52">
-      <c r="E52" s="2"/>
-      <c r="F52" s="3"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="3"/>
     </row>
     <row r="53">
-      <c r="E53" s="2"/>
-      <c r="F53" s="3"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="3"/>
     </row>
     <row r="54">
-      <c r="E54" s="2"/>
-      <c r="F54" s="3"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="3"/>
     </row>
     <row r="55">
-      <c r="E55" s="2"/>
-      <c r="F55" s="3"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="3"/>
     </row>
     <row r="56">
-      <c r="E56" s="2"/>
-      <c r="F56" s="3"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="3"/>
     </row>
     <row r="57">
-      <c r="E57" s="2"/>
-      <c r="F57" s="3"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="3"/>
     </row>
     <row r="58">
-      <c r="E58" s="2"/>
-      <c r="F58" s="3"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59">
-      <c r="E59" s="2"/>
-      <c r="F59" s="3"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="3"/>
     </row>
     <row r="60">
-      <c r="E60" s="2"/>
-      <c r="F60" s="3"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="3"/>
     </row>
     <row r="61">
-      <c r="E61" s="2"/>
-      <c r="F61" s="3"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="3"/>
     </row>
     <row r="62">
-      <c r="E62" s="2"/>
-      <c r="F62" s="3"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="3"/>
     </row>
     <row r="63">
-      <c r="E63" s="2"/>
-      <c r="F63" s="3"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="3"/>
     </row>
     <row r="64">
-      <c r="E64" s="2"/>
-      <c r="F64" s="3"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="3"/>
     </row>
     <row r="65">
-      <c r="E65" s="2"/>
-      <c r="F65" s="3"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="3"/>
     </row>
     <row r="66">
-      <c r="E66" s="2"/>
-      <c r="F66" s="3"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="3"/>
     </row>
     <row r="67">
-      <c r="E67" s="2"/>
-      <c r="F67" s="3"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="3"/>
     </row>
     <row r="68">
-      <c r="E68" s="2"/>
-      <c r="F68" s="3"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="3"/>
     </row>
     <row r="69">
-      <c r="E69" s="2"/>
-      <c r="F69" s="3"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3322,13 +3773,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3339,10 +3790,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="C2" s="1">
         <v>4.0</v>
@@ -3359,10 +3810,10 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="C3" s="1">
         <v>5.0</v>
@@ -3379,10 +3830,10 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="C4" s="1">
         <v>3.0</v>
@@ -3399,10 +3850,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="C5" s="1">
         <v>4.0</v>
@@ -3419,10 +3870,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="C6" s="1">
         <v>5.0</v>
@@ -3439,10 +3890,10 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="C7" s="1">
         <v>5.0</v>
@@ -3459,10 +3910,10 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="C8" s="1">
         <v>4.0</v>
@@ -3479,10 +3930,10 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="C9" s="1">
         <v>3.0</v>
@@ -3499,10 +3950,10 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="C10" s="1">
         <v>4.0</v>
@@ -3519,10 +3970,10 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="C11" s="1">
         <v>4.0</v>
@@ -3539,10 +3990,10 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="C12" s="1">
         <v>4.0</v>
@@ -3559,10 +4010,10 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="C13" s="1">
         <v>5.0</v>
@@ -3579,10 +4030,10 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="C14" s="1">
         <v>5.0</v>
@@ -3599,10 +4050,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>255</v>
+        <v>314</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="C15" s="1">
         <v>4.0</v>
@@ -3619,10 +4070,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="C16" s="1">
         <v>4.0</v>
@@ -3639,10 +4090,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="C17" s="1">
         <v>5.0</v>
@@ -3659,10 +4110,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C18" s="1">
         <v>3.0</v>
@@ -3679,10 +4130,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="C19" s="1">
         <v>4.0</v>
@@ -3699,10 +4150,10 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="C20" s="1">
         <v>4.0</v>
@@ -3719,10 +4170,10 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="C21" s="1">
         <v>4.0</v>
@@ -3739,10 +4190,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="C22" s="1">
         <v>5.0</v>
@@ -3759,10 +4210,10 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="C23" s="1">
         <v>5.0</v>
@@ -3779,10 +4230,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="C24" s="1">
         <v>5.0</v>
@@ -3799,10 +4250,10 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="C25" s="1">
         <v>5.0</v>
@@ -3819,10 +4270,10 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="C26" s="1">
         <v>4.0</v>
@@ -3839,10 +4290,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="C27" s="1">
         <v>5.0</v>
@@ -3859,10 +4310,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="C28" s="1">
         <v>5.0</v>
@@ -3879,10 +4330,10 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="C29" s="1">
         <v>5.0</v>
@@ -3899,10 +4350,10 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="C30" s="1">
         <v>4.0</v>
@@ -3919,10 +4370,10 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="C31" s="1">
         <v>3.0</v>
@@ -3939,10 +4390,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="C32" s="1">
         <v>4.0</v>
@@ -3959,10 +4410,10 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="C33" s="1">
         <v>4.0</v>
@@ -3979,10 +4430,10 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="C34" s="1">
         <v>5.0</v>
@@ -3999,10 +4450,10 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="C35" s="1">
         <v>5.0</v>
@@ -4019,10 +4470,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="C36" s="1">
         <v>4.0</v>
@@ -4039,10 +4490,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>255</v>
+        <v>314</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="C37" s="1">
         <v>5.0</v>
@@ -4059,10 +4510,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="C38" s="1">
         <v>4.0</v>
@@ -4079,10 +4530,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="C39" s="1">
         <v>4.0</v>
@@ -4099,10 +4550,10 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="C40" s="1">
         <v>5.0</v>
@@ -4119,10 +4570,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="C41" s="1">
         <v>4.0</v>
@@ -4139,10 +4590,10 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="C42" s="1">
         <v>5.0</v>
@@ -4159,10 +4610,10 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="C43" s="1">
         <v>3.0</v>
@@ -4179,10 +4630,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="C44" s="1">
         <v>4.0</v>
@@ -4199,10 +4650,10 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="C45" s="1">
         <v>5.0</v>
@@ -4338,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4352,13 +4803,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="B2" s="1">
         <v>4.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="D2" s="2">
         <v>43832.125</v>
@@ -4369,13 +4820,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="B3" s="1">
         <v>3.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="D3" s="2">
         <v>43832.125</v>
@@ -4386,13 +4837,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="B4" s="1">
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="D4" s="2">
         <v>43832.125</v>
@@ -4403,13 +4854,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="D5" s="2">
         <v>43832.125</v>

--- a/seeds/seeds.xlsx
+++ b/seeds/seeds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="426">
   <si>
     <t>id</t>
   </si>
@@ -701,6 +701,9 @@
     <t>id_type</t>
   </si>
   <si>
+    <t>description</t>
+  </si>
+  <si>
     <t>address</t>
   </si>
   <si>
@@ -713,6 +716,9 @@
     <t>Cinelândia</t>
   </si>
   <si>
+    <t>O melhor ponto de encontro cultural no coração do Rio de Janeiro. Venha desfrutar de filmes, teatro e música em um ambiente acolhedor e sofisticado. Imperdível!</t>
+  </si>
+  <si>
     <t>Rua Dos Filmes, 324</t>
   </si>
   <si>
@@ -722,6 +728,9 @@
     <t>Restaurante da Rose</t>
   </si>
   <si>
+    <t>O Restaurante da Rose é o lugar perfeito para saborear pratos deliciosos e autênticos. Com um ambiente acolhedor e atendimento impecável, garantimos uma experiência gastronômica única. Venha nos visitar e desfrute de momentos inesquecíveis!</t>
+  </si>
+  <si>
     <t>Avenida dos Pratos, 123</t>
   </si>
   <si>
@@ -731,6 +740,9 @@
     <t>Parquemania</t>
   </si>
   <si>
+    <t>Parquemania - O melhor parque de diversões da cidade! Venha se divertir em nossos brinquedos radicais e aproveite nossas deliciosas opções gastronômicas. Uma experiência inesquecível para toda a família!</t>
+  </si>
+  <si>
     <t>Rua da Alegria, 123</t>
   </si>
   <si>
@@ -740,6 +752,9 @@
     <t>Parque da Criança</t>
   </si>
   <si>
+    <t>O Parque da Criança é o lugar perfeito para a diversão em família! Com diversas opções de brinquedos e atividades, as crianças vão se divertir muito enquanto os pais relaxam em um ambiente seguro e agradável. Venha nos visitar e aproveite o melhor do lazer em família! #ParqueDaCriança #DiversãoEmFamília #LazerSeguro</t>
+  </si>
+  <si>
     <t>Rua Central, 32</t>
   </si>
   <si>
@@ -749,6 +764,9 @@
     <t>Museu do espaço</t>
   </si>
   <si>
+    <t>O Museu do Espaço é o lugar perfeito para explorar o universo! Com exposições interativas e incríveis réplicas de naves espaciais, proporcionamos uma experiência única para os amantes da astronomia. Venha nos visitar e embarque nessa jornada fascinante pelo cosmos!</t>
+  </si>
+  <si>
     <t>Avenida da descoberta, 123</t>
   </si>
   <si>
@@ -758,6 +776,9 @@
     <t>Teatro Rural</t>
   </si>
   <si>
+    <t>O Teatro Rural é um espaço encantador que oferece espetáculos emocionantes e divertidos para toda a família. Venha se encantar com nossas peças teatrais e desfrute de momentos inesquecíveis em meio à natureza. Aproveite também nossa deliciosa gastronomia e ambiente acolhedor. Esperamos por você!</t>
+  </si>
+  <si>
     <t>Rua dos Bois, 23</t>
   </si>
   <si>
@@ -767,6 +788,9 @@
     <t>Zoo Safari a Dentro</t>
   </si>
   <si>
+    <t>O Zoo Safari a Dentro é o lugar perfeito para se conectar com a natureza e os animais. Desfrute de uma experiência única e emocionante, onde você pode observar de perto diversas espécies em seu habitat natural. Venha nos visitar e viva momentos inesquecíveis!</t>
+  </si>
+  <si>
     <t>Avenida da Selva, 32</t>
   </si>
   <si>
@@ -776,6 +800,9 @@
     <t>Lagoa Azul</t>
   </si>
   <si>
+    <t>O paraíso na terra! A Lagoa Azul é o refúgio perfeito para relaxar e se reconectar com a natureza. Desfrute de águas cristalinas, areia branca e uma paisagem deslumbrante. Venha viver momentos inesquecíveis em nosso paraíso tropical!</t>
+  </si>
+  <si>
     <t>Rua da Criança, 43</t>
   </si>
   <si>
@@ -785,6 +812,9 @@
     <t>Serra dos Cavalos</t>
   </si>
   <si>
+    <t>Venha conhecer a Serra dos Cavalos, o refúgio perfeito para os amantes da natureza. Desfrute de trilhas deslumbrantes, cachoeiras encantadoras e uma vista panorâmica de tirar o fôlego. Aventure-se nesse paraíso e viva momentos inesquecíveis. #SerraDosCavalos #Natureza</t>
+  </si>
+  <si>
     <t>Trila ecológica do cavalo</t>
   </si>
   <si>
@@ -794,6 +824,9 @@
     <t>Veneza Parque</t>
   </si>
   <si>
+    <t>O Veneza Parque é o lugar perfeito para se divertir em família. Com uma ampla variedade de atrações, como piscinas, toboáguas e áreas de lazer, garantimos momentos inesquecíveis. Venha nos visitar e aproveite o melhor do entretenimento!</t>
+  </si>
+  <si>
     <t>Rodovia das Águas, km 34</t>
   </si>
   <si>
@@ -803,6 +836,9 @@
     <t>Centro de descobertas</t>
   </si>
   <si>
+    <t>O Centro de Descobertas é o lugar perfeito para explorar e aprender. Com uma variedade de atividades interativas e educativas, oferecemos uma experiência única para todas as idades. Venha descobrir conosco!</t>
+  </si>
+  <si>
     <t>Rua da descoberta, 32</t>
   </si>
   <si>
@@ -812,6 +848,9 @@
     <t>Museu das Artes</t>
   </si>
   <si>
+    <t>O Museu das Artes é um lugar encantador que abriga uma vasta coleção de obras de arte. Venha explorar a história e a cultura através de exposições fascinantes. Desfrute de um ambiente acolhedor e descubra a beleza da arte em cada detalhe. Visite-nos e deixe-se inspirar!</t>
+  </si>
+  <si>
     <t>Rua do Cateiro, 211</t>
   </si>
   <si>
@@ -821,6 +860,9 @@
     <t>Jardim Botanico da Cidade</t>
   </si>
   <si>
+    <t>"O Jardim Botânico da Cidade é um refúgio encantador para os amantes da natureza. Com uma variedade deslumbrante de plantas e flores, este paraíso verde oferece tranquilidade e beleza em cada passo. Venha explorar e se maravilhar com a exuberância deste lugar único!" (300 caracteres)</t>
+  </si>
+  <si>
     <t>Rodovia Luiz Gonzaga, 43</t>
   </si>
   <si>
@@ -830,6 +872,9 @@
     <t xml:space="preserve">Patinaço </t>
   </si>
   <si>
+    <t>O melhor lugar para patinar em São Paulo! Venha se divertir e praticar suas habilidades no gelo conosco. Ambiente familiar e seguro para todas as idades. Não perca a oportunidade de conhecer o Patinaço!</t>
+  </si>
+  <si>
     <t>Shopping da Cidade, 12</t>
   </si>
   <si>
@@ -839,6 +884,9 @@
     <t xml:space="preserve">Fliperama </t>
   </si>
   <si>
+    <t>"O Fliperama é o lugar perfeito para se divertir com amigos e família! Com nossas máquinas de jogos clássicos e modernos, você pode passar horas se divertindo. Além disso, oferecemos deliciosos lanches e bebidas para acompanhar sua diversão. Venha nos visitar e experimente a emoção do Fliperama!" (caracteres: 296)</t>
+  </si>
+  <si>
     <t>Avenida dos Jogos, 34</t>
   </si>
   <si>
@@ -848,6 +896,9 @@
     <t>Museu da Criaça</t>
   </si>
   <si>
+    <t>O Museu da Criança é o lugar perfeito para a diversão em família! Com diversas atividades interativas, as crianças podem aprender enquanto se divertem. Venha conhecer nossas exposições e se encantar com o mundo da imaginação. #MuseudaCriança #DiversãoemFamília #ExperiênciaInterativa</t>
+  </si>
+  <si>
     <t>Rua da história, 11</t>
   </si>
   <si>
@@ -857,6 +908,9 @@
     <t>Picinic da Sol</t>
   </si>
   <si>
+    <t>O Picnic da Sol é o lugar perfeito para desfrutar de momentos ao ar livre. Com uma atmosfera acolhedora e uma variedade de opções de alimentos frescos e deliciosos, você vai se sentir em um verdadeiro paraíso gastronômico. Venha aproveitar o sol e saborear nossas delícias!</t>
+  </si>
+  <si>
     <t>Praça da Iluminação, centro</t>
   </si>
   <si>
@@ -866,6 +920,9 @@
     <t>Baobá</t>
   </si>
   <si>
+    <t>O Baobá é o lugar perfeito para relaxar e desfrutar de deliciosos coquetéis e petiscos. Venha nos visitar e aproveite nossa atmosfera acolhedora e música ao vivo todas as sextas-feiras!</t>
+  </si>
+  <si>
     <t>Rua da  Selva, 42</t>
   </si>
   <si>
@@ -875,6 +932,9 @@
     <t>Rancho Alegre</t>
   </si>
   <si>
+    <t>O Rancho Alegre é o lugar perfeito para desfrutar de deliciosas refeições caseiras. Com um ambiente acolhedor e atendimento impecável, oferecemos pratos tradicionais da culinária brasileira. Venha nos visitar e saborear o melhor da gastronomia em um ambiente familiar e aconchegante.</t>
+  </si>
+  <si>
     <t>Avenida do Rancho, 235</t>
   </si>
   <si>
@@ -884,6 +944,9 @@
     <t>Piscinão Azul</t>
   </si>
   <si>
+    <t>O Piscinão Azul é o lugar perfeito para relaxar e se refrescar. Com uma piscina cristalina e um ambiente acolhedor, oferecemos o melhor em entretenimento aquático. Venha nos visitar e desfrute de momentos inesquecíveis!</t>
+  </si>
+  <si>
     <t>Rua dos clubes, 32</t>
   </si>
   <si>
@@ -893,6 +956,9 @@
     <t>Burguelândia</t>
   </si>
   <si>
+    <t>Venha experimentar os melhores hambúrgueres artesanais da cidade! Com ingredientes frescos e um ambiente descontraído, Burguelândia é o lugar perfeito para satisfazer seu desejo por um delicioso lanche. Não perca tempo, faça uma visita e descubra o sabor que vai te conquistar!</t>
+  </si>
+  <si>
     <t>Rua das comidas, 43</t>
   </si>
   <si>
@@ -902,15 +968,24 @@
     <t>Pizzamania</t>
   </si>
   <si>
+    <t>Venha experimentar as melhores pizzas da cidade! Com uma variedade de sabores irresistíveis e ingredientes frescos, a Pizzamania é o lugar perfeito para satisfazer seu desejo por pizza. Ambiente acolhedor e atendimento de primeira. Não perca tempo, faça sua reserva agora mesmo!</t>
+  </si>
+  <si>
     <t>uuid-casa-club</t>
   </si>
   <si>
     <t>Casa Club</t>
   </si>
   <si>
+    <t>A Casa Club é o lugar perfeito para quem busca diversão e entretenimento. Com uma decoração moderna e sofisticada, oferecemos uma ampla variedade de bebidas e petiscos deliciosos. Venha curtir a noite conosco e aproveite nossas promoções especiais!</t>
+  </si>
+  <si>
     <t>Rua dos clubes, 45</t>
   </si>
   <si>
+    <t>id_establishment</t>
+  </si>
+  <si>
     <t>review</t>
   </si>
   <si>
@@ -920,142 +995,274 @@
     <t>id_user</t>
   </si>
   <si>
+    <t>uuid-review-1</t>
+  </si>
+  <si>
     <t>Um lugar incrível para os amantes de cinema! A qualidade do som e da imagem é excelente, e a seleção de filmes sempre inclui os últimos lançamentos.</t>
   </si>
   <si>
+    <t>uuid-review-2</t>
+  </si>
+  <si>
     <t>Comida caseira autêntica e um ambiente acolhedor. A Rose faz você se sentir em casa. Não deixe de provar o estrogonofe!</t>
   </si>
   <si>
+    <t>uuid-review-3</t>
+  </si>
+  <si>
     <t>Um parque de diversões que superou todas as nossas expectativas! Ideal para todas as idades, com muitas atrações radicais e áreas temáticas.</t>
   </si>
   <si>
+    <t>uuid-review-4</t>
+  </si>
+  <si>
     <t>Perfeito para um dia em família! Muitas atividades interativas para as crianças e espaços de descanso para os adultos</t>
   </si>
   <si>
+    <t>uuid-review-5</t>
+  </si>
+  <si>
     <t>Fascinante! A exposição interativa é uma jornada incrível pelo universo. Recomendo muito para quem tem interesse em astronomia</t>
   </si>
   <si>
+    <t>uuid-review-6</t>
+  </si>
+  <si>
     <t>Uma experiência única que combina arte e natureza. As peças são sempre emocionantes e o cenário ao ar livre é deslumbrante.</t>
   </si>
   <si>
+    <t>uuid-review-7</t>
+  </si>
+  <si>
     <t>Uma experiência inesquecível! Ver os animais tão de perto foi emocionante. Excelente programa para as crianças aprenderem sobre conservação.</t>
   </si>
   <si>
+    <t>uuid-review-8</t>
+  </si>
+  <si>
     <t>Um oásis de tranquilidade. Águas cristalinas e perfeitas para um mergulho refrescante. Um lugar maravilhoso para relaxar e se conectar com a natureza.</t>
   </si>
   <si>
+    <t>uuid-review-9</t>
+  </si>
+  <si>
     <t>Para os aventureiros de plantão, a Serra dos Cavalos oferece trilhas desafiadoras com vistas de tirar o fôlego. Vale cada passo!</t>
   </si>
   <si>
+    <t>uuid-review-10</t>
+  </si>
+  <si>
     <t>Uma mini-Veneza que encanta a todos. Os passeios de gôndola são românticos e a arquitetura é impressionante. Um pedacinho da Itália na cidade</t>
   </si>
   <si>
+    <t>uuid-review-11</t>
+  </si>
+  <si>
     <t>Interativo e educativo, é o lugar ideal para crianças curiosas. As exposições mudam frequentemente, sempre trazendo novidades</t>
   </si>
   <si>
+    <t>uuid-review-12</t>
+  </si>
+  <si>
     <t>Um espaço sublime que abriga coleções de arte impressionantes. A cada visita, descubro algo novo. Uma jóia cultural.</t>
   </si>
   <si>
+    <t>uuid-review-13</t>
+  </si>
+  <si>
     <t>Um refúgio verde no meio da cidade. A diversidade de plantas e flores é estonteante, e os caminhos são perfeitos para uma caminhada tranquila.</t>
   </si>
   <si>
+    <t>uuid-review-14</t>
+  </si>
+  <si>
     <t>uuid-patinaço</t>
   </si>
   <si>
     <t>A pista de patinação é ampla e bem cuidada. Um lugar divertido para famílias e amigos. Eles também oferecem aulas para iniciantes</t>
   </si>
   <si>
+    <t>uuid-review-15</t>
+  </si>
+  <si>
     <t>Voltar no tempo e reviver a infância. O fliperama tem uma ótima seleção de jogos clássicos e novos. Ótimo lugar para se divertir.</t>
   </si>
   <si>
+    <t>uuid-review-16</t>
+  </si>
+  <si>
     <t>Um lugar mágico cheio de atividades lúdicas e educativas. Meus filhos amaram e aprenderam muito brincando.</t>
   </si>
   <si>
+    <t>uuid-review-17</t>
+  </si>
+  <si>
     <t>O local perfeito para um piquenique em família ou com amigos. Muita grama verde, sombras agradáveis e uma vista deslumbrante do pôr do sol.</t>
   </si>
   <si>
+    <t>uuid-review-18</t>
+  </si>
+  <si>
     <t>Visitar o Baobá é como entrar em um conto de fadas. A árvore é majestosa e o ambiente ao redor é pacífico. Uma experiência memorável.</t>
   </si>
   <si>
+    <t>uuid-review-19</t>
+  </si>
+  <si>
     <t>Um dia no campo cheio de diversão e aprendizado. As atividades de fazenda são ótimas para as crianças, e os funcionários são super simpáticos.</t>
   </si>
   <si>
+    <t>uuid-review-20</t>
+  </si>
+  <si>
     <t>uuid-piscinão-azul</t>
   </si>
   <si>
     <t>A melhor fuga do calor! O parque aquático tem opções para todos, desde piscinas tranquilas até escorregadores emocionantes.</t>
   </si>
   <si>
+    <t>uuid-review-21</t>
+  </si>
+  <si>
     <t>O paraíso dos hambúrgueres! Cada opção no menu é mais deliciosa que a outra. O ambiente é descontraído e perfeito para encontros</t>
   </si>
   <si>
+    <t>uuid-review-22</t>
+  </si>
+  <si>
     <t>uuid-pizzarolla</t>
   </si>
   <si>
     <t>Uma pizzaria que se destaca. A massa fina e crocante e os ingredientes frescos fazem toda a diferença. Excelente atendimento também</t>
   </si>
   <si>
+    <t>uuid-review-23</t>
+  </si>
+  <si>
     <t>Ambiente confortável e aconchegante, com uma grande variedade de filmes. Os assentos são extremamente confortáveis e o atendimento é top.</t>
   </si>
   <si>
+    <t>uuid-review-24</t>
+  </si>
+  <si>
     <t>A sensação de comer na casa de uma amiga. O ambiente é simples, mas a comida é de primeira. O bolo de chocolate é imperdível!</t>
   </si>
   <si>
+    <t>uuid-review-25</t>
+  </si>
+  <si>
     <t>Um dia cheio de risadas e diversão garantida para toda a família. As atrações são seguras e bem mantidas, e o staff é super atencioso.</t>
   </si>
   <si>
+    <t>uuid-review-26</t>
+  </si>
+  <si>
     <t>Adorável! Muito limpo e seguro, com inúmeras atividades para manter as crianças entretidas. Os brinquedos educativos são um bônus.</t>
   </si>
   <si>
+    <t>uuid-review-27</t>
+  </si>
+  <si>
     <t>O show do planetário é simplesmente hipnotizante. Uma ótima maneira de passar a tarde aprendendo sobre as maravilhas do universo.</t>
   </si>
   <si>
+    <t>uuid-review-28</t>
+  </si>
+  <si>
     <t>Uma joia escondida. Assistir a uma peça aqui é uma experiência íntima e especial, com o cenário natural acrescentando ao espetáculo.</t>
   </si>
   <si>
+    <t>uuid-review-29</t>
+  </si>
+  <si>
     <t>Além de ver os animais, as crianças podem participar de atividades educativas. Os guias são apaixonados e muito informados.</t>
   </si>
   <si>
+    <t>uuid-review-30</t>
+  </si>
+  <si>
     <t>Um pedacinho do paraíso. Perfeito para nadar, fazer piquenique e simplesmente relaxar ao sol. As águas são surpreendentemente claras.</t>
   </si>
   <si>
+    <t>uuid-review-31</t>
+  </si>
+  <si>
     <t>As vistas do topo são de tirar o fôlego. Vale a pena o esforço da caminhada. Um ótimo lugar para desconnectar da rotina agitada.</t>
   </si>
   <si>
+    <t>uuid-review-32</t>
+  </si>
+  <si>
     <t>O detalhe e o cuidado na construção deste parque são incríveis. Sentimos como se estivéssemos realmente em Veneza por algumas horas.</t>
   </si>
   <si>
+    <t>uuid-review-33</t>
+  </si>
+  <si>
     <t>Cada visita é uma nova aventura. As crianças adoram os workshops práticos. É maravilhoso ver a curiosidade delas sendo estimulada.</t>
   </si>
   <si>
+    <t>uuid-review-34</t>
+  </si>
+  <si>
     <t>Perfeito para os amantes de arte. O museu oferece uma vasta coleção que abrange várias eras e estilos. Inspirador e educativo.</t>
   </si>
   <si>
+    <t>uuid-review-35</t>
+  </si>
+  <si>
     <t>Excelente lugar para uma caminhada tranquila ou uma corrida matinal. A diversidade de plantas e o layout são simplesmente impressionantes.</t>
   </si>
   <si>
+    <t>uuid-review-36</t>
+  </si>
+  <si>
     <t>Ambiente divertido e acolhedor, ideal para patinadores de todos os níveis. Eles também fazem festas de aniversário incríveis aqui.</t>
   </si>
   <si>
+    <t>uuid-review-37</t>
+  </si>
+  <si>
     <t>Um excelente lugar para reunir os amigos e desfrutar de uma competição amigável. Os jogos retro são os meus favoritos.</t>
   </si>
   <si>
+    <t>uuid-review-38</t>
+  </si>
+  <si>
     <t>Este lugar é um tesouro. As exposições interativas mantêm as crianças engajadas e aprendendo. A área de brincar ao ar livre é fantástica.</t>
   </si>
   <si>
+    <t>uuid-review-39</t>
+  </si>
+  <si>
     <t>O cenário é pitoresco, ideal para uma tarde relaxante. É um dos nossos locais favoritos para escapar da correria da cidade.</t>
   </si>
   <si>
+    <t>uuid-review-40</t>
+  </si>
+  <si>
     <t>Este lugar tem uma energia especial. A grandiosidade do Baobá te faz sentir pequeno e admirado. Ótimo para fotos e momentos de reflexão.</t>
   </si>
   <si>
+    <t>uuid-review-41</t>
+  </si>
+  <si>
     <t>A interação com os animais foi maravilhosa, especialmente para as crianças. Uma ótima maneira de aprender sobre a vida no campo.</t>
   </si>
   <si>
+    <t>uuid-review-42</t>
+  </si>
+  <si>
     <t>Limpo, divertido e refrescante. A variedade de piscinas atende a todos, e os tobogãs são emocionantes. Uma ótima maneira de passar o dia.</t>
   </si>
   <si>
+    <t>uuid-review-43</t>
+  </si>
+  <si>
     <t>As opções de hambúrgueres são criativas e deliciosas. O ambiente é vibrante e convidativo, perfeito para uma noite casual com amigos.</t>
+  </si>
+  <si>
+    <t>uuid-review-44</t>
   </si>
   <si>
     <t>Ambiente acolhedor com pizzas excepcionais. A seleção de coberturas é vasta e saborosa. Definitivamente, um dos melhores lugares da cidade.</t>
@@ -3010,10 +3217,11 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="23.38"/>
     <col customWidth="1" min="2" max="2" width="20.5"/>
-    <col customWidth="1" min="3" max="3" width="27.0"/>
-    <col customWidth="1" min="4" max="5" width="18.38"/>
-    <col customWidth="1" min="6" max="6" width="20.38"/>
-    <col customWidth="1" min="7" max="7" width="17.0"/>
+    <col customWidth="1" min="3" max="3" width="14.5"/>
+    <col customWidth="1" min="4" max="4" width="563.75"/>
+    <col customWidth="1" min="5" max="6" width="18.38"/>
+    <col customWidth="1" min="7" max="7" width="20.38"/>
+    <col customWidth="1" min="8" max="8" width="17.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3033,720 +3241,792 @@
         <v>229</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>232</v>
+      <c r="D2" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="H2" s="3">
         <v>43834.125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>235</v>
+      <c r="D3" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="H3" s="3">
         <v>43835.125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>238</v>
+      <c r="D4" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="H4" s="3">
         <v>43875.125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>241</v>
+      <c r="D5" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="H5" s="3">
         <v>43837.125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>244</v>
+      <c r="D6" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F6" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="H6" s="3">
         <v>43875.125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>247</v>
+      <c r="D7" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43850.125</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>43895.125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>250</v>
+      <c r="D8" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>43853.125</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>43859.125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>253</v>
+      <c r="D9" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>43892.125</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>43924.125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>256</v>
+      <c r="D10" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>43831.125</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>43834.125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>259</v>
+      <c r="D11" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>44928.125</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>44932.125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>262</v>
+      <c r="D12" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>45293.125</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>45349.125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>265</v>
+      <c r="D13" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>44928.125</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>44973.125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>268</v>
+      <c r="D14" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>43850.125</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>43904.125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>271</v>
+      <c r="D15" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>43853.125</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>43856.125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>274</v>
+      <c r="D16" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F16" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="H16" s="3">
         <v>43855.125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>277</v>
+      <c r="D17" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F17" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="H17" s="3">
         <v>43886.125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>280</v>
+      <c r="D18" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F18" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="H18" s="3">
         <v>43866.125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>283</v>
+      <c r="D19" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F19" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="H19" s="3">
         <v>43888.125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>286</v>
+      <c r="D20" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
         <v>43850.125</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>43852.125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>289</v>
+      <c r="D21" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
         <v>43853.125</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>43887.125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>292</v>
+      <c r="D22" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G22" s="2">
         <v>43892.125</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>43946.125</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>292</v>
+      <c r="D23" s="4" t="s">
+        <v>317</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G23" s="2">
         <v>43831.125</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>43852.125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>297</v>
+      <c r="D24" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G24" s="2">
         <v>43853.125</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>43887.125</v>
       </c>
     </row>
     <row r="25">
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26">
-      <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27">
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28">
-      <c r="F28" s="2"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29">
-      <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30">
-      <c r="F30" s="2"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31">
-      <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32">
-      <c r="F32" s="2"/>
-      <c r="G32" s="3"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33">
-      <c r="F33" s="2"/>
-      <c r="G33" s="3"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34">
-      <c r="F34" s="2"/>
-      <c r="G34" s="3"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35">
-      <c r="F35" s="2"/>
-      <c r="G35" s="3"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36">
-      <c r="F36" s="2"/>
-      <c r="G36" s="3"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37">
-      <c r="F37" s="2"/>
-      <c r="G37" s="3"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38">
-      <c r="F38" s="2"/>
-      <c r="G38" s="3"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39">
-      <c r="F39" s="2"/>
-      <c r="G39" s="3"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40">
-      <c r="F40" s="2"/>
-      <c r="G40" s="3"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41">
-      <c r="F41" s="2"/>
-      <c r="G41" s="3"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
     </row>
     <row r="42">
-      <c r="F42" s="2"/>
-      <c r="G42" s="3"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43">
-      <c r="F43" s="2"/>
-      <c r="G43" s="3"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
     </row>
     <row r="44">
-      <c r="F44" s="2"/>
-      <c r="G44" s="3"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45">
-      <c r="F45" s="2"/>
-      <c r="G45" s="3"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="3"/>
     </row>
     <row r="46">
-      <c r="F46" s="2"/>
-      <c r="G46" s="3"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47">
-      <c r="F47" s="2"/>
-      <c r="G47" s="3"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="3"/>
     </row>
     <row r="48">
-      <c r="F48" s="2"/>
-      <c r="G48" s="3"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="3"/>
     </row>
     <row r="49">
-      <c r="F49" s="2"/>
-      <c r="G49" s="3"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="3"/>
     </row>
     <row r="50">
-      <c r="F50" s="2"/>
-      <c r="G50" s="3"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
     </row>
     <row r="51">
-      <c r="F51" s="2"/>
-      <c r="G51" s="3"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="3"/>
     </row>
     <row r="52">
-      <c r="F52" s="2"/>
-      <c r="G52" s="3"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="3"/>
     </row>
     <row r="53">
-      <c r="F53" s="2"/>
-      <c r="G53" s="3"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="3"/>
     </row>
     <row r="54">
-      <c r="F54" s="2"/>
-      <c r="G54" s="3"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55">
-      <c r="F55" s="2"/>
-      <c r="G55" s="3"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="3"/>
     </row>
     <row r="56">
-      <c r="F56" s="2"/>
-      <c r="G56" s="3"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="3"/>
     </row>
     <row r="57">
-      <c r="F57" s="2"/>
-      <c r="G57" s="3"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="3"/>
     </row>
     <row r="58">
-      <c r="F58" s="2"/>
-      <c r="G58" s="3"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="3"/>
     </row>
     <row r="59">
-      <c r="F59" s="2"/>
-      <c r="G59" s="3"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="3"/>
     </row>
     <row r="60">
-      <c r="F60" s="2"/>
-      <c r="G60" s="3"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="3"/>
     </row>
     <row r="61">
-      <c r="F61" s="2"/>
-      <c r="G61" s="3"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="3"/>
     </row>
     <row r="62">
-      <c r="F62" s="2"/>
-      <c r="G62" s="3"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="3"/>
     </row>
     <row r="63">
-      <c r="F63" s="2"/>
-      <c r="G63" s="3"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="3"/>
     </row>
     <row r="64">
-      <c r="F64" s="2"/>
-      <c r="G64" s="3"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="3"/>
     </row>
     <row r="65">
-      <c r="F65" s="2"/>
-      <c r="G65" s="3"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="3"/>
     </row>
     <row r="66">
-      <c r="F66" s="2"/>
-      <c r="G66" s="3"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="3"/>
     </row>
     <row r="67">
-      <c r="F67" s="2"/>
-      <c r="G67" s="3"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="3"/>
     </row>
     <row r="68">
-      <c r="F68" s="2"/>
-      <c r="G68" s="3"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="3"/>
     </row>
     <row r="69">
-      <c r="F69" s="2"/>
-      <c r="G69" s="3"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3763,9 +4043,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.38"/>
-    <col customWidth="1" min="2" max="2" width="119.38"/>
-    <col customWidth="1" min="5" max="5" width="16.13"/>
+    <col customWidth="1" min="1" max="2" width="23.38"/>
+    <col customWidth="1" min="3" max="3" width="119.38"/>
+    <col customWidth="1" min="6" max="6" width="16.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3773,996 +4053,1131 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>230</v>
+        <v>326</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C2" s="1">
+        <v>231</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="1">
         <v>4.0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5">
-        <v>43832.125</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
+        <v>43832.125</v>
+      </c>
+      <c r="G2" s="3">
         <v>43834.125</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="A3" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="1">
         <v>5.0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="5">
-        <v>43832.125</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
+        <v>43832.125</v>
+      </c>
+      <c r="G3" s="3">
         <v>43835.125</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="A4" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" s="1">
         <v>3.0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="5">
-        <v>43832.125</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
+        <v>43832.125</v>
+      </c>
+      <c r="G4" s="3">
         <v>43875.125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>239</v>
+        <v>332</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C5" s="1">
+        <v>243</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" s="1">
         <v>4.0</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="5">
-        <v>43832.125</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
+        <v>43832.125</v>
+      </c>
+      <c r="G5" s="3">
         <v>43837.125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>242</v>
+        <v>334</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C6" s="1">
+        <v>247</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="1">
         <v>5.0</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="5">
-        <v>43832.125</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
+        <v>43832.125</v>
+      </c>
+      <c r="G6" s="3">
         <v>43875.125</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="A7" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" s="1">
         <v>5.0</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>43850.125</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>43895.125</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="A8" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="1">
         <v>4.0</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>43853.125</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>43859.125</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="A9" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D9" s="1">
         <v>3.0</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>43892.125</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>43924.125</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="A10" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D10" s="1">
         <v>4.0</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>43831.125</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>43834.125</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="A11" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11" s="1">
         <v>4.0</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="5">
         <v>44928.125</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>44932.125</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="A12" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D12" s="1">
         <v>4.0</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>45293.125</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>45349.125</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="A13" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D13" s="1">
         <v>5.0</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>44928.125</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>44973.125</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="A14" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D14" s="1">
         <v>5.0</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <v>43850.125</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>43904.125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C15" s="1">
+        <v>353</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D15" s="1">
         <v>4.0</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
         <v>43853.125</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>43856.125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>272</v>
+        <v>355</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C16" s="1">
+        <v>287</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D16" s="1">
         <v>4.0</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="5">
-        <v>43832.125</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="F16" s="5">
+        <v>43832.125</v>
+      </c>
+      <c r="G16" s="3">
         <v>43855.125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C17" s="1">
+        <v>291</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D17" s="1">
         <v>5.0</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="5">
-        <v>43832.125</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="F17" s="5">
+        <v>43832.125</v>
+      </c>
+      <c r="G17" s="3">
         <v>43886.125</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="A18" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D18" s="1">
         <v>3.0</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="5">
-        <v>43832.125</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="F18" s="5">
+        <v>43832.125</v>
+      </c>
+      <c r="G18" s="3">
         <v>43866.125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>281</v>
+        <v>361</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C19" s="1">
+        <v>299</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D19" s="1">
         <v>4.0</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="5">
-        <v>43832.125</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="F19" s="5">
+        <v>43832.125</v>
+      </c>
+      <c r="G19" s="3">
         <v>43888.125</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="A20" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D20" s="1">
         <v>4.0</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="5">
+      <c r="F20" s="5">
         <v>43850.125</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>43852.125</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="A21" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D21" s="1">
         <v>4.0</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="5">
+      <c r="F21" s="5">
         <v>43853.125</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>43887.125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>290</v>
+        <v>368</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C22" s="1">
+        <v>311</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D22" s="1">
         <v>5.0</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="5">
+      <c r="F22" s="5">
         <v>43892.125</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>43946.125</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="A23" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D23" s="1">
         <v>5.0</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="5">
+      <c r="F23" s="5">
         <v>43831.125</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>43852.125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>230</v>
+        <v>373</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C24" s="1">
+        <v>231</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D24" s="1">
         <v>5.0</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="5">
+      <c r="F24" s="5">
         <v>44928.125</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>44962.125</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="A25" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D25" s="1">
         <v>5.0</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="5">
+      <c r="F25" s="5">
         <v>45293.125</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>45349.125</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="A26" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D26" s="1">
         <v>4.0</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="5">
-        <v>43832.125</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="F26" s="5">
+        <v>43832.125</v>
+      </c>
+      <c r="G26" s="3">
         <v>43839.125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>239</v>
+        <v>379</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C27" s="1">
+        <v>243</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D27" s="1">
         <v>5.0</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="5">
-        <v>43832.125</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="F27" s="5">
+        <v>43832.125</v>
+      </c>
+      <c r="G27" s="3">
         <v>43886.125</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>242</v>
+        <v>381</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C28" s="1">
+        <v>247</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D28" s="1">
         <v>5.0</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="5">
-        <v>43832.125</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="F28" s="5">
+        <v>43832.125</v>
+      </c>
+      <c r="G28" s="3">
         <v>43910.125</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="A29" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D29" s="1">
         <v>5.0</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="5">
+      <c r="F29" s="5">
         <v>43850.125</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>43859.125</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="A30" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D30" s="1">
         <v>4.0</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F30" s="5">
         <v>43853.125</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G30" s="3">
         <v>43861.125</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C31" s="1">
+      <c r="A31" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D31" s="1">
         <v>3.0</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="5">
+      <c r="F31" s="5">
         <v>43892.125</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G31" s="3">
         <v>43899.125</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="A32" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D32" s="1">
         <v>4.0</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="5">
+      <c r="F32" s="5">
         <v>43831.125</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>43865.125</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C33" s="1">
+      <c r="A33" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D33" s="1">
         <v>4.0</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="5">
+      <c r="F33" s="5">
         <v>44928.125</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>44981.125</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C34" s="1">
+      <c r="A34" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D34" s="1">
         <v>5.0</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="5">
+      <c r="F34" s="5">
         <v>45293.125</v>
       </c>
-      <c r="F34" s="3">
+      <c r="G34" s="3">
         <v>45295.125</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C35" s="1">
+      <c r="A35" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D35" s="1">
         <v>5.0</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E35" s="5">
-        <v>43832.125</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="F35" s="5">
+        <v>43832.125</v>
+      </c>
+      <c r="G35" s="3">
         <v>43844.125</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="A36" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D36" s="1">
         <v>4.0</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E36" s="5">
-        <v>43832.125</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="F36" s="5">
+        <v>43832.125</v>
+      </c>
+      <c r="G36" s="3">
         <v>43837.125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>314</v>
+        <v>399</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C37" s="1">
+        <v>353</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D37" s="1">
         <v>5.0</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E37" s="5">
-        <v>43832.125</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="F37" s="5">
+        <v>43832.125</v>
+      </c>
+      <c r="G37" s="3">
         <v>43919.125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>272</v>
+        <v>401</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C38" s="1">
+        <v>287</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D38" s="1">
         <v>4.0</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="5">
-        <v>43832.125</v>
-      </c>
-      <c r="F38" s="3">
+      <c r="F38" s="5">
+        <v>43832.125</v>
+      </c>
+      <c r="G38" s="3">
         <v>43897.125</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>275</v>
+        <v>403</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C39" s="1">
+        <v>291</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D39" s="1">
         <v>4.0</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E39" s="5">
+      <c r="F39" s="5">
         <v>43850.125</v>
       </c>
-      <c r="F39" s="3">
+      <c r="G39" s="3">
         <v>43893.125</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C40" s="1">
+      <c r="A40" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D40" s="1">
         <v>5.0</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="5">
+      <c r="F40" s="5">
         <v>43853.125</v>
       </c>
-      <c r="F40" s="3">
+      <c r="G40" s="3">
         <v>43876.125</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>281</v>
+        <v>407</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C41" s="1">
+        <v>299</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D41" s="1">
         <v>4.0</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="5">
+      <c r="F41" s="5">
         <v>43892.125</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>43937.125</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C42" s="1">
+      <c r="A42" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D42" s="1">
         <v>5.0</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E42" s="5">
+      <c r="F42" s="5">
         <v>43831.125</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>43907.125</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C43" s="1">
+      <c r="A43" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D43" s="1">
         <v>3.0</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E43" s="5">
+      <c r="F43" s="5">
         <v>44928.125</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>44982.125</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>290</v>
+        <v>413</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C44" s="1">
+        <v>311</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D44" s="1">
         <v>4.0</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="5">
+      <c r="F44" s="5">
         <v>45293.125</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>45360.125</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C45" s="1">
+      <c r="A45" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D45" s="1">
         <v>5.0</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E45" s="5">
+      <c r="F45" s="5">
         <v>45293.125</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>45373.125</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" s="5"/>
-      <c r="F46" s="3"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47">
-      <c r="E47" s="2"/>
-      <c r="F47" s="3"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48">
-      <c r="E48" s="2"/>
-      <c r="F48" s="3"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49">
-      <c r="E49" s="2"/>
-      <c r="F49" s="3"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50">
-      <c r="E50" s="2"/>
-      <c r="F50" s="3"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="3"/>
     </row>
     <row r="51">
-      <c r="E51" s="2"/>
-      <c r="F51" s="3"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="3"/>
     </row>
     <row r="52">
-      <c r="E52" s="2"/>
-      <c r="F52" s="3"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="3"/>
     </row>
     <row r="53">
-      <c r="E53" s="2"/>
-      <c r="F53" s="3"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="3"/>
     </row>
     <row r="54">
-      <c r="E54" s="2"/>
-      <c r="F54" s="3"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="3"/>
     </row>
     <row r="55">
-      <c r="E55" s="2"/>
-      <c r="F55" s="3"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="3"/>
     </row>
     <row r="56">
-      <c r="E56" s="2"/>
-      <c r="F56" s="3"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="3"/>
     </row>
     <row r="57">
-      <c r="E57" s="2"/>
-      <c r="F57" s="3"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="3"/>
     </row>
     <row r="58">
-      <c r="E58" s="2"/>
-      <c r="F58" s="3"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59">
-      <c r="E59" s="2"/>
-      <c r="F59" s="3"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="3"/>
     </row>
     <row r="60">
-      <c r="E60" s="2"/>
-      <c r="F60" s="3"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="3"/>
     </row>
     <row r="61">
-      <c r="E61" s="2"/>
-      <c r="F61" s="3"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="3"/>
     </row>
     <row r="62">
-      <c r="E62" s="2"/>
-      <c r="F62" s="3"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="3"/>
     </row>
     <row r="63">
-      <c r="E63" s="2"/>
-      <c r="F63" s="3"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="3"/>
     </row>
     <row r="64">
-      <c r="E64" s="2"/>
-      <c r="F64" s="3"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="3"/>
     </row>
     <row r="65">
-      <c r="E65" s="2"/>
-      <c r="F65" s="3"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="3"/>
     </row>
     <row r="66">
-      <c r="E66" s="2"/>
-      <c r="F66" s="3"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="3"/>
     </row>
     <row r="67">
-      <c r="E67" s="2"/>
-      <c r="F67" s="3"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="3"/>
     </row>
     <row r="68">
-      <c r="E68" s="2"/>
-      <c r="F68" s="3"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="3"/>
     </row>
     <row r="69">
-      <c r="E69" s="2"/>
-      <c r="F69" s="3"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4789,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>348</v>
+        <v>417</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4803,13 +5218,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>349</v>
+        <v>418</v>
       </c>
       <c r="B2" s="1">
         <v>4.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="D2" s="2">
         <v>43832.125</v>
@@ -4820,13 +5235,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>351</v>
+        <v>420</v>
       </c>
       <c r="B3" s="1">
         <v>3.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>352</v>
+        <v>421</v>
       </c>
       <c r="D3" s="2">
         <v>43832.125</v>
@@ -4837,13 +5252,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>353</v>
+        <v>422</v>
       </c>
       <c r="B4" s="1">
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>354</v>
+        <v>423</v>
       </c>
       <c r="D4" s="2">
         <v>43832.125</v>
@@ -4854,13 +5269,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>355</v>
+        <v>424</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="D5" s="2">
         <v>43832.125</v>

--- a/seeds/seeds.xlsx
+++ b/seeds/seeds.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="establishment_types" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="user_categories" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="users" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="establishments" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="ratings" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="users_categories" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="establishment_types" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="establishments" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="ratings" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -20,6 +20,9 @@
     <t>id</t>
   </si>
   <si>
+    <t>reviews_checkpoint</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -29,6 +32,645 @@
     <t>updated_at</t>
   </si>
   <si>
+    <t>uuid-alien</t>
+  </si>
+  <si>
+    <t>Alien</t>
+  </si>
+  <si>
+    <t>uuid-explorer</t>
+  </si>
+  <si>
+    <t>Explorador</t>
+  </si>
+  <si>
+    <t>uuid-astronaut</t>
+  </si>
+  <si>
+    <t>Astronauta</t>
+  </si>
+  <si>
+    <t>uuid-curious</t>
+  </si>
+  <si>
+    <t>Curioso</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>uuid-joey-doe</t>
+  </si>
+  <si>
+    <t>Joey Doe</t>
+  </si>
+  <si>
+    <t>joey_doe@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-jane-silva</t>
+  </si>
+  <si>
+    <t>Jane Silva</t>
+  </si>
+  <si>
+    <t>jane_silva@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-ivan-luiz</t>
+  </si>
+  <si>
+    <t>Ivan Luiz</t>
+  </si>
+  <si>
+    <t>ivan_luiz@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-jose-maria</t>
+  </si>
+  <si>
+    <t>Jose Maria</t>
+  </si>
+  <si>
+    <t>jose_maria@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-sandra-luna</t>
+  </si>
+  <si>
+    <t>Sandra Luna</t>
+  </si>
+  <si>
+    <t>sandra_luna@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-lucas-silva</t>
+  </si>
+  <si>
+    <t>Lucas Silva</t>
+  </si>
+  <si>
+    <t>lucas_silva@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-carla-almeida</t>
+  </si>
+  <si>
+    <t>Carla Almeida</t>
+  </si>
+  <si>
+    <t>carla_almeida@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-maria-julia</t>
+  </si>
+  <si>
+    <t>Maria Julia</t>
+  </si>
+  <si>
+    <t>maria_julia@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-ana-paula</t>
+  </si>
+  <si>
+    <t>Ana Paula</t>
+  </si>
+  <si>
+    <t>ana_paula@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-mario-neto</t>
+  </si>
+  <si>
+    <t>Mario Neto</t>
+  </si>
+  <si>
+    <t>mario_neto@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-luiza-santos</t>
+  </si>
+  <si>
+    <t>Luiza Santos</t>
+  </si>
+  <si>
+    <t>luiza_santos@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-pedro-henrique</t>
+  </si>
+  <si>
+    <t>Pedro Henrique</t>
+  </si>
+  <si>
+    <t>pedro_henrique@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-caroline-dias</t>
+  </si>
+  <si>
+    <t>Caroline Dias</t>
+  </si>
+  <si>
+    <t>caroline_dias@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-felipe-araujo</t>
+  </si>
+  <si>
+    <t>Felipe Araujo</t>
+  </si>
+  <si>
+    <t>felipe_araujo@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-gabriela-moura</t>
+  </si>
+  <si>
+    <t>Gabriela Moura</t>
+  </si>
+  <si>
+    <t>gabriela_moura@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-rodrigo-lima</t>
+  </si>
+  <si>
+    <t>Rodrigo Lima</t>
+  </si>
+  <si>
+    <t>rodrigo_lima@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-sophia-castro</t>
+  </si>
+  <si>
+    <t>Sophia Castro</t>
+  </si>
+  <si>
+    <t>sophia_castro@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-guilherme-oliveira</t>
+  </si>
+  <si>
+    <t>Guilherme Oliveira</t>
+  </si>
+  <si>
+    <t>guilherme_oliveira@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-marcela-rodrigues</t>
+  </si>
+  <si>
+    <t>Marcela Rodrigues</t>
+  </si>
+  <si>
+    <t>marcela_rodrigues@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-thiago-menezes</t>
+  </si>
+  <si>
+    <t>Thiago Menezes</t>
+  </si>
+  <si>
+    <t>thiago_menezes@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-amanda-ferreira</t>
+  </si>
+  <si>
+    <t>Amanda Ferreira</t>
+  </si>
+  <si>
+    <t>amanda_ferreira@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-rafael-souza</t>
+  </si>
+  <si>
+    <t>Rafael Souza</t>
+  </si>
+  <si>
+    <t>rafael_souza@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-larissa-machado</t>
+  </si>
+  <si>
+    <t>Larissa Machado</t>
+  </si>
+  <si>
+    <t>larissa_machado@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-vinicius-costa</t>
+  </si>
+  <si>
+    <t>Vinicius Costa</t>
+  </si>
+  <si>
+    <t>vinicius_costa@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-beatriz-lima</t>
+  </si>
+  <si>
+    <t>Beatriz Lima</t>
+  </si>
+  <si>
+    <t>beatriz_lima@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-caio-martins</t>
+  </si>
+  <si>
+    <t>Caio Martins</t>
+  </si>
+  <si>
+    <t>caio_martins@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-daniela-pires</t>
+  </si>
+  <si>
+    <t>Daniela Pires</t>
+  </si>
+  <si>
+    <t>daniela_pires@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-henrique-fonseca</t>
+  </si>
+  <si>
+    <t>Henrique Fonseca</t>
+  </si>
+  <si>
+    <t>henrique_fonseca@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-alice-barbosa</t>
+  </si>
+  <si>
+    <t>Alice Barbosa</t>
+  </si>
+  <si>
+    <t>alice_barbosa@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-joão-victor</t>
+  </si>
+  <si>
+    <t>João Victor</t>
+  </si>
+  <si>
+    <t>joão_victor@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-clara-nunes</t>
+  </si>
+  <si>
+    <t>Clara Nunes</t>
+  </si>
+  <si>
+    <t>clara_nunes@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-leonardo-teixeira</t>
+  </si>
+  <si>
+    <t>Leonardo Teixeira</t>
+  </si>
+  <si>
+    <t>leonardo_teixeira@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-julia-vasconcelos</t>
+  </si>
+  <si>
+    <t>Julia Vasconcelos</t>
+  </si>
+  <si>
+    <t>julia_vasconcelos@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-marcos-ribeiro</t>
+  </si>
+  <si>
+    <t>Marcos Ribeiro</t>
+  </si>
+  <si>
+    <t>marcos_ribeiro@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-isabela-freitas</t>
+  </si>
+  <si>
+    <t>Isabela Freitas</t>
+  </si>
+  <si>
+    <t>isabela_freitas@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-gustavo-pereira</t>
+  </si>
+  <si>
+    <t>Gustavo Pereira</t>
+  </si>
+  <si>
+    <t>gustavo_pereira@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-elisa-martinez</t>
+  </si>
+  <si>
+    <t>Elisa Martinez</t>
+  </si>
+  <si>
+    <t>elisa_martinez@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-ricardo-alves</t>
+  </si>
+  <si>
+    <t>Ricardo Alves</t>
+  </si>
+  <si>
+    <t>ricardo_alves@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-sara-carvalho</t>
+  </si>
+  <si>
+    <t>Sara Carvalho</t>
+  </si>
+  <si>
+    <t>sara_carvalho@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-fernando-magalhães</t>
+  </si>
+  <si>
+    <t>Fernando Magalhães</t>
+  </si>
+  <si>
+    <t>fernando_magalhães@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-luana-borges</t>
+  </si>
+  <si>
+    <t>Luana Borges</t>
+  </si>
+  <si>
+    <t>luana_borges@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-andre-luiz</t>
+  </si>
+  <si>
+    <t>Andre Luiz</t>
+  </si>
+  <si>
+    <t>andre_luiz@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-patricia-leal</t>
+  </si>
+  <si>
+    <t>Patricia Leal</t>
+  </si>
+  <si>
+    <t>patricia_leal@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-diego-santana</t>
+  </si>
+  <si>
+    <t>Diego Santana</t>
+  </si>
+  <si>
+    <t>diego_santana@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-renata-melo</t>
+  </si>
+  <si>
+    <t>Renata Melo</t>
+  </si>
+  <si>
+    <t>renata_melo@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-cesar-augusto</t>
+  </si>
+  <si>
+    <t>Cesar Augusto</t>
+  </si>
+  <si>
+    <t>cesar_augusto@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-monica-gomes</t>
+  </si>
+  <si>
+    <t>Monica Gomes</t>
+  </si>
+  <si>
+    <t>monica_gomes@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-fabio-lopes</t>
+  </si>
+  <si>
+    <t>Fabio Lopes</t>
+  </si>
+  <si>
+    <t>fabio_lopes@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-anita-oliveira</t>
+  </si>
+  <si>
+    <t>Anita Oliveira</t>
+  </si>
+  <si>
+    <t>anita_oliveira@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-bruno-gonzalez</t>
+  </si>
+  <si>
+    <t>Bruno Gonzalez</t>
+  </si>
+  <si>
+    <t>bruno_gonzalez@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-carolina-queiroz</t>
+  </si>
+  <si>
+    <t>Carolina Queiroz</t>
+  </si>
+  <si>
+    <t>carolina_queiroz@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-daniel-fernandes</t>
+  </si>
+  <si>
+    <t>Daniel Fernandes</t>
+  </si>
+  <si>
+    <t>daniel_fernandes@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-ester-vieira</t>
+  </si>
+  <si>
+    <t>Ester Vieira</t>
+  </si>
+  <si>
+    <t>ester_vieira@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-fabiana-mourão</t>
+  </si>
+  <si>
+    <t>Fabiana Mourão</t>
+  </si>
+  <si>
+    <t>fabiana_mourão@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-gabriel-nascimento</t>
+  </si>
+  <si>
+    <t>Gabriel Nascimento</t>
+  </si>
+  <si>
+    <t>gabriel_nascimento@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-helena-ribeiro</t>
+  </si>
+  <si>
+    <t>Helena Ribeiro</t>
+  </si>
+  <si>
+    <t>helena_ribeiro@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-igor-campos</t>
+  </si>
+  <si>
+    <t>Igor Campos</t>
+  </si>
+  <si>
+    <t>igor_campos@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-jessica-lima</t>
+  </si>
+  <si>
+    <t>Jessica Lima</t>
+  </si>
+  <si>
+    <t>jessica_lima@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-kleber-martins</t>
+  </si>
+  <si>
+    <t>Kleber Martins</t>
+  </si>
+  <si>
+    <t>kleber_martins@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-livia-souza</t>
+  </si>
+  <si>
+    <t>Livia Souza</t>
+  </si>
+  <si>
+    <t>livia_souza@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-marcelo-pinto</t>
+  </si>
+  <si>
+    <t>Marcelo Pinto</t>
+  </si>
+  <si>
+    <t>marcelo_pinto@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-nadia-correia</t>
+  </si>
+  <si>
+    <t>Nadia Correia</t>
+  </si>
+  <si>
+    <t>nadia_correia@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-oscar-neves</t>
+  </si>
+  <si>
+    <t>Oscar Neves</t>
+  </si>
+  <si>
+    <t>oscar_neves@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-paula-rodrigues</t>
+  </si>
+  <si>
+    <t>Paula Rodrigues</t>
+  </si>
+  <si>
+    <t>paula_rodrigues@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-quiteria-machado</t>
+  </si>
+  <si>
+    <t>Quiteria Machado</t>
+  </si>
+  <si>
+    <t>quiteria_machado@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-roberto-silveira</t>
+  </si>
+  <si>
+    <t>Roberto Silveira</t>
+  </si>
+  <si>
+    <t>roberto_silveira@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-silvia-penna</t>
+  </si>
+  <si>
+    <t>Silvia Penna</t>
+  </si>
+  <si>
+    <t>silvia_penna@someemail.com</t>
+  </si>
+  <si>
+    <t>uuid-tiago-lobo</t>
+  </si>
+  <si>
+    <t>Tiago Lobo</t>
+  </si>
+  <si>
+    <t>tiago_lobo@someemail.com</t>
+  </si>
+  <si>
     <t>uuid-cinema</t>
   </si>
   <si>
@@ -83,621 +725,6 @@
     <t>Snack Bar</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>uuid-joey-doe</t>
-  </si>
-  <si>
-    <t>Joey Doe</t>
-  </si>
-  <si>
-    <t>joey_doe@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-jane-silva</t>
-  </si>
-  <si>
-    <t>Jane Silva</t>
-  </si>
-  <si>
-    <t>jane_silva@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-ivan-luiz</t>
-  </si>
-  <si>
-    <t>Ivan Luiz</t>
-  </si>
-  <si>
-    <t>ivan_luiz@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-jose-maria</t>
-  </si>
-  <si>
-    <t>Jose Maria</t>
-  </si>
-  <si>
-    <t>jose_maria@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-sandra-luna</t>
-  </si>
-  <si>
-    <t>Sandra Luna</t>
-  </si>
-  <si>
-    <t>sandra_luna@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-lucas-silva</t>
-  </si>
-  <si>
-    <t>Lucas Silva</t>
-  </si>
-  <si>
-    <t>lucas_silva@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-carla-almeida</t>
-  </si>
-  <si>
-    <t>Carla Almeida</t>
-  </si>
-  <si>
-    <t>carla_almeida@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-maria-julia</t>
-  </si>
-  <si>
-    <t>Maria Julia</t>
-  </si>
-  <si>
-    <t>maria_julia@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-ana-paula</t>
-  </si>
-  <si>
-    <t>Ana Paula</t>
-  </si>
-  <si>
-    <t>ana_paula@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-mario-neto</t>
-  </si>
-  <si>
-    <t>Mario Neto</t>
-  </si>
-  <si>
-    <t>mario_neto@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-luiza-santos</t>
-  </si>
-  <si>
-    <t>Luiza Santos</t>
-  </si>
-  <si>
-    <t>luiza_santos@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-pedro-henrique</t>
-  </si>
-  <si>
-    <t>Pedro Henrique</t>
-  </si>
-  <si>
-    <t>pedro_henrique@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-caroline-dias</t>
-  </si>
-  <si>
-    <t>Caroline Dias</t>
-  </si>
-  <si>
-    <t>caroline_dias@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-felipe-araujo</t>
-  </si>
-  <si>
-    <t>Felipe Araujo</t>
-  </si>
-  <si>
-    <t>felipe_araujo@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-gabriela-moura</t>
-  </si>
-  <si>
-    <t>Gabriela Moura</t>
-  </si>
-  <si>
-    <t>gabriela_moura@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-rodrigo-lima</t>
-  </si>
-  <si>
-    <t>Rodrigo Lima</t>
-  </si>
-  <si>
-    <t>rodrigo_lima@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-sophia-castro</t>
-  </si>
-  <si>
-    <t>Sophia Castro</t>
-  </si>
-  <si>
-    <t>sophia_castro@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-guilherme-oliveira</t>
-  </si>
-  <si>
-    <t>Guilherme Oliveira</t>
-  </si>
-  <si>
-    <t>guilherme_oliveira@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-marcela-rodrigues</t>
-  </si>
-  <si>
-    <t>Marcela Rodrigues</t>
-  </si>
-  <si>
-    <t>marcela_rodrigues@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-thiago-menezes</t>
-  </si>
-  <si>
-    <t>Thiago Menezes</t>
-  </si>
-  <si>
-    <t>thiago_menezes@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-amanda-ferreira</t>
-  </si>
-  <si>
-    <t>Amanda Ferreira</t>
-  </si>
-  <si>
-    <t>amanda_ferreira@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-rafael-souza</t>
-  </si>
-  <si>
-    <t>Rafael Souza</t>
-  </si>
-  <si>
-    <t>rafael_souza@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-larissa-machado</t>
-  </si>
-  <si>
-    <t>Larissa Machado</t>
-  </si>
-  <si>
-    <t>larissa_machado@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-vinicius-costa</t>
-  </si>
-  <si>
-    <t>Vinicius Costa</t>
-  </si>
-  <si>
-    <t>vinicius_costa@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-beatriz-lima</t>
-  </si>
-  <si>
-    <t>Beatriz Lima</t>
-  </si>
-  <si>
-    <t>beatriz_lima@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-caio-martins</t>
-  </si>
-  <si>
-    <t>Caio Martins</t>
-  </si>
-  <si>
-    <t>caio_martins@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-daniela-pires</t>
-  </si>
-  <si>
-    <t>Daniela Pires</t>
-  </si>
-  <si>
-    <t>daniela_pires@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-henrique-fonseca</t>
-  </si>
-  <si>
-    <t>Henrique Fonseca</t>
-  </si>
-  <si>
-    <t>henrique_fonseca@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-alice-barbosa</t>
-  </si>
-  <si>
-    <t>Alice Barbosa</t>
-  </si>
-  <si>
-    <t>alice_barbosa@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-joão-victor</t>
-  </si>
-  <si>
-    <t>João Victor</t>
-  </si>
-  <si>
-    <t>joão_victor@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-clara-nunes</t>
-  </si>
-  <si>
-    <t>Clara Nunes</t>
-  </si>
-  <si>
-    <t>clara_nunes@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-leonardo-teixeira</t>
-  </si>
-  <si>
-    <t>Leonardo Teixeira</t>
-  </si>
-  <si>
-    <t>leonardo_teixeira@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-julia-vasconcelos</t>
-  </si>
-  <si>
-    <t>Julia Vasconcelos</t>
-  </si>
-  <si>
-    <t>julia_vasconcelos@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-marcos-ribeiro</t>
-  </si>
-  <si>
-    <t>Marcos Ribeiro</t>
-  </si>
-  <si>
-    <t>marcos_ribeiro@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-isabela-freitas</t>
-  </si>
-  <si>
-    <t>Isabela Freitas</t>
-  </si>
-  <si>
-    <t>isabela_freitas@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-gustavo-pereira</t>
-  </si>
-  <si>
-    <t>Gustavo Pereira</t>
-  </si>
-  <si>
-    <t>gustavo_pereira@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-elisa-martinez</t>
-  </si>
-  <si>
-    <t>Elisa Martinez</t>
-  </si>
-  <si>
-    <t>elisa_martinez@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-ricardo-alves</t>
-  </si>
-  <si>
-    <t>Ricardo Alves</t>
-  </si>
-  <si>
-    <t>ricardo_alves@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-sara-carvalho</t>
-  </si>
-  <si>
-    <t>Sara Carvalho</t>
-  </si>
-  <si>
-    <t>sara_carvalho@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-fernando-magalhães</t>
-  </si>
-  <si>
-    <t>Fernando Magalhães</t>
-  </si>
-  <si>
-    <t>fernando_magalhães@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-luana-borges</t>
-  </si>
-  <si>
-    <t>Luana Borges</t>
-  </si>
-  <si>
-    <t>luana_borges@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-andre-luiz</t>
-  </si>
-  <si>
-    <t>Andre Luiz</t>
-  </si>
-  <si>
-    <t>andre_luiz@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-patricia-leal</t>
-  </si>
-  <si>
-    <t>Patricia Leal</t>
-  </si>
-  <si>
-    <t>patricia_leal@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-diego-santana</t>
-  </si>
-  <si>
-    <t>Diego Santana</t>
-  </si>
-  <si>
-    <t>diego_santana@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-renata-melo</t>
-  </si>
-  <si>
-    <t>Renata Melo</t>
-  </si>
-  <si>
-    <t>renata_melo@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-cesar-augusto</t>
-  </si>
-  <si>
-    <t>Cesar Augusto</t>
-  </si>
-  <si>
-    <t>cesar_augusto@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-monica-gomes</t>
-  </si>
-  <si>
-    <t>Monica Gomes</t>
-  </si>
-  <si>
-    <t>monica_gomes@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-fabio-lopes</t>
-  </si>
-  <si>
-    <t>Fabio Lopes</t>
-  </si>
-  <si>
-    <t>fabio_lopes@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-anita-oliveira</t>
-  </si>
-  <si>
-    <t>Anita Oliveira</t>
-  </si>
-  <si>
-    <t>anita_oliveira@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-bruno-gonzalez</t>
-  </si>
-  <si>
-    <t>Bruno Gonzalez</t>
-  </si>
-  <si>
-    <t>bruno_gonzalez@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-carolina-queiroz</t>
-  </si>
-  <si>
-    <t>Carolina Queiroz</t>
-  </si>
-  <si>
-    <t>carolina_queiroz@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-daniel-fernandes</t>
-  </si>
-  <si>
-    <t>Daniel Fernandes</t>
-  </si>
-  <si>
-    <t>daniel_fernandes@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-ester-vieira</t>
-  </si>
-  <si>
-    <t>Ester Vieira</t>
-  </si>
-  <si>
-    <t>ester_vieira@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-fabiana-mourão</t>
-  </si>
-  <si>
-    <t>Fabiana Mourão</t>
-  </si>
-  <si>
-    <t>fabiana_mourão@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-gabriel-nascimento</t>
-  </si>
-  <si>
-    <t>Gabriel Nascimento</t>
-  </si>
-  <si>
-    <t>gabriel_nascimento@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-helena-ribeiro</t>
-  </si>
-  <si>
-    <t>Helena Ribeiro</t>
-  </si>
-  <si>
-    <t>helena_ribeiro@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-igor-campos</t>
-  </si>
-  <si>
-    <t>Igor Campos</t>
-  </si>
-  <si>
-    <t>igor_campos@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-jessica-lima</t>
-  </si>
-  <si>
-    <t>Jessica Lima</t>
-  </si>
-  <si>
-    <t>jessica_lima@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-kleber-martins</t>
-  </si>
-  <si>
-    <t>Kleber Martins</t>
-  </si>
-  <si>
-    <t>kleber_martins@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-livia-souza</t>
-  </si>
-  <si>
-    <t>Livia Souza</t>
-  </si>
-  <si>
-    <t>livia_souza@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-marcelo-pinto</t>
-  </si>
-  <si>
-    <t>Marcelo Pinto</t>
-  </si>
-  <si>
-    <t>marcelo_pinto@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-nadia-correia</t>
-  </si>
-  <si>
-    <t>Nadia Correia</t>
-  </si>
-  <si>
-    <t>nadia_correia@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-oscar-neves</t>
-  </si>
-  <si>
-    <t>Oscar Neves</t>
-  </si>
-  <si>
-    <t>oscar_neves@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-paula-rodrigues</t>
-  </si>
-  <si>
-    <t>Paula Rodrigues</t>
-  </si>
-  <si>
-    <t>paula_rodrigues@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-quiteria-machado</t>
-  </si>
-  <si>
-    <t>Quiteria Machado</t>
-  </si>
-  <si>
-    <t>quiteria_machado@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-roberto-silveira</t>
-  </si>
-  <si>
-    <t>Roberto Silveira</t>
-  </si>
-  <si>
-    <t>roberto_silveira@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-silvia-penna</t>
-  </si>
-  <si>
-    <t>Silvia Penna</t>
-  </si>
-  <si>
-    <t>silvia_penna@someemail.com</t>
-  </si>
-  <si>
-    <t>uuid-tiago-lobo</t>
-  </si>
-  <si>
-    <t>Tiago Lobo</t>
-  </si>
-  <si>
-    <t>tiago_lobo@someemail.com</t>
-  </si>
-  <si>
     <t>id_type</t>
   </si>
   <si>
@@ -1266,33 +1293,6 @@
   </si>
   <si>
     <t>Ambiente acolhedor com pizzas excepcionais. A seleção de coberturas é vasta e saborosa. Definitivamente, um dos melhores lugares da cidade.</t>
-  </si>
-  <si>
-    <t>reviews_checkpoint</t>
-  </si>
-  <si>
-    <t>uuid-alien</t>
-  </si>
-  <si>
-    <t>Alien</t>
-  </si>
-  <si>
-    <t>uuid-explorer</t>
-  </si>
-  <si>
-    <t>Explorador</t>
-  </si>
-  <si>
-    <t>uuid-astronaut</t>
-  </si>
-  <si>
-    <t>Astronauta</t>
-  </si>
-  <si>
-    <t>uuid-curious</t>
-  </si>
-  <si>
-    <t>Curioso</t>
   </si>
 </sst>
 </file>
@@ -1581,9 +1581,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.63"/>
-    <col customWidth="1" min="2" max="2" width="22.13"/>
-    <col customWidth="1" min="3" max="3" width="22.5"/>
+    <col customWidth="1" min="2" max="2" width="15.13"/>
+    <col customWidth="1" min="4" max="4" width="20.38"/>
+    <col customWidth="1" min="5" max="5" width="17.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1599,132 +1599,333 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="E2" s="3">
         <v>43834.125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="B3" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="E3" s="3">
         <v>43835.125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="B4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="E4" s="3">
         <v>43875.125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="E5" s="3">
         <v>43837.125</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="D6" s="3">
-        <v>43834.125</v>
-      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="D7" s="3">
-        <v>43835.125</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="D8" s="3">
-        <v>43834.125</v>
-      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="D9" s="3">
-        <v>43837.125</v>
-      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="D10" s="3">
-        <v>43834.125</v>
-      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="2"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33">
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34">
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35">
+      <c r="D35" s="2"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36">
+      <c r="D36" s="2"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37">
+      <c r="D37" s="2"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38">
+      <c r="D38" s="2"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39">
+      <c r="D39" s="2"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40">
+      <c r="D40" s="2"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41">
+      <c r="D41" s="2"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42">
+      <c r="D42" s="2"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43">
+      <c r="D43" s="2"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44">
+      <c r="D44" s="2"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45">
+      <c r="D45" s="2"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46">
+      <c r="D46" s="2"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47">
+      <c r="D47" s="2"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48">
+      <c r="D48" s="2"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49">
+      <c r="D49" s="2"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50">
+      <c r="D50" s="2"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51">
+      <c r="D51" s="2"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52">
+      <c r="D52" s="2"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53">
+      <c r="D53" s="2"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54">
+      <c r="D54" s="2"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55">
+      <c r="D55" s="2"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56">
+      <c r="D56" s="2"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57">
+      <c r="D57" s="2"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58">
+      <c r="D58" s="2"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59">
+      <c r="D59" s="2"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60">
+      <c r="D60" s="2"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61">
+      <c r="D61" s="2"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62">
+      <c r="D62" s="2"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63">
+      <c r="D63" s="2"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64">
+      <c r="D64" s="2"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65">
+      <c r="D65" s="2"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66">
+      <c r="D66" s="2"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67">
+      <c r="D67" s="2"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68">
+      <c r="D68" s="2"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69">
+      <c r="D69" s="2"/>
+      <c r="E69" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1753,31 +1954,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(A:A)"),"id")</f>
-        <v>id</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>43832.125</v>
@@ -1785,20 +1982,16 @@
       <c r="E2" s="3">
         <v>43834.125</v>
       </c>
-      <c r="G2" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-joey-doe")</f>
-        <v>uuid-joey-doe</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2">
         <v>43832.125</v>
@@ -1806,20 +1999,16 @@
       <c r="E3" s="3">
         <v>43835.125</v>
       </c>
-      <c r="G3" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-jane-silva")</f>
-        <v>uuid-jane-silva</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
         <v>43832.125</v>
@@ -1827,20 +2016,16 @@
       <c r="E4" s="3">
         <v>43875.125</v>
       </c>
-      <c r="G4" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-ivan-luiz")</f>
-        <v>uuid-ivan-luiz</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2">
         <v>43832.125</v>
@@ -1848,20 +2033,16 @@
       <c r="E5" s="3">
         <v>43837.125</v>
       </c>
-      <c r="G5" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-jose-maria")</f>
-        <v>uuid-jose-maria</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>43832.125</v>
@@ -1869,20 +2050,16 @@
       <c r="E6" s="3">
         <v>43875.125</v>
       </c>
-      <c r="G6" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-sandra-luna")</f>
-        <v>uuid-sandra-luna</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>43850.125</v>
@@ -1890,20 +2067,16 @@
       <c r="E7" s="3">
         <v>43895.125</v>
       </c>
-      <c r="G7" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-lucas-silva")</f>
-        <v>uuid-lucas-silva</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>43853.125</v>
@@ -1911,20 +2084,16 @@
       <c r="E8" s="3">
         <v>43859.125</v>
       </c>
-      <c r="G8" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-carla-almeida")</f>
-        <v>uuid-carla-almeida</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2">
         <v>43892.125</v>
@@ -1932,20 +2101,16 @@
       <c r="E9" s="3">
         <v>43924.125</v>
       </c>
-      <c r="G9" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-maria-julia")</f>
-        <v>uuid-maria-julia</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2">
         <v>43831.125</v>
@@ -1953,20 +2118,16 @@
       <c r="E10" s="3">
         <v>43834.125</v>
       </c>
-      <c r="G10" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-ana-paula")</f>
-        <v>uuid-ana-paula</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2">
         <v>44928.125</v>
@@ -1974,20 +2135,16 @@
       <c r="E11" s="3">
         <v>44932.125</v>
       </c>
-      <c r="G11" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-mario-neto")</f>
-        <v>uuid-mario-neto</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2">
         <v>45293.125</v>
@@ -1995,20 +2152,16 @@
       <c r="E12" s="3">
         <v>45349.125</v>
       </c>
-      <c r="G12" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-luiza-santos")</f>
-        <v>uuid-luiza-santos</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2">
         <v>44928.125</v>
@@ -2016,20 +2169,16 @@
       <c r="E13" s="3">
         <v>44973.125</v>
       </c>
-      <c r="G13" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-pedro-henrique")</f>
-        <v>uuid-pedro-henrique</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2">
         <v>43850.125</v>
@@ -2037,20 +2186,16 @@
       <c r="E14" s="3">
         <v>43904.125</v>
       </c>
-      <c r="G14" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-caroline-dias")</f>
-        <v>uuid-caroline-dias</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2">
         <v>43853.125</v>
@@ -2058,20 +2203,16 @@
       <c r="E15" s="3">
         <v>43856.125</v>
       </c>
-      <c r="G15" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-felipe-araujo")</f>
-        <v>uuid-felipe-araujo</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2">
         <v>43832.125</v>
@@ -2079,20 +2220,16 @@
       <c r="E16" s="3">
         <v>43855.125</v>
       </c>
-      <c r="G16" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-gabriela-moura")</f>
-        <v>uuid-gabriela-moura</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2">
         <v>43832.125</v>
@@ -2100,20 +2237,16 @@
       <c r="E17" s="3">
         <v>43886.125</v>
       </c>
-      <c r="G17" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-rodrigo-lima")</f>
-        <v>uuid-rodrigo-lima</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2">
         <v>43832.125</v>
@@ -2121,20 +2254,16 @@
       <c r="E18" s="3">
         <v>43866.125</v>
       </c>
-      <c r="G18" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-sophia-castro")</f>
-        <v>uuid-sophia-castro</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D19" s="2">
         <v>43832.125</v>
@@ -2142,20 +2271,16 @@
       <c r="E19" s="3">
         <v>43888.125</v>
       </c>
-      <c r="G19" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-guilherme-oliveira")</f>
-        <v>uuid-guilherme-oliveira</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2">
         <v>43850.125</v>
@@ -2163,20 +2288,16 @@
       <c r="E20" s="3">
         <v>43852.125</v>
       </c>
-      <c r="G20" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-marcela-rodrigues")</f>
-        <v>uuid-marcela-rodrigues</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2">
         <v>43853.125</v>
@@ -2184,20 +2305,16 @@
       <c r="E21" s="3">
         <v>43887.125</v>
       </c>
-      <c r="G21" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-thiago-menezes")</f>
-        <v>uuid-thiago-menezes</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2">
         <v>43892.125</v>
@@ -2205,20 +2322,16 @@
       <c r="E22" s="3">
         <v>43946.125</v>
       </c>
-      <c r="G22" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-amanda-ferreira")</f>
-        <v>uuid-amanda-ferreira</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2">
         <v>43831.125</v>
@@ -2226,20 +2339,16 @@
       <c r="E23" s="3">
         <v>43852.125</v>
       </c>
-      <c r="G23" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-rafael-souza")</f>
-        <v>uuid-rafael-souza</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D24" s="2">
         <v>44928.125</v>
@@ -2247,20 +2356,16 @@
       <c r="E24" s="3">
         <v>44962.125</v>
       </c>
-      <c r="G24" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-larissa-machado")</f>
-        <v>uuid-larissa-machado</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D25" s="2">
         <v>45293.125</v>
@@ -2268,20 +2373,16 @@
       <c r="E25" s="3">
         <v>45349.125</v>
       </c>
-      <c r="G25" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-vinicius-costa")</f>
-        <v>uuid-vinicius-costa</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D26" s="2">
         <v>43832.125</v>
@@ -2289,20 +2390,16 @@
       <c r="E26" s="3">
         <v>43839.125</v>
       </c>
-      <c r="G26" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-beatriz-lima")</f>
-        <v>uuid-beatriz-lima</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D27" s="2">
         <v>43832.125</v>
@@ -2310,20 +2407,16 @@
       <c r="E27" s="3">
         <v>43886.125</v>
       </c>
-      <c r="G27" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-caio-martins")</f>
-        <v>uuid-caio-martins</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2">
         <v>43832.125</v>
@@ -2331,20 +2424,16 @@
       <c r="E28" s="3">
         <v>43910.125</v>
       </c>
-      <c r="G28" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-daniela-pires")</f>
-        <v>uuid-daniela-pires</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D29" s="2">
         <v>43850.125</v>
@@ -2352,20 +2441,16 @@
       <c r="E29" s="3">
         <v>43859.125</v>
       </c>
-      <c r="G29" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-henrique-fonseca")</f>
-        <v>uuid-henrique-fonseca</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D30" s="2">
         <v>43853.125</v>
@@ -2373,20 +2458,16 @@
       <c r="E30" s="3">
         <v>43861.125</v>
       </c>
-      <c r="G30" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-alice-barbosa")</f>
-        <v>uuid-alice-barbosa</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D31" s="2">
         <v>43892.125</v>
@@ -2394,20 +2475,16 @@
       <c r="E31" s="3">
         <v>43899.125</v>
       </c>
-      <c r="G31" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-joão-victor")</f>
-        <v>uuid-joão-victor</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D32" s="2">
         <v>43831.125</v>
@@ -2415,20 +2492,16 @@
       <c r="E32" s="3">
         <v>43865.125</v>
       </c>
-      <c r="G32" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-clara-nunes")</f>
-        <v>uuid-clara-nunes</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D33" s="2">
         <v>44928.125</v>
@@ -2436,20 +2509,16 @@
       <c r="E33" s="3">
         <v>44981.125</v>
       </c>
-      <c r="G33" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-leonardo-teixeira")</f>
-        <v>uuid-leonardo-teixeira</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D34" s="2">
         <v>45293.125</v>
@@ -2457,20 +2526,16 @@
       <c r="E34" s="3">
         <v>45295.125</v>
       </c>
-      <c r="G34" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-julia-vasconcelos")</f>
-        <v>uuid-julia-vasconcelos</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D35" s="2">
         <v>43832.125</v>
@@ -2478,20 +2543,16 @@
       <c r="E35" s="3">
         <v>43844.125</v>
       </c>
-      <c r="G35" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-marcos-ribeiro")</f>
-        <v>uuid-marcos-ribeiro</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D36" s="2">
         <v>43832.125</v>
@@ -2499,20 +2560,16 @@
       <c r="E36" s="3">
         <v>43837.125</v>
       </c>
-      <c r="G36" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-isabela-freitas")</f>
-        <v>uuid-isabela-freitas</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D37" s="2">
         <v>43832.125</v>
@@ -2520,20 +2577,16 @@
       <c r="E37" s="3">
         <v>43919.125</v>
       </c>
-      <c r="G37" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-gustavo-pereira")</f>
-        <v>uuid-gustavo-pereira</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D38" s="2">
         <v>43832.125</v>
@@ -2541,20 +2594,16 @@
       <c r="E38" s="3">
         <v>43897.125</v>
       </c>
-      <c r="G38" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-elisa-martinez")</f>
-        <v>uuid-elisa-martinez</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D39" s="2">
         <v>43850.125</v>
@@ -2562,20 +2611,16 @@
       <c r="E39" s="3">
         <v>43893.125</v>
       </c>
-      <c r="G39" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-ricardo-alves")</f>
-        <v>uuid-ricardo-alves</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D40" s="2">
         <v>43853.125</v>
@@ -2583,20 +2628,16 @@
       <c r="E40" s="3">
         <v>43876.125</v>
       </c>
-      <c r="G40" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-sara-carvalho")</f>
-        <v>uuid-sara-carvalho</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D41" s="2">
         <v>43892.125</v>
@@ -2604,20 +2645,16 @@
       <c r="E41" s="3">
         <v>43937.125</v>
       </c>
-      <c r="G41" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-fernando-magalhães")</f>
-        <v>uuid-fernando-magalhães</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D42" s="2">
         <v>43831.125</v>
@@ -2625,20 +2662,16 @@
       <c r="E42" s="3">
         <v>43907.125</v>
       </c>
-      <c r="G42" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-luana-borges")</f>
-        <v>uuid-luana-borges</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D43" s="2">
         <v>44928.125</v>
@@ -2646,20 +2679,16 @@
       <c r="E43" s="3">
         <v>44982.125</v>
       </c>
-      <c r="G43" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-andre-luiz")</f>
-        <v>uuid-andre-luiz</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D44" s="2">
         <v>45293.125</v>
@@ -2667,20 +2696,16 @@
       <c r="E44" s="3">
         <v>45360.125</v>
       </c>
-      <c r="G44" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-patricia-leal")</f>
-        <v>uuid-patricia-leal</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D45" s="2">
         <v>45293.125</v>
@@ -2688,20 +2713,16 @@
       <c r="E45" s="3">
         <v>45373.125</v>
       </c>
-      <c r="G45" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-diego-santana")</f>
-        <v>uuid-diego-santana</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D46" s="2">
         <v>43832.125</v>
@@ -2709,20 +2730,16 @@
       <c r="E46" s="3">
         <v>43930.125</v>
       </c>
-      <c r="G46" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-renata-melo")</f>
-        <v>uuid-renata-melo</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D47" s="2">
         <v>43832.125</v>
@@ -2730,20 +2747,16 @@
       <c r="E47" s="3">
         <v>43864.125</v>
       </c>
-      <c r="G47" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-cesar-augusto")</f>
-        <v>uuid-cesar-augusto</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D48" s="2">
         <v>43832.125</v>
@@ -2751,20 +2764,16 @@
       <c r="E48" s="3">
         <v>43835.125</v>
       </c>
-      <c r="G48" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-monica-gomes")</f>
-        <v>uuid-monica-gomes</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D49" s="2">
         <v>43832.125</v>
@@ -2772,20 +2781,16 @@
       <c r="E49" s="3">
         <v>43836.125</v>
       </c>
-      <c r="G49" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-fabio-lopes")</f>
-        <v>uuid-fabio-lopes</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D50" s="2">
         <v>43832.125</v>
@@ -2793,20 +2798,16 @@
       <c r="E50" s="3">
         <v>43837.125</v>
       </c>
-      <c r="G50" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-anita-oliveira")</f>
-        <v>uuid-anita-oliveira</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D51" s="2">
         <v>43832.125</v>
@@ -2814,20 +2815,16 @@
       <c r="E51" s="3">
         <v>43838.125</v>
       </c>
-      <c r="G51" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-bruno-gonzalez")</f>
-        <v>uuid-bruno-gonzalez</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D52" s="2">
         <v>43850.125</v>
@@ -2835,20 +2832,16 @@
       <c r="E52" s="3">
         <v>43857.125</v>
       </c>
-      <c r="G52" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-carolina-queiroz")</f>
-        <v>uuid-carolina-queiroz</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D53" s="2">
         <v>43853.125</v>
@@ -2856,20 +2849,16 @@
       <c r="E53" s="3">
         <v>43861.125</v>
       </c>
-      <c r="G53" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-daniel-fernandes")</f>
-        <v>uuid-daniel-fernandes</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D54" s="2">
         <v>43892.125</v>
@@ -2877,20 +2866,16 @@
       <c r="E54" s="3">
         <v>43901.125</v>
       </c>
-      <c r="G54" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-ester-vieira")</f>
-        <v>uuid-ester-vieira</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D55" s="2">
         <v>43831.125</v>
@@ -2898,20 +2883,16 @@
       <c r="E55" s="3">
         <v>43842.125</v>
       </c>
-      <c r="G55" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-fabiana-mourão")</f>
-        <v>uuid-fabiana-mourão</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D56" s="2">
         <v>44928.125</v>
@@ -2919,20 +2900,16 @@
       <c r="E56" s="3">
         <v>44951.125</v>
       </c>
-      <c r="G56" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-gabriel-nascimento")</f>
-        <v>uuid-gabriel-nascimento</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D57" s="2">
         <v>45293.125</v>
@@ -2940,20 +2917,16 @@
       <c r="E57" s="3">
         <v>45337.125</v>
       </c>
-      <c r="G57" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-helena-ribeiro")</f>
-        <v>uuid-helena-ribeiro</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D58" s="2">
         <v>43832.125</v>
@@ -2961,20 +2934,16 @@
       <c r="E58" s="3">
         <v>43887.125</v>
       </c>
-      <c r="G58" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-igor-campos")</f>
-        <v>uuid-igor-campos</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D59" s="2">
         <v>43832.125</v>
@@ -2982,20 +2951,16 @@
       <c r="E59" s="3">
         <v>43898.125</v>
       </c>
-      <c r="G59" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-jessica-lima")</f>
-        <v>uuid-jessica-lima</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D60" s="2">
         <v>43832.125</v>
@@ -3003,20 +2968,16 @@
       <c r="E60" s="3">
         <v>43909.125</v>
       </c>
-      <c r="G60" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-kleber-martins")</f>
-        <v>uuid-kleber-martins</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D61" s="2">
         <v>43832.125</v>
@@ -3024,20 +2985,16 @@
       <c r="E61" s="3">
         <v>43920.125</v>
       </c>
-      <c r="G61" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-livia-souza")</f>
-        <v>uuid-livia-souza</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D62" s="2">
         <v>43832.125</v>
@@ -3045,20 +3002,16 @@
       <c r="E62" s="3">
         <v>43843.125</v>
       </c>
-      <c r="G62" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-marcelo-pinto")</f>
-        <v>uuid-marcelo-pinto</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D63" s="2">
         <v>43832.125</v>
@@ -3066,20 +3019,16 @@
       <c r="E63" s="3">
         <v>43854.125</v>
       </c>
-      <c r="G63" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-nadia-correia")</f>
-        <v>uuid-nadia-correia</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D64" s="2">
         <v>43850.125</v>
@@ -3087,20 +3036,16 @@
       <c r="E64" s="3">
         <v>43872.125</v>
       </c>
-      <c r="G64" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-oscar-neves")</f>
-        <v>uuid-oscar-neves</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D65" s="2">
         <v>43853.125</v>
@@ -3108,20 +3053,16 @@
       <c r="E65" s="3">
         <v>43864.125</v>
       </c>
-      <c r="G65" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-paula-rodrigues")</f>
-        <v>uuid-paula-rodrigues</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D66" s="2">
         <v>43892.125</v>
@@ -3129,20 +3070,16 @@
       <c r="E66" s="3">
         <v>43903.125</v>
       </c>
-      <c r="G66" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-quiteria-machado")</f>
-        <v>uuid-quiteria-machado</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D67" s="2">
         <v>43831.125</v>
@@ -3150,20 +3087,16 @@
       <c r="E67" s="3">
         <v>43853.125</v>
       </c>
-      <c r="G67" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-roberto-silveira")</f>
-        <v>uuid-roberto-silveira</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D68" s="2">
         <v>44928.125</v>
@@ -3171,20 +3104,16 @@
       <c r="E68" s="3">
         <v>44961.125</v>
       </c>
-      <c r="G68" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-silvia-penna")</f>
-        <v>uuid-silvia-penna</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D69" s="2">
         <v>45293.125</v>
@@ -3192,13 +3121,6 @@
       <c r="E69" s="3">
         <v>45304.125</v>
       </c>
-      <c r="G69" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuid-tiago-lobo")</f>
-        <v>uuid-tiago-lobo</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="G70" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3206,6 +3128,166 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="18.63"/>
+    <col customWidth="1" min="2" max="2" width="22.13"/>
+    <col customWidth="1" min="3" max="3" width="22.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="D2" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43835.125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43875.125</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="D5" s="3">
+        <v>43837.125</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="D6" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="D7" s="3">
+        <v>43835.125</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="D8" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="D9" s="3">
+        <v>43837.125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="D10" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3229,45 +3311,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G2" s="2">
         <v>43832.125</v>
@@ -3278,22 +3360,22 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G3" s="2">
         <v>43832.125</v>
@@ -3304,22 +3386,22 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>222</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G4" s="2">
         <v>43832.125</v>
@@ -3330,22 +3412,22 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G5" s="2">
         <v>43832.125</v>
@@ -3356,22 +3438,22 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G6" s="2">
         <v>43832.125</v>
@@ -3382,22 +3464,22 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G7" s="2">
         <v>43850.125</v>
@@ -3408,22 +3490,22 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G8" s="2">
         <v>43853.125</v>
@@ -3434,22 +3516,22 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G9" s="2">
         <v>43892.125</v>
@@ -3460,22 +3542,22 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G10" s="2">
         <v>43831.125</v>
@@ -3486,22 +3568,22 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>222</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G11" s="2">
         <v>44928.125</v>
@@ -3512,22 +3594,22 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G12" s="2">
         <v>45293.125</v>
@@ -3538,22 +3620,22 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="G13" s="2">
         <v>44928.125</v>
@@ -3564,22 +3646,22 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G14" s="2">
         <v>43850.125</v>
@@ -3590,22 +3672,22 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>222</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G15" s="2">
         <v>43853.125</v>
@@ -3616,22 +3698,22 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>222</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G16" s="2">
         <v>43832.125</v>
@@ -3642,22 +3724,22 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="G17" s="2">
         <v>43832.125</v>
@@ -3668,22 +3750,22 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G18" s="2">
         <v>43832.125</v>
@@ -3694,22 +3776,22 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="G19" s="2">
         <v>43832.125</v>
@@ -3720,22 +3802,22 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>222</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="G20" s="2">
         <v>43850.125</v>
@@ -3746,22 +3828,22 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G21" s="2">
         <v>43853.125</v>
@@ -3772,22 +3854,22 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G22" s="2">
         <v>43892.125</v>
@@ -3798,22 +3880,22 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="G23" s="2">
         <v>43831.125</v>
@@ -3824,22 +3906,22 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G24" s="2">
         <v>43853.125</v>
@@ -4033,7 +4115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4053,39 +4135,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="D2" s="1">
         <v>4.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F2" s="5">
         <v>43832.125</v>
@@ -4096,19 +4178,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="D3" s="1">
         <v>5.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5">
         <v>43832.125</v>
@@ -4119,19 +4201,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="D4" s="1">
         <v>3.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F4" s="5">
         <v>43832.125</v>
@@ -4142,19 +4224,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="D5" s="1">
         <v>4.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5">
         <v>43832.125</v>
@@ -4165,19 +4247,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="D6" s="1">
         <v>5.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F6" s="5">
         <v>43832.125</v>
@@ -4188,19 +4270,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="D7" s="1">
         <v>5.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F7" s="5">
         <v>43850.125</v>
@@ -4211,19 +4293,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="D8" s="1">
         <v>4.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F8" s="5">
         <v>43853.125</v>
@@ -4234,19 +4316,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="D9" s="1">
         <v>3.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F9" s="5">
         <v>43892.125</v>
@@ -4257,19 +4339,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="D10" s="1">
         <v>4.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F10" s="5">
         <v>43831.125</v>
@@ -4280,19 +4362,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="D11" s="1">
         <v>4.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F11" s="5">
         <v>44928.125</v>
@@ -4303,19 +4385,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="D12" s="1">
         <v>4.0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F12" s="5">
         <v>45293.125</v>
@@ -4326,19 +4408,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="D13" s="1">
         <v>5.0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F13" s="5">
         <v>44928.125</v>
@@ -4349,19 +4431,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="D14" s="1">
         <v>5.0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F14" s="5">
         <v>43850.125</v>
@@ -4372,19 +4454,19 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="D15" s="1">
         <v>4.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F15" s="5">
         <v>43853.125</v>
@@ -4395,19 +4477,19 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="D16" s="1">
         <v>4.0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F16" s="5">
         <v>43832.125</v>
@@ -4418,19 +4500,19 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="D17" s="1">
         <v>5.0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F17" s="5">
         <v>43832.125</v>
@@ -4441,19 +4523,19 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="D18" s="1">
         <v>3.0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F18" s="5">
         <v>43832.125</v>
@@ -4464,19 +4546,19 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="D19" s="1">
         <v>4.0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F19" s="5">
         <v>43832.125</v>
@@ -4487,19 +4569,19 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D20" s="1">
         <v>4.0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F20" s="5">
         <v>43850.125</v>
@@ -4510,19 +4592,19 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="D21" s="1">
         <v>4.0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F21" s="5">
         <v>43853.125</v>
@@ -4533,19 +4615,19 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="D22" s="1">
         <v>5.0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F22" s="5">
         <v>43892.125</v>
@@ -4556,19 +4638,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="D23" s="1">
         <v>5.0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F23" s="5">
         <v>43831.125</v>
@@ -4579,19 +4661,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="D24" s="1">
         <v>5.0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F24" s="5">
         <v>44928.125</v>
@@ -4602,19 +4684,19 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D25" s="1">
         <v>5.0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F25" s="5">
         <v>45293.125</v>
@@ -4625,19 +4707,19 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="D26" s="1">
         <v>4.0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F26" s="5">
         <v>43832.125</v>
@@ -4648,19 +4730,19 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="D27" s="1">
         <v>5.0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F27" s="5">
         <v>43832.125</v>
@@ -4671,19 +4753,19 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="D28" s="1">
         <v>5.0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F28" s="5">
         <v>43832.125</v>
@@ -4694,19 +4776,19 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="D29" s="1">
         <v>5.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F29" s="5">
         <v>43850.125</v>
@@ -4717,19 +4799,19 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D30" s="1">
         <v>4.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F30" s="5">
         <v>43853.125</v>
@@ -4740,19 +4822,19 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="D31" s="1">
         <v>3.0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F31" s="5">
         <v>43892.125</v>
@@ -4763,19 +4845,19 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="D32" s="1">
         <v>4.0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F32" s="5">
         <v>43831.125</v>
@@ -4786,19 +4868,19 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="D33" s="1">
         <v>4.0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F33" s="5">
         <v>44928.125</v>
@@ -4809,19 +4891,19 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="D34" s="1">
         <v>5.0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F34" s="5">
         <v>45293.125</v>
@@ -4832,19 +4914,19 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D35" s="1">
         <v>5.0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F35" s="5">
         <v>43832.125</v>
@@ -4855,19 +4937,19 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D36" s="1">
         <v>4.0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F36" s="5">
         <v>43832.125</v>
@@ -4878,19 +4960,19 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="D37" s="1">
         <v>5.0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F37" s="5">
         <v>43832.125</v>
@@ -4901,19 +4983,19 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="D38" s="1">
         <v>4.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F38" s="5">
         <v>43832.125</v>
@@ -4924,19 +5006,19 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="D39" s="1">
         <v>4.0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F39" s="5">
         <v>43850.125</v>
@@ -4947,19 +5029,19 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="D40" s="1">
         <v>5.0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F40" s="5">
         <v>43853.125</v>
@@ -4970,19 +5052,19 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="D41" s="1">
         <v>4.0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F41" s="5">
         <v>43892.125</v>
@@ -4993,19 +5075,19 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="D42" s="1">
         <v>5.0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F42" s="5">
         <v>43831.125</v>
@@ -5016,19 +5098,19 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="D43" s="1">
         <v>3.0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F43" s="5">
         <v>44928.125</v>
@@ -5039,19 +5121,19 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="D44" s="1">
         <v>4.0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F44" s="5">
         <v>45293.125</v>
@@ -5062,19 +5144,19 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="D45" s="1">
         <v>5.0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F45" s="5">
         <v>45293.125</v>
@@ -5178,367 +5260,6 @@
     <row r="69">
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="15.13"/>
-    <col customWidth="1" min="4" max="4" width="20.38"/>
-    <col customWidth="1" min="5" max="5" width="17.0"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D2" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="E2" s="3">
-        <v>43834.125</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43835.125</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D4" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="E4" s="3">
-        <v>43875.125</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D5" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="E5" s="3">
-        <v>43837.125</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11">
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13">
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14">
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15">
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16">
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17">
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18">
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19">
-      <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20">
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21">
-      <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23">
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24">
-      <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25">
-      <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26">
-      <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27">
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28">
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29">
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="2"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31">
-      <c r="D31" s="2"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32">
-      <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33">
-      <c r="D33" s="2"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34">
-      <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35">
-      <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36">
-      <c r="D36" s="2"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37">
-      <c r="D37" s="2"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38">
-      <c r="D38" s="2"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39">
-      <c r="D39" s="2"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40">
-      <c r="D40" s="2"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41">
-      <c r="D41" s="2"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42">
-      <c r="D42" s="2"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43">
-      <c r="D43" s="2"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44">
-      <c r="D44" s="2"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45">
-      <c r="D45" s="2"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46">
-      <c r="D46" s="2"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47">
-      <c r="D47" s="2"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48">
-      <c r="D48" s="2"/>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49">
-      <c r="D49" s="2"/>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50">
-      <c r="D50" s="2"/>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51">
-      <c r="D51" s="2"/>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52">
-      <c r="D52" s="2"/>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53">
-      <c r="D53" s="2"/>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54">
-      <c r="D54" s="2"/>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55">
-      <c r="D55" s="2"/>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56">
-      <c r="D56" s="2"/>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57">
-      <c r="D57" s="2"/>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58">
-      <c r="D58" s="2"/>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59">
-      <c r="D59" s="2"/>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60">
-      <c r="D60" s="2"/>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61">
-      <c r="D61" s="2"/>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62">
-      <c r="D62" s="2"/>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63">
-      <c r="D63" s="2"/>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64">
-      <c r="D64" s="2"/>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65">
-      <c r="D65" s="2"/>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66">
-      <c r="D66" s="2"/>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67">
-      <c r="D67" s="2"/>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68">
-      <c r="D68" s="2"/>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69">
-      <c r="D69" s="2"/>
-      <c r="E69" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/seeds/seeds.xlsx
+++ b/seeds/seeds.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="430">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>reviews_checkpoint</t>
+    <t>checkpoint</t>
   </si>
   <si>
     <t>name</t>
@@ -35,28 +35,40 @@
     <t>uuid-alien</t>
   </si>
   <si>
-    <t>Alien</t>
+    <t>alien</t>
   </si>
   <si>
     <t>uuid-explorer</t>
   </si>
   <si>
-    <t>Explorador</t>
+    <t>explorer</t>
   </si>
   <si>
     <t>uuid-astronaut</t>
   </si>
   <si>
-    <t>Astronauta</t>
+    <t>astronaut</t>
   </si>
   <si>
     <t>uuid-curious</t>
   </si>
   <si>
-    <t>Curioso</t>
+    <t>curious</t>
+  </si>
+  <si>
+    <t>uuid-scientist</t>
+  </si>
+  <si>
+    <t>scientist</t>
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>global_score</t>
+  </si>
+  <si>
+    <t>week_score</t>
   </si>
   <si>
     <t>uuid-joey-doe</t>
@@ -1299,10 +1311,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1313,6 +1326,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -1334,7 +1351,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1345,8 +1362,31 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1608,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1625,7 +1665,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -1642,7 +1682,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1672,8 +1712,21 @@
       </c>
     </row>
     <row r="6">
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="E6" s="3">
+        <v>43837.125</v>
+      </c>
     </row>
     <row r="7">
       <c r="D7" s="2"/>
@@ -1945,8 +1998,8 @@
     <col customWidth="1" min="1" max="1" width="45.25"/>
     <col customWidth="1" min="2" max="2" width="18.75"/>
     <col customWidth="1" min="3" max="3" width="29.88"/>
-    <col customWidth="1" min="4" max="4" width="20.38"/>
-    <col customWidth="1" min="5" max="5" width="17.0"/>
+    <col customWidth="1" min="4" max="6" width="20.38"/>
+    <col customWidth="1" min="7" max="7" width="17.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1957,1170 +2010,5308 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2.981</v>
+      </c>
+      <c r="E2" s="7">
+        <v>432.0</v>
+      </c>
+      <c r="F2" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E2" s="3">
+      <c r="G2" s="3">
         <v>43834.125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2.312</v>
+      </c>
+      <c r="E3" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="F3" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E3" s="3">
+      <c r="G3" s="3">
         <v>43835.125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.432</v>
+      </c>
+      <c r="E4" s="7">
+        <v>423.0</v>
+      </c>
+      <c r="F4" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E4" s="3">
+      <c r="G4" s="3">
         <v>43875.125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2">
+        <v>28</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2.421</v>
+      </c>
+      <c r="E5" s="9">
+        <v>123.0</v>
+      </c>
+      <c r="F5" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E5" s="3">
+      <c r="G5" s="3">
         <v>43837.125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2">
+        <v>31</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2.112</v>
+      </c>
+      <c r="E6" s="7">
+        <v>432.0</v>
+      </c>
+      <c r="F6" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E6" s="3">
+      <c r="G6" s="3">
         <v>43875.125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2">
+        <v>34</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="10">
+        <v>5.423</v>
+      </c>
+      <c r="E7" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="F7" s="2">
         <v>43850.125</v>
       </c>
-      <c r="E7" s="3">
+      <c r="G7" s="3">
         <v>43895.125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2">
+        <v>37</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="10">
+        <v>5.45</v>
+      </c>
+      <c r="E8" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="F8" s="2">
         <v>43853.125</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>43859.125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="2">
+        <v>40</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="10">
+        <v>3.523</v>
+      </c>
+      <c r="E9" s="7">
+        <v>145.0</v>
+      </c>
+      <c r="F9" s="2">
         <v>43892.125</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>43924.125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="2">
+        <v>43</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2.112</v>
+      </c>
+      <c r="E10" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="F10" s="2">
         <v>43831.125</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>43834.125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="2">
+        <v>46</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="10">
+        <v>5.423</v>
+      </c>
+      <c r="E11" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="F11" s="2">
         <v>44928.125</v>
       </c>
-      <c r="E11" s="3">
+      <c r="G11" s="3">
         <v>44932.125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="2">
+        <v>49</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="10">
+        <v>5.45</v>
+      </c>
+      <c r="E12" s="7">
+        <v>653.0</v>
+      </c>
+      <c r="F12" s="2">
         <v>45293.125</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>45349.125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="2">
+        <v>52</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>54.0</v>
+      </c>
+      <c r="F13" s="2">
         <v>44928.125</v>
       </c>
-      <c r="E13" s="3">
+      <c r="G13" s="3">
         <v>44973.125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="2">
+        <v>55</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="F14" s="2">
         <v>43850.125</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>43904.125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="2">
+        <v>58</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>653.0</v>
+      </c>
+      <c r="F15" s="2">
         <v>43853.125</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>43856.125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="2">
+        <v>61</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2.112</v>
+      </c>
+      <c r="E16" s="7">
+        <v>54.0</v>
+      </c>
+      <c r="F16" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E16" s="3">
+      <c r="G16" s="3">
         <v>43855.125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="2">
+        <v>64</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="8">
+        <v>5.423</v>
+      </c>
+      <c r="E17" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="F17" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>43886.125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="2">
+        <v>67</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="8">
+        <v>5.45</v>
+      </c>
+      <c r="E18" s="7">
+        <v>653.0</v>
+      </c>
+      <c r="F18" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>43866.125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="2">
+        <v>70</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="8">
+        <v>3.523</v>
+      </c>
+      <c r="E19" s="7">
+        <v>54.0</v>
+      </c>
+      <c r="F19" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E19" s="3">
+      <c r="G19" s="3">
         <v>43888.125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="2">
+        <v>73</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2.112</v>
+      </c>
+      <c r="E20" s="7">
+        <v>34.0</v>
+      </c>
+      <c r="F20" s="2">
         <v>43850.125</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>43852.125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="2">
+        <v>76</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="8">
+        <v>5.423</v>
+      </c>
+      <c r="E21" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="F21" s="2">
         <v>43853.125</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>43887.125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="2">
+        <v>79</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="8">
+        <v>5.45</v>
+      </c>
+      <c r="E22" s="9">
+        <v>453.0</v>
+      </c>
+      <c r="F22" s="2">
         <v>43892.125</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>43946.125</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="2">
+        <v>82</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>678.0</v>
+      </c>
+      <c r="F23" s="2">
         <v>43831.125</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>43852.125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="2">
+        <v>85</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1.432</v>
+      </c>
+      <c r="E24" s="9">
+        <v>543.0</v>
+      </c>
+      <c r="F24" s="2">
         <v>44928.125</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>44962.125</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="2">
+        <v>88</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="8">
+        <v>2.421</v>
+      </c>
+      <c r="E25" s="9">
+        <v>76.0</v>
+      </c>
+      <c r="F25" s="2">
         <v>45293.125</v>
       </c>
-      <c r="E25" s="3">
+      <c r="G25" s="3">
         <v>45349.125</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="2">
+        <v>91</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="F26" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>43839.125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="2">
+        <v>94</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="8">
+        <v>3.523</v>
+      </c>
+      <c r="E27" s="7">
+        <v>653.0</v>
+      </c>
+      <c r="F27" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>43886.125</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="2">
+        <v>97</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="8">
+        <v>2.112</v>
+      </c>
+      <c r="E28" s="7">
+        <v>54.0</v>
+      </c>
+      <c r="F28" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E28" s="3">
+      <c r="G28" s="3">
         <v>43910.125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="2">
+        <v>100</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="8">
+        <v>5.423</v>
+      </c>
+      <c r="E29" s="7">
+        <v>34.0</v>
+      </c>
+      <c r="F29" s="2">
         <v>43850.125</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>43859.125</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="2">
+        <v>103</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="8">
+        <v>5.45</v>
+      </c>
+      <c r="E30" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="F30" s="2">
         <v>43853.125</v>
       </c>
-      <c r="E30" s="3">
+      <c r="G30" s="3">
         <v>43861.125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="2">
+        <v>106</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="8">
+        <v>3.523</v>
+      </c>
+      <c r="E31" s="9">
+        <v>76.0</v>
+      </c>
+      <c r="F31" s="2">
         <v>43892.125</v>
       </c>
-      <c r="E31" s="3">
+      <c r="G31" s="3">
         <v>43899.125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="2">
+        <v>109</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="8">
+        <v>2.112</v>
+      </c>
+      <c r="E32" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="F32" s="2">
         <v>43831.125</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>43865.125</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="2">
+        <v>112</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="8">
+        <v>5.423</v>
+      </c>
+      <c r="E33" s="7">
+        <v>653.0</v>
+      </c>
+      <c r="F33" s="2">
         <v>44928.125</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>44981.125</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="2">
+        <v>115</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="8">
+        <v>5.45</v>
+      </c>
+      <c r="E34" s="7">
+        <v>54.0</v>
+      </c>
+      <c r="F34" s="2">
         <v>45293.125</v>
       </c>
-      <c r="E34" s="3">
+      <c r="G34" s="3">
         <v>45295.125</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="2">
+        <v>118</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>34.0</v>
+      </c>
+      <c r="F35" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>43844.125</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="2">
+        <v>121</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="E36" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="F36" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E36" s="3">
+      <c r="G36" s="3">
         <v>43837.125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="2">
+        <v>124</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="7">
+        <v>653.0</v>
+      </c>
+      <c r="F37" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E37" s="3">
+      <c r="G37" s="3">
         <v>43919.125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="2">
+        <v>127</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="10">
+        <v>2.312</v>
+      </c>
+      <c r="E38" s="7">
+        <v>54.0</v>
+      </c>
+      <c r="F38" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E38" s="3">
+      <c r="G38" s="3">
         <v>43897.125</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="2">
+        <v>130</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1.432</v>
+      </c>
+      <c r="E39" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="F39" s="2">
         <v>43850.125</v>
       </c>
-      <c r="E39" s="3">
+      <c r="G39" s="3">
         <v>43893.125</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="2">
+        <v>133</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="10">
+        <v>2.421</v>
+      </c>
+      <c r="E40" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="F40" s="2">
         <v>43853.125</v>
       </c>
-      <c r="E40" s="3">
+      <c r="G40" s="3">
         <v>43876.125</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D41" s="2">
+        <v>136</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="E41" s="7">
+        <v>653.0</v>
+      </c>
+      <c r="F41" s="2">
         <v>43892.125</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>43937.125</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="2">
+        <v>139</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="10">
+        <v>3.523</v>
+      </c>
+      <c r="E42" s="7">
+        <v>54.0</v>
+      </c>
+      <c r="F42" s="2">
         <v>43831.125</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>43907.125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43" s="2">
+        <v>142</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="10">
+        <v>2.112</v>
+      </c>
+      <c r="E43" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="F43" s="2">
         <v>44928.125</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>44982.125</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D44" s="2">
+        <v>145</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="10">
+        <v>5.423</v>
+      </c>
+      <c r="E44" s="7">
+        <v>653.0</v>
+      </c>
+      <c r="F44" s="2">
         <v>45293.125</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>45360.125</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="2">
+        <v>148</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="10">
+        <v>5.45</v>
+      </c>
+      <c r="E45" s="7">
+        <v>54.0</v>
+      </c>
+      <c r="F45" s="2">
         <v>45293.125</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>45373.125</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="2">
+        <v>151</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="10">
+        <v>3.523</v>
+      </c>
+      <c r="E46" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="F46" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>43930.125</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D47" s="2">
+        <v>154</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="10">
+        <v>2.112</v>
+      </c>
+      <c r="E47" s="7">
+        <v>653.0</v>
+      </c>
+      <c r="F47" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>43864.125</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" s="2">
+        <v>157</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" s="10">
+        <v>5.423</v>
+      </c>
+      <c r="E48" s="7">
+        <v>76.0</v>
+      </c>
+      <c r="F48" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>43835.125</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" s="2">
+        <v>160</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="10">
+        <v>2.312</v>
+      </c>
+      <c r="E49" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="F49" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>43836.125</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D50" s="2">
+        <v>163</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="10">
+        <v>1.432</v>
+      </c>
+      <c r="E50" s="7">
+        <v>653.0</v>
+      </c>
+      <c r="F50" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E50" s="3">
+      <c r="G50" s="3">
         <v>43837.125</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D51" s="2">
+        <v>166</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="10">
+        <v>2.112</v>
+      </c>
+      <c r="E51" s="7">
+        <v>54.0</v>
+      </c>
+      <c r="F51" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E51" s="3">
+      <c r="G51" s="3">
         <v>43838.125</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D52" s="2">
+        <v>169</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="10">
+        <v>5.423</v>
+      </c>
+      <c r="E52" s="7">
+        <v>34.0</v>
+      </c>
+      <c r="F52" s="2">
         <v>43850.125</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>43857.125</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D53" s="2">
+        <v>172</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="10">
+        <v>5.45</v>
+      </c>
+      <c r="E53" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="F53" s="2">
         <v>43853.125</v>
       </c>
-      <c r="E53" s="3">
+      <c r="G53" s="3">
         <v>43861.125</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D54" s="2">
+        <v>175</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="10">
+        <v>3.523</v>
+      </c>
+      <c r="E54" s="7">
+        <v>653.0</v>
+      </c>
+      <c r="F54" s="2">
         <v>43892.125</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>43901.125</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D55" s="2">
+        <v>178</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" s="10">
+        <v>2.112</v>
+      </c>
+      <c r="E55" s="7">
+        <v>54.0</v>
+      </c>
+      <c r="F55" s="2">
         <v>43831.125</v>
       </c>
-      <c r="E55" s="3">
+      <c r="G55" s="3">
         <v>43842.125</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D56" s="2">
+        <v>181</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" s="10">
+        <v>5.423</v>
+      </c>
+      <c r="E56" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="F56" s="2">
         <v>44928.125</v>
       </c>
-      <c r="E56" s="3">
+      <c r="G56" s="3">
         <v>44951.125</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D57" s="2">
+        <v>184</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D57" s="10">
+        <v>5.45</v>
+      </c>
+      <c r="E57" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="F57" s="2">
         <v>45293.125</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>45337.125</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D58" s="2">
+        <v>187</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E58" s="7">
+        <v>653.0</v>
+      </c>
+      <c r="F58" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>43887.125</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D59" s="2">
+        <v>190</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D59" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="E59" s="7">
+        <v>54.0</v>
+      </c>
+      <c r="F59" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>43898.125</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D60" s="2">
+        <v>193</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D60" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E60" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="F60" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>43909.125</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D61" s="2">
+        <v>196</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D61" s="10">
+        <v>5.423</v>
+      </c>
+      <c r="E61" s="7">
+        <v>653.0</v>
+      </c>
+      <c r="F61" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>43920.125</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D62" s="2">
+        <v>199</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D62" s="10">
+        <v>5.45</v>
+      </c>
+      <c r="E62" s="7">
+        <v>54.0</v>
+      </c>
+      <c r="F62" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>43843.125</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D63" s="2">
+        <v>202</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D63" s="10">
+        <v>3.523</v>
+      </c>
+      <c r="E63" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="F63" s="2">
         <v>43832.125</v>
       </c>
-      <c r="E63" s="3">
+      <c r="G63" s="3">
         <v>43854.125</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D64" s="2">
+        <v>205</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D64" s="10">
+        <v>2.112</v>
+      </c>
+      <c r="E64" s="7">
+        <v>653.0</v>
+      </c>
+      <c r="F64" s="2">
         <v>43850.125</v>
       </c>
-      <c r="E64" s="3">
+      <c r="G64" s="3">
         <v>43872.125</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D65" s="2">
+        <v>208</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D65" s="10">
+        <v>5.423</v>
+      </c>
+      <c r="E65" s="7">
+        <v>54.0</v>
+      </c>
+      <c r="F65" s="2">
         <v>43853.125</v>
       </c>
-      <c r="E65" s="3">
+      <c r="G65" s="3">
         <v>43864.125</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D66" s="2">
+        <v>211</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" s="10">
+        <v>5.45</v>
+      </c>
+      <c r="E66" s="7">
+        <v>34.0</v>
+      </c>
+      <c r="F66" s="2">
         <v>43892.125</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>43903.125</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D67" s="2">
+        <v>214</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E67" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="F67" s="2">
         <v>43831.125</v>
       </c>
-      <c r="E67" s="3">
+      <c r="G67" s="3">
         <v>43853.125</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D68" s="2">
+        <v>217</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D68" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="E68" s="11">
+        <v>343.0</v>
+      </c>
+      <c r="F68" s="2">
         <v>44928.125</v>
       </c>
-      <c r="E68" s="3">
+      <c r="G68" s="3">
         <v>44961.125</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D69" s="2">
+        <v>220</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D69" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E69" s="11">
+        <v>654.0</v>
+      </c>
+      <c r="F69" s="2">
         <v>45293.125</v>
       </c>
-      <c r="E69" s="3">
+      <c r="G69" s="3">
         <v>45304.125</v>
       </c>
+    </row>
+    <row r="70">
+      <c r="D70" s="12"/>
+      <c r="E70" s="13"/>
+    </row>
+    <row r="71">
+      <c r="D71" s="12"/>
+      <c r="E71" s="13"/>
+    </row>
+    <row r="72">
+      <c r="D72" s="12"/>
+      <c r="E72" s="13"/>
+    </row>
+    <row r="73">
+      <c r="D73" s="12"/>
+      <c r="E73" s="13"/>
+    </row>
+    <row r="74">
+      <c r="D74" s="12"/>
+      <c r="E74" s="13"/>
+    </row>
+    <row r="75">
+      <c r="D75" s="12"/>
+      <c r="E75" s="13"/>
+    </row>
+    <row r="76">
+      <c r="D76" s="12"/>
+      <c r="E76" s="13"/>
+    </row>
+    <row r="77">
+      <c r="D77" s="12"/>
+      <c r="E77" s="13"/>
+    </row>
+    <row r="78">
+      <c r="D78" s="12"/>
+      <c r="E78" s="13"/>
+    </row>
+    <row r="79">
+      <c r="D79" s="12"/>
+      <c r="E79" s="13"/>
+    </row>
+    <row r="80">
+      <c r="D80" s="12"/>
+      <c r="E80" s="13"/>
+    </row>
+    <row r="81">
+      <c r="D81" s="12"/>
+      <c r="E81" s="13"/>
+    </row>
+    <row r="82">
+      <c r="D82" s="12"/>
+      <c r="E82" s="13"/>
+    </row>
+    <row r="83">
+      <c r="D83" s="12"/>
+      <c r="E83" s="13"/>
+    </row>
+    <row r="84">
+      <c r="D84" s="12"/>
+      <c r="E84" s="13"/>
+    </row>
+    <row r="85">
+      <c r="D85" s="12"/>
+      <c r="E85" s="13"/>
+    </row>
+    <row r="86">
+      <c r="D86" s="12"/>
+      <c r="E86" s="13"/>
+    </row>
+    <row r="87">
+      <c r="D87" s="12"/>
+      <c r="E87" s="13"/>
+    </row>
+    <row r="88">
+      <c r="D88" s="12"/>
+      <c r="E88" s="13"/>
+    </row>
+    <row r="89">
+      <c r="D89" s="12"/>
+      <c r="E89" s="13"/>
+    </row>
+    <row r="90">
+      <c r="D90" s="12"/>
+      <c r="E90" s="13"/>
+    </row>
+    <row r="91">
+      <c r="D91" s="12"/>
+      <c r="E91" s="13"/>
+    </row>
+    <row r="92">
+      <c r="D92" s="12"/>
+      <c r="E92" s="13"/>
+    </row>
+    <row r="93">
+      <c r="D93" s="12"/>
+      <c r="E93" s="13"/>
+    </row>
+    <row r="94">
+      <c r="D94" s="12"/>
+      <c r="E94" s="13"/>
+    </row>
+    <row r="95">
+      <c r="D95" s="12"/>
+      <c r="E95" s="13"/>
+    </row>
+    <row r="96">
+      <c r="D96" s="12"/>
+      <c r="E96" s="13"/>
+    </row>
+    <row r="97">
+      <c r="D97" s="12"/>
+      <c r="E97" s="13"/>
+    </row>
+    <row r="98">
+      <c r="D98" s="12"/>
+      <c r="E98" s="13"/>
+    </row>
+    <row r="99">
+      <c r="D99" s="12"/>
+      <c r="E99" s="13"/>
+    </row>
+    <row r="100">
+      <c r="D100" s="12"/>
+      <c r="E100" s="13"/>
+    </row>
+    <row r="101">
+      <c r="D101" s="12"/>
+      <c r="E101" s="13"/>
+    </row>
+    <row r="102">
+      <c r="D102" s="12"/>
+      <c r="E102" s="13"/>
+    </row>
+    <row r="103">
+      <c r="D103" s="12"/>
+      <c r="E103" s="13"/>
+    </row>
+    <row r="104">
+      <c r="D104" s="12"/>
+      <c r="E104" s="13"/>
+    </row>
+    <row r="105">
+      <c r="D105" s="12"/>
+      <c r="E105" s="13"/>
+    </row>
+    <row r="106">
+      <c r="D106" s="12"/>
+      <c r="E106" s="13"/>
+    </row>
+    <row r="107">
+      <c r="D107" s="12"/>
+      <c r="E107" s="13"/>
+    </row>
+    <row r="108">
+      <c r="D108" s="12"/>
+      <c r="E108" s="13"/>
+    </row>
+    <row r="109">
+      <c r="D109" s="12"/>
+      <c r="E109" s="13"/>
+    </row>
+    <row r="110">
+      <c r="D110" s="12"/>
+      <c r="E110" s="13"/>
+    </row>
+    <row r="111">
+      <c r="D111" s="12"/>
+      <c r="E111" s="13"/>
+    </row>
+    <row r="112">
+      <c r="D112" s="12"/>
+      <c r="E112" s="13"/>
+    </row>
+    <row r="113">
+      <c r="D113" s="12"/>
+      <c r="E113" s="13"/>
+    </row>
+    <row r="114">
+      <c r="D114" s="12"/>
+      <c r="E114" s="13"/>
+    </row>
+    <row r="115">
+      <c r="D115" s="12"/>
+      <c r="E115" s="13"/>
+    </row>
+    <row r="116">
+      <c r="D116" s="12"/>
+      <c r="E116" s="13"/>
+    </row>
+    <row r="117">
+      <c r="D117" s="12"/>
+      <c r="E117" s="13"/>
+    </row>
+    <row r="118">
+      <c r="D118" s="12"/>
+      <c r="E118" s="13"/>
+    </row>
+    <row r="119">
+      <c r="D119" s="12"/>
+      <c r="E119" s="13"/>
+    </row>
+    <row r="120">
+      <c r="D120" s="12"/>
+      <c r="E120" s="13"/>
+    </row>
+    <row r="121">
+      <c r="D121" s="12"/>
+      <c r="E121" s="13"/>
+    </row>
+    <row r="122">
+      <c r="D122" s="12"/>
+      <c r="E122" s="13"/>
+    </row>
+    <row r="123">
+      <c r="D123" s="12"/>
+      <c r="E123" s="13"/>
+    </row>
+    <row r="124">
+      <c r="D124" s="12"/>
+      <c r="E124" s="13"/>
+    </row>
+    <row r="125">
+      <c r="D125" s="12"/>
+      <c r="E125" s="13"/>
+    </row>
+    <row r="126">
+      <c r="D126" s="12"/>
+      <c r="E126" s="13"/>
+    </row>
+    <row r="127">
+      <c r="D127" s="12"/>
+      <c r="E127" s="13"/>
+    </row>
+    <row r="128">
+      <c r="D128" s="12"/>
+      <c r="E128" s="13"/>
+    </row>
+    <row r="129">
+      <c r="D129" s="12"/>
+      <c r="E129" s="13"/>
+    </row>
+    <row r="130">
+      <c r="D130" s="12"/>
+      <c r="E130" s="13"/>
+    </row>
+    <row r="131">
+      <c r="D131" s="12"/>
+      <c r="E131" s="13"/>
+    </row>
+    <row r="132">
+      <c r="D132" s="12"/>
+      <c r="E132" s="13"/>
+    </row>
+    <row r="133">
+      <c r="D133" s="12"/>
+      <c r="E133" s="13"/>
+    </row>
+    <row r="134">
+      <c r="D134" s="12"/>
+      <c r="E134" s="13"/>
+    </row>
+    <row r="135">
+      <c r="D135" s="12"/>
+      <c r="E135" s="13"/>
+    </row>
+    <row r="136">
+      <c r="D136" s="12"/>
+      <c r="E136" s="13"/>
+    </row>
+    <row r="137">
+      <c r="D137" s="12"/>
+      <c r="E137" s="13"/>
+    </row>
+    <row r="138">
+      <c r="D138" s="12"/>
+      <c r="E138" s="13"/>
+    </row>
+    <row r="139">
+      <c r="D139" s="12"/>
+      <c r="E139" s="13"/>
+    </row>
+    <row r="140">
+      <c r="D140" s="12"/>
+      <c r="E140" s="13"/>
+    </row>
+    <row r="141">
+      <c r="D141" s="12"/>
+      <c r="E141" s="13"/>
+    </row>
+    <row r="142">
+      <c r="D142" s="12"/>
+      <c r="E142" s="13"/>
+    </row>
+    <row r="143">
+      <c r="D143" s="12"/>
+      <c r="E143" s="13"/>
+    </row>
+    <row r="144">
+      <c r="D144" s="12"/>
+      <c r="E144" s="13"/>
+    </row>
+    <row r="145">
+      <c r="D145" s="12"/>
+      <c r="E145" s="13"/>
+    </row>
+    <row r="146">
+      <c r="D146" s="12"/>
+      <c r="E146" s="13"/>
+    </row>
+    <row r="147">
+      <c r="D147" s="12"/>
+      <c r="E147" s="13"/>
+    </row>
+    <row r="148">
+      <c r="D148" s="12"/>
+      <c r="E148" s="13"/>
+    </row>
+    <row r="149">
+      <c r="D149" s="12"/>
+      <c r="E149" s="13"/>
+    </row>
+    <row r="150">
+      <c r="D150" s="12"/>
+      <c r="E150" s="13"/>
+    </row>
+    <row r="151">
+      <c r="D151" s="12"/>
+      <c r="E151" s="13"/>
+    </row>
+    <row r="152">
+      <c r="D152" s="12"/>
+      <c r="E152" s="13"/>
+    </row>
+    <row r="153">
+      <c r="D153" s="12"/>
+      <c r="E153" s="13"/>
+    </row>
+    <row r="154">
+      <c r="D154" s="12"/>
+      <c r="E154" s="13"/>
+    </row>
+    <row r="155">
+      <c r="D155" s="12"/>
+      <c r="E155" s="13"/>
+    </row>
+    <row r="156">
+      <c r="D156" s="12"/>
+      <c r="E156" s="13"/>
+    </row>
+    <row r="157">
+      <c r="D157" s="12"/>
+      <c r="E157" s="13"/>
+    </row>
+    <row r="158">
+      <c r="D158" s="12"/>
+      <c r="E158" s="13"/>
+    </row>
+    <row r="159">
+      <c r="D159" s="12"/>
+      <c r="E159" s="13"/>
+    </row>
+    <row r="160">
+      <c r="D160" s="12"/>
+      <c r="E160" s="13"/>
+    </row>
+    <row r="161">
+      <c r="D161" s="12"/>
+      <c r="E161" s="13"/>
+    </row>
+    <row r="162">
+      <c r="D162" s="12"/>
+      <c r="E162" s="13"/>
+    </row>
+    <row r="163">
+      <c r="D163" s="12"/>
+      <c r="E163" s="13"/>
+    </row>
+    <row r="164">
+      <c r="D164" s="12"/>
+      <c r="E164" s="13"/>
+    </row>
+    <row r="165">
+      <c r="D165" s="12"/>
+      <c r="E165" s="13"/>
+    </row>
+    <row r="166">
+      <c r="D166" s="12"/>
+      <c r="E166" s="13"/>
+    </row>
+    <row r="167">
+      <c r="D167" s="12"/>
+      <c r="E167" s="13"/>
+    </row>
+    <row r="168">
+      <c r="D168" s="12"/>
+      <c r="E168" s="13"/>
+    </row>
+    <row r="169">
+      <c r="D169" s="12"/>
+      <c r="E169" s="13"/>
+    </row>
+    <row r="170">
+      <c r="D170" s="12"/>
+      <c r="E170" s="13"/>
+    </row>
+    <row r="171">
+      <c r="D171" s="12"/>
+      <c r="E171" s="13"/>
+    </row>
+    <row r="172">
+      <c r="D172" s="12"/>
+      <c r="E172" s="13"/>
+    </row>
+    <row r="173">
+      <c r="D173" s="12"/>
+      <c r="E173" s="13"/>
+    </row>
+    <row r="174">
+      <c r="D174" s="12"/>
+      <c r="E174" s="13"/>
+    </row>
+    <row r="175">
+      <c r="D175" s="12"/>
+      <c r="E175" s="13"/>
+    </row>
+    <row r="176">
+      <c r="D176" s="12"/>
+      <c r="E176" s="13"/>
+    </row>
+    <row r="177">
+      <c r="D177" s="12"/>
+      <c r="E177" s="13"/>
+    </row>
+    <row r="178">
+      <c r="D178" s="12"/>
+      <c r="E178" s="13"/>
+    </row>
+    <row r="179">
+      <c r="D179" s="12"/>
+      <c r="E179" s="13"/>
+    </row>
+    <row r="180">
+      <c r="D180" s="12"/>
+      <c r="E180" s="13"/>
+    </row>
+    <row r="181">
+      <c r="D181" s="12"/>
+      <c r="E181" s="13"/>
+    </row>
+    <row r="182">
+      <c r="D182" s="12"/>
+      <c r="E182" s="13"/>
+    </row>
+    <row r="183">
+      <c r="D183" s="12"/>
+      <c r="E183" s="13"/>
+    </row>
+    <row r="184">
+      <c r="D184" s="12"/>
+      <c r="E184" s="13"/>
+    </row>
+    <row r="185">
+      <c r="D185" s="12"/>
+      <c r="E185" s="13"/>
+    </row>
+    <row r="186">
+      <c r="D186" s="12"/>
+      <c r="E186" s="13"/>
+    </row>
+    <row r="187">
+      <c r="D187" s="12"/>
+      <c r="E187" s="13"/>
+    </row>
+    <row r="188">
+      <c r="D188" s="12"/>
+      <c r="E188" s="13"/>
+    </row>
+    <row r="189">
+      <c r="D189" s="12"/>
+      <c r="E189" s="13"/>
+    </row>
+    <row r="190">
+      <c r="D190" s="12"/>
+      <c r="E190" s="13"/>
+    </row>
+    <row r="191">
+      <c r="D191" s="12"/>
+      <c r="E191" s="13"/>
+    </row>
+    <row r="192">
+      <c r="D192" s="12"/>
+      <c r="E192" s="13"/>
+    </row>
+    <row r="193">
+      <c r="D193" s="12"/>
+      <c r="E193" s="13"/>
+    </row>
+    <row r="194">
+      <c r="D194" s="12"/>
+      <c r="E194" s="13"/>
+    </row>
+    <row r="195">
+      <c r="D195" s="12"/>
+      <c r="E195" s="13"/>
+    </row>
+    <row r="196">
+      <c r="D196" s="12"/>
+      <c r="E196" s="13"/>
+    </row>
+    <row r="197">
+      <c r="D197" s="12"/>
+      <c r="E197" s="13"/>
+    </row>
+    <row r="198">
+      <c r="D198" s="12"/>
+      <c r="E198" s="13"/>
+    </row>
+    <row r="199">
+      <c r="D199" s="12"/>
+      <c r="E199" s="13"/>
+    </row>
+    <row r="200">
+      <c r="D200" s="12"/>
+      <c r="E200" s="13"/>
+    </row>
+    <row r="201">
+      <c r="D201" s="12"/>
+      <c r="E201" s="13"/>
+    </row>
+    <row r="202">
+      <c r="D202" s="12"/>
+      <c r="E202" s="13"/>
+    </row>
+    <row r="203">
+      <c r="D203" s="12"/>
+      <c r="E203" s="13"/>
+    </row>
+    <row r="204">
+      <c r="D204" s="12"/>
+      <c r="E204" s="13"/>
+    </row>
+    <row r="205">
+      <c r="D205" s="12"/>
+      <c r="E205" s="13"/>
+    </row>
+    <row r="206">
+      <c r="D206" s="12"/>
+      <c r="E206" s="13"/>
+    </row>
+    <row r="207">
+      <c r="D207" s="12"/>
+      <c r="E207" s="13"/>
+    </row>
+    <row r="208">
+      <c r="D208" s="12"/>
+      <c r="E208" s="13"/>
+    </row>
+    <row r="209">
+      <c r="D209" s="12"/>
+      <c r="E209" s="13"/>
+    </row>
+    <row r="210">
+      <c r="D210" s="12"/>
+      <c r="E210" s="13"/>
+    </row>
+    <row r="211">
+      <c r="D211" s="12"/>
+      <c r="E211" s="13"/>
+    </row>
+    <row r="212">
+      <c r="D212" s="12"/>
+      <c r="E212" s="13"/>
+    </row>
+    <row r="213">
+      <c r="D213" s="12"/>
+      <c r="E213" s="13"/>
+    </row>
+    <row r="214">
+      <c r="D214" s="12"/>
+      <c r="E214" s="13"/>
+    </row>
+    <row r="215">
+      <c r="D215" s="12"/>
+      <c r="E215" s="13"/>
+    </row>
+    <row r="216">
+      <c r="D216" s="12"/>
+      <c r="E216" s="13"/>
+    </row>
+    <row r="217">
+      <c r="D217" s="12"/>
+      <c r="E217" s="13"/>
+    </row>
+    <row r="218">
+      <c r="D218" s="12"/>
+      <c r="E218" s="13"/>
+    </row>
+    <row r="219">
+      <c r="D219" s="12"/>
+      <c r="E219" s="13"/>
+    </row>
+    <row r="220">
+      <c r="D220" s="12"/>
+      <c r="E220" s="13"/>
+    </row>
+    <row r="221">
+      <c r="D221" s="12"/>
+      <c r="E221" s="13"/>
+    </row>
+    <row r="222">
+      <c r="D222" s="12"/>
+      <c r="E222" s="13"/>
+    </row>
+    <row r="223">
+      <c r="D223" s="12"/>
+      <c r="E223" s="13"/>
+    </row>
+    <row r="224">
+      <c r="D224" s="12"/>
+      <c r="E224" s="13"/>
+    </row>
+    <row r="225">
+      <c r="D225" s="12"/>
+      <c r="E225" s="13"/>
+    </row>
+    <row r="226">
+      <c r="D226" s="12"/>
+      <c r="E226" s="13"/>
+    </row>
+    <row r="227">
+      <c r="D227" s="12"/>
+      <c r="E227" s="13"/>
+    </row>
+    <row r="228">
+      <c r="D228" s="12"/>
+      <c r="E228" s="13"/>
+    </row>
+    <row r="229">
+      <c r="D229" s="12"/>
+      <c r="E229" s="13"/>
+    </row>
+    <row r="230">
+      <c r="D230" s="12"/>
+      <c r="E230" s="13"/>
+    </row>
+    <row r="231">
+      <c r="D231" s="12"/>
+      <c r="E231" s="13"/>
+    </row>
+    <row r="232">
+      <c r="D232" s="12"/>
+      <c r="E232" s="13"/>
+    </row>
+    <row r="233">
+      <c r="D233" s="12"/>
+      <c r="E233" s="13"/>
+    </row>
+    <row r="234">
+      <c r="D234" s="12"/>
+      <c r="E234" s="13"/>
+    </row>
+    <row r="235">
+      <c r="D235" s="12"/>
+      <c r="E235" s="13"/>
+    </row>
+    <row r="236">
+      <c r="D236" s="12"/>
+      <c r="E236" s="13"/>
+    </row>
+    <row r="237">
+      <c r="D237" s="12"/>
+      <c r="E237" s="13"/>
+    </row>
+    <row r="238">
+      <c r="D238" s="12"/>
+      <c r="E238" s="13"/>
+    </row>
+    <row r="239">
+      <c r="D239" s="12"/>
+      <c r="E239" s="13"/>
+    </row>
+    <row r="240">
+      <c r="D240" s="12"/>
+      <c r="E240" s="13"/>
+    </row>
+    <row r="241">
+      <c r="D241" s="12"/>
+      <c r="E241" s="13"/>
+    </row>
+    <row r="242">
+      <c r="D242" s="12"/>
+      <c r="E242" s="13"/>
+    </row>
+    <row r="243">
+      <c r="D243" s="12"/>
+      <c r="E243" s="13"/>
+    </row>
+    <row r="244">
+      <c r="D244" s="12"/>
+      <c r="E244" s="13"/>
+    </row>
+    <row r="245">
+      <c r="D245" s="12"/>
+      <c r="E245" s="13"/>
+    </row>
+    <row r="246">
+      <c r="D246" s="12"/>
+      <c r="E246" s="13"/>
+    </row>
+    <row r="247">
+      <c r="D247" s="12"/>
+      <c r="E247" s="13"/>
+    </row>
+    <row r="248">
+      <c r="D248" s="12"/>
+      <c r="E248" s="13"/>
+    </row>
+    <row r="249">
+      <c r="D249" s="12"/>
+      <c r="E249" s="13"/>
+    </row>
+    <row r="250">
+      <c r="D250" s="12"/>
+      <c r="E250" s="13"/>
+    </row>
+    <row r="251">
+      <c r="D251" s="12"/>
+      <c r="E251" s="13"/>
+    </row>
+    <row r="252">
+      <c r="D252" s="12"/>
+      <c r="E252" s="13"/>
+    </row>
+    <row r="253">
+      <c r="D253" s="12"/>
+      <c r="E253" s="13"/>
+    </row>
+    <row r="254">
+      <c r="D254" s="12"/>
+      <c r="E254" s="13"/>
+    </row>
+    <row r="255">
+      <c r="D255" s="12"/>
+      <c r="E255" s="13"/>
+    </row>
+    <row r="256">
+      <c r="D256" s="12"/>
+      <c r="E256" s="13"/>
+    </row>
+    <row r="257">
+      <c r="D257" s="12"/>
+      <c r="E257" s="13"/>
+    </row>
+    <row r="258">
+      <c r="D258" s="12"/>
+      <c r="E258" s="13"/>
+    </row>
+    <row r="259">
+      <c r="D259" s="12"/>
+      <c r="E259" s="13"/>
+    </row>
+    <row r="260">
+      <c r="D260" s="12"/>
+      <c r="E260" s="13"/>
+    </row>
+    <row r="261">
+      <c r="D261" s="12"/>
+      <c r="E261" s="13"/>
+    </row>
+    <row r="262">
+      <c r="D262" s="12"/>
+      <c r="E262" s="13"/>
+    </row>
+    <row r="263">
+      <c r="D263" s="12"/>
+      <c r="E263" s="13"/>
+    </row>
+    <row r="264">
+      <c r="D264" s="12"/>
+      <c r="E264" s="13"/>
+    </row>
+    <row r="265">
+      <c r="D265" s="12"/>
+      <c r="E265" s="13"/>
+    </row>
+    <row r="266">
+      <c r="D266" s="12"/>
+      <c r="E266" s="13"/>
+    </row>
+    <row r="267">
+      <c r="D267" s="12"/>
+      <c r="E267" s="13"/>
+    </row>
+    <row r="268">
+      <c r="D268" s="12"/>
+      <c r="E268" s="13"/>
+    </row>
+    <row r="269">
+      <c r="D269" s="12"/>
+      <c r="E269" s="13"/>
+    </row>
+    <row r="270">
+      <c r="D270" s="12"/>
+      <c r="E270" s="13"/>
+    </row>
+    <row r="271">
+      <c r="D271" s="12"/>
+      <c r="E271" s="13"/>
+    </row>
+    <row r="272">
+      <c r="D272" s="12"/>
+      <c r="E272" s="13"/>
+    </row>
+    <row r="273">
+      <c r="D273" s="12"/>
+      <c r="E273" s="13"/>
+    </row>
+    <row r="274">
+      <c r="D274" s="12"/>
+      <c r="E274" s="13"/>
+    </row>
+    <row r="275">
+      <c r="D275" s="12"/>
+      <c r="E275" s="13"/>
+    </row>
+    <row r="276">
+      <c r="D276" s="12"/>
+      <c r="E276" s="13"/>
+    </row>
+    <row r="277">
+      <c r="D277" s="12"/>
+      <c r="E277" s="13"/>
+    </row>
+    <row r="278">
+      <c r="D278" s="12"/>
+      <c r="E278" s="13"/>
+    </row>
+    <row r="279">
+      <c r="D279" s="12"/>
+      <c r="E279" s="13"/>
+    </row>
+    <row r="280">
+      <c r="D280" s="12"/>
+      <c r="E280" s="13"/>
+    </row>
+    <row r="281">
+      <c r="D281" s="12"/>
+      <c r="E281" s="13"/>
+    </row>
+    <row r="282">
+      <c r="D282" s="12"/>
+      <c r="E282" s="13"/>
+    </row>
+    <row r="283">
+      <c r="D283" s="12"/>
+      <c r="E283" s="13"/>
+    </row>
+    <row r="284">
+      <c r="D284" s="12"/>
+      <c r="E284" s="13"/>
+    </row>
+    <row r="285">
+      <c r="D285" s="12"/>
+      <c r="E285" s="13"/>
+    </row>
+    <row r="286">
+      <c r="D286" s="12"/>
+      <c r="E286" s="13"/>
+    </row>
+    <row r="287">
+      <c r="D287" s="12"/>
+      <c r="E287" s="13"/>
+    </row>
+    <row r="288">
+      <c r="D288" s="12"/>
+      <c r="E288" s="13"/>
+    </row>
+    <row r="289">
+      <c r="D289" s="12"/>
+      <c r="E289" s="13"/>
+    </row>
+    <row r="290">
+      <c r="D290" s="12"/>
+      <c r="E290" s="13"/>
+    </row>
+    <row r="291">
+      <c r="D291" s="12"/>
+      <c r="E291" s="13"/>
+    </row>
+    <row r="292">
+      <c r="D292" s="12"/>
+      <c r="E292" s="13"/>
+    </row>
+    <row r="293">
+      <c r="D293" s="12"/>
+      <c r="E293" s="13"/>
+    </row>
+    <row r="294">
+      <c r="D294" s="12"/>
+      <c r="E294" s="13"/>
+    </row>
+    <row r="295">
+      <c r="D295" s="12"/>
+      <c r="E295" s="13"/>
+    </row>
+    <row r="296">
+      <c r="D296" s="12"/>
+      <c r="E296" s="13"/>
+    </row>
+    <row r="297">
+      <c r="D297" s="12"/>
+      <c r="E297" s="13"/>
+    </row>
+    <row r="298">
+      <c r="D298" s="12"/>
+      <c r="E298" s="13"/>
+    </row>
+    <row r="299">
+      <c r="D299" s="12"/>
+      <c r="E299" s="13"/>
+    </row>
+    <row r="300">
+      <c r="D300" s="12"/>
+      <c r="E300" s="13"/>
+    </row>
+    <row r="301">
+      <c r="D301" s="12"/>
+      <c r="E301" s="13"/>
+    </row>
+    <row r="302">
+      <c r="D302" s="12"/>
+      <c r="E302" s="13"/>
+    </row>
+    <row r="303">
+      <c r="D303" s="12"/>
+      <c r="E303" s="13"/>
+    </row>
+    <row r="304">
+      <c r="D304" s="12"/>
+      <c r="E304" s="13"/>
+    </row>
+    <row r="305">
+      <c r="D305" s="12"/>
+      <c r="E305" s="13"/>
+    </row>
+    <row r="306">
+      <c r="D306" s="12"/>
+      <c r="E306" s="13"/>
+    </row>
+    <row r="307">
+      <c r="D307" s="12"/>
+      <c r="E307" s="13"/>
+    </row>
+    <row r="308">
+      <c r="D308" s="12"/>
+      <c r="E308" s="13"/>
+    </row>
+    <row r="309">
+      <c r="D309" s="12"/>
+      <c r="E309" s="13"/>
+    </row>
+    <row r="310">
+      <c r="D310" s="12"/>
+      <c r="E310" s="13"/>
+    </row>
+    <row r="311">
+      <c r="D311" s="12"/>
+      <c r="E311" s="13"/>
+    </row>
+    <row r="312">
+      <c r="D312" s="12"/>
+      <c r="E312" s="13"/>
+    </row>
+    <row r="313">
+      <c r="D313" s="12"/>
+      <c r="E313" s="13"/>
+    </row>
+    <row r="314">
+      <c r="D314" s="12"/>
+      <c r="E314" s="13"/>
+    </row>
+    <row r="315">
+      <c r="D315" s="12"/>
+      <c r="E315" s="13"/>
+    </row>
+    <row r="316">
+      <c r="D316" s="12"/>
+      <c r="E316" s="13"/>
+    </row>
+    <row r="317">
+      <c r="D317" s="12"/>
+      <c r="E317" s="13"/>
+    </row>
+    <row r="318">
+      <c r="D318" s="12"/>
+      <c r="E318" s="13"/>
+    </row>
+    <row r="319">
+      <c r="D319" s="12"/>
+      <c r="E319" s="13"/>
+    </row>
+    <row r="320">
+      <c r="D320" s="12"/>
+      <c r="E320" s="13"/>
+    </row>
+    <row r="321">
+      <c r="D321" s="12"/>
+      <c r="E321" s="13"/>
+    </row>
+    <row r="322">
+      <c r="D322" s="12"/>
+      <c r="E322" s="13"/>
+    </row>
+    <row r="323">
+      <c r="D323" s="12"/>
+      <c r="E323" s="13"/>
+    </row>
+    <row r="324">
+      <c r="D324" s="12"/>
+      <c r="E324" s="13"/>
+    </row>
+    <row r="325">
+      <c r="D325" s="12"/>
+      <c r="E325" s="13"/>
+    </row>
+    <row r="326">
+      <c r="D326" s="12"/>
+      <c r="E326" s="13"/>
+    </row>
+    <row r="327">
+      <c r="D327" s="12"/>
+      <c r="E327" s="13"/>
+    </row>
+    <row r="328">
+      <c r="D328" s="12"/>
+      <c r="E328" s="13"/>
+    </row>
+    <row r="329">
+      <c r="D329" s="12"/>
+      <c r="E329" s="13"/>
+    </row>
+    <row r="330">
+      <c r="D330" s="12"/>
+      <c r="E330" s="13"/>
+    </row>
+    <row r="331">
+      <c r="D331" s="12"/>
+      <c r="E331" s="13"/>
+    </row>
+    <row r="332">
+      <c r="D332" s="12"/>
+      <c r="E332" s="13"/>
+    </row>
+    <row r="333">
+      <c r="D333" s="12"/>
+      <c r="E333" s="13"/>
+    </row>
+    <row r="334">
+      <c r="D334" s="12"/>
+      <c r="E334" s="13"/>
+    </row>
+    <row r="335">
+      <c r="D335" s="12"/>
+      <c r="E335" s="13"/>
+    </row>
+    <row r="336">
+      <c r="D336" s="12"/>
+      <c r="E336" s="13"/>
+    </row>
+    <row r="337">
+      <c r="D337" s="12"/>
+      <c r="E337" s="13"/>
+    </row>
+    <row r="338">
+      <c r="D338" s="12"/>
+      <c r="E338" s="13"/>
+    </row>
+    <row r="339">
+      <c r="D339" s="12"/>
+      <c r="E339" s="13"/>
+    </row>
+    <row r="340">
+      <c r="D340" s="12"/>
+      <c r="E340" s="13"/>
+    </row>
+    <row r="341">
+      <c r="D341" s="12"/>
+      <c r="E341" s="13"/>
+    </row>
+    <row r="342">
+      <c r="D342" s="12"/>
+      <c r="E342" s="13"/>
+    </row>
+    <row r="343">
+      <c r="D343" s="12"/>
+      <c r="E343" s="13"/>
+    </row>
+    <row r="344">
+      <c r="D344" s="12"/>
+      <c r="E344" s="13"/>
+    </row>
+    <row r="345">
+      <c r="D345" s="12"/>
+      <c r="E345" s="13"/>
+    </row>
+    <row r="346">
+      <c r="D346" s="12"/>
+      <c r="E346" s="13"/>
+    </row>
+    <row r="347">
+      <c r="D347" s="12"/>
+      <c r="E347" s="13"/>
+    </row>
+    <row r="348">
+      <c r="D348" s="12"/>
+      <c r="E348" s="13"/>
+    </row>
+    <row r="349">
+      <c r="D349" s="12"/>
+      <c r="E349" s="13"/>
+    </row>
+    <row r="350">
+      <c r="D350" s="12"/>
+      <c r="E350" s="13"/>
+    </row>
+    <row r="351">
+      <c r="D351" s="12"/>
+      <c r="E351" s="13"/>
+    </row>
+    <row r="352">
+      <c r="D352" s="12"/>
+      <c r="E352" s="13"/>
+    </row>
+    <row r="353">
+      <c r="D353" s="12"/>
+      <c r="E353" s="13"/>
+    </row>
+    <row r="354">
+      <c r="D354" s="12"/>
+      <c r="E354" s="13"/>
+    </row>
+    <row r="355">
+      <c r="D355" s="12"/>
+      <c r="E355" s="13"/>
+    </row>
+    <row r="356">
+      <c r="D356" s="12"/>
+      <c r="E356" s="13"/>
+    </row>
+    <row r="357">
+      <c r="D357" s="12"/>
+      <c r="E357" s="13"/>
+    </row>
+    <row r="358">
+      <c r="D358" s="12"/>
+      <c r="E358" s="13"/>
+    </row>
+    <row r="359">
+      <c r="D359" s="12"/>
+      <c r="E359" s="13"/>
+    </row>
+    <row r="360">
+      <c r="D360" s="12"/>
+      <c r="E360" s="13"/>
+    </row>
+    <row r="361">
+      <c r="D361" s="12"/>
+      <c r="E361" s="13"/>
+    </row>
+    <row r="362">
+      <c r="D362" s="12"/>
+      <c r="E362" s="13"/>
+    </row>
+    <row r="363">
+      <c r="D363" s="12"/>
+      <c r="E363" s="13"/>
+    </row>
+    <row r="364">
+      <c r="D364" s="12"/>
+      <c r="E364" s="13"/>
+    </row>
+    <row r="365">
+      <c r="D365" s="12"/>
+      <c r="E365" s="13"/>
+    </row>
+    <row r="366">
+      <c r="D366" s="12"/>
+      <c r="E366" s="13"/>
+    </row>
+    <row r="367">
+      <c r="D367" s="12"/>
+      <c r="E367" s="13"/>
+    </row>
+    <row r="368">
+      <c r="D368" s="12"/>
+      <c r="E368" s="13"/>
+    </row>
+    <row r="369">
+      <c r="D369" s="12"/>
+      <c r="E369" s="13"/>
+    </row>
+    <row r="370">
+      <c r="D370" s="12"/>
+      <c r="E370" s="13"/>
+    </row>
+    <row r="371">
+      <c r="D371" s="12"/>
+      <c r="E371" s="13"/>
+    </row>
+    <row r="372">
+      <c r="D372" s="12"/>
+      <c r="E372" s="13"/>
+    </row>
+    <row r="373">
+      <c r="D373" s="12"/>
+      <c r="E373" s="13"/>
+    </row>
+    <row r="374">
+      <c r="D374" s="12"/>
+      <c r="E374" s="13"/>
+    </row>
+    <row r="375">
+      <c r="D375" s="12"/>
+      <c r="E375" s="13"/>
+    </row>
+    <row r="376">
+      <c r="D376" s="12"/>
+      <c r="E376" s="13"/>
+    </row>
+    <row r="377">
+      <c r="D377" s="12"/>
+      <c r="E377" s="13"/>
+    </row>
+    <row r="378">
+      <c r="D378" s="12"/>
+      <c r="E378" s="13"/>
+    </row>
+    <row r="379">
+      <c r="D379" s="12"/>
+      <c r="E379" s="13"/>
+    </row>
+    <row r="380">
+      <c r="D380" s="12"/>
+      <c r="E380" s="13"/>
+    </row>
+    <row r="381">
+      <c r="D381" s="12"/>
+      <c r="E381" s="13"/>
+    </row>
+    <row r="382">
+      <c r="D382" s="12"/>
+      <c r="E382" s="13"/>
+    </row>
+    <row r="383">
+      <c r="D383" s="12"/>
+      <c r="E383" s="13"/>
+    </row>
+    <row r="384">
+      <c r="D384" s="12"/>
+      <c r="E384" s="13"/>
+    </row>
+    <row r="385">
+      <c r="D385" s="12"/>
+      <c r="E385" s="13"/>
+    </row>
+    <row r="386">
+      <c r="D386" s="12"/>
+      <c r="E386" s="13"/>
+    </row>
+    <row r="387">
+      <c r="D387" s="12"/>
+      <c r="E387" s="13"/>
+    </row>
+    <row r="388">
+      <c r="D388" s="12"/>
+      <c r="E388" s="13"/>
+    </row>
+    <row r="389">
+      <c r="D389" s="12"/>
+      <c r="E389" s="13"/>
+    </row>
+    <row r="390">
+      <c r="D390" s="12"/>
+      <c r="E390" s="13"/>
+    </row>
+    <row r="391">
+      <c r="D391" s="12"/>
+      <c r="E391" s="13"/>
+    </row>
+    <row r="392">
+      <c r="D392" s="12"/>
+      <c r="E392" s="13"/>
+    </row>
+    <row r="393">
+      <c r="D393" s="12"/>
+      <c r="E393" s="13"/>
+    </row>
+    <row r="394">
+      <c r="D394" s="12"/>
+      <c r="E394" s="13"/>
+    </row>
+    <row r="395">
+      <c r="D395" s="12"/>
+      <c r="E395" s="13"/>
+    </row>
+    <row r="396">
+      <c r="D396" s="12"/>
+      <c r="E396" s="13"/>
+    </row>
+    <row r="397">
+      <c r="D397" s="12"/>
+      <c r="E397" s="13"/>
+    </row>
+    <row r="398">
+      <c r="D398" s="12"/>
+      <c r="E398" s="13"/>
+    </row>
+    <row r="399">
+      <c r="D399" s="12"/>
+      <c r="E399" s="13"/>
+    </row>
+    <row r="400">
+      <c r="D400" s="12"/>
+      <c r="E400" s="13"/>
+    </row>
+    <row r="401">
+      <c r="D401" s="12"/>
+      <c r="E401" s="13"/>
+    </row>
+    <row r="402">
+      <c r="D402" s="12"/>
+      <c r="E402" s="13"/>
+    </row>
+    <row r="403">
+      <c r="D403" s="12"/>
+      <c r="E403" s="13"/>
+    </row>
+    <row r="404">
+      <c r="D404" s="12"/>
+      <c r="E404" s="13"/>
+    </row>
+    <row r="405">
+      <c r="D405" s="12"/>
+      <c r="E405" s="13"/>
+    </row>
+    <row r="406">
+      <c r="D406" s="12"/>
+      <c r="E406" s="13"/>
+    </row>
+    <row r="407">
+      <c r="D407" s="12"/>
+      <c r="E407" s="13"/>
+    </row>
+    <row r="408">
+      <c r="D408" s="12"/>
+      <c r="E408" s="13"/>
+    </row>
+    <row r="409">
+      <c r="D409" s="12"/>
+      <c r="E409" s="13"/>
+    </row>
+    <row r="410">
+      <c r="D410" s="12"/>
+      <c r="E410" s="13"/>
+    </row>
+    <row r="411">
+      <c r="D411" s="12"/>
+      <c r="E411" s="13"/>
+    </row>
+    <row r="412">
+      <c r="D412" s="12"/>
+      <c r="E412" s="13"/>
+    </row>
+    <row r="413">
+      <c r="D413" s="12"/>
+      <c r="E413" s="13"/>
+    </row>
+    <row r="414">
+      <c r="D414" s="12"/>
+      <c r="E414" s="13"/>
+    </row>
+    <row r="415">
+      <c r="D415" s="12"/>
+      <c r="E415" s="13"/>
+    </row>
+    <row r="416">
+      <c r="D416" s="12"/>
+      <c r="E416" s="13"/>
+    </row>
+    <row r="417">
+      <c r="D417" s="12"/>
+      <c r="E417" s="13"/>
+    </row>
+    <row r="418">
+      <c r="D418" s="12"/>
+      <c r="E418" s="13"/>
+    </row>
+    <row r="419">
+      <c r="D419" s="12"/>
+      <c r="E419" s="13"/>
+    </row>
+    <row r="420">
+      <c r="D420" s="12"/>
+      <c r="E420" s="13"/>
+    </row>
+    <row r="421">
+      <c r="D421" s="12"/>
+      <c r="E421" s="13"/>
+    </row>
+    <row r="422">
+      <c r="D422" s="12"/>
+      <c r="E422" s="13"/>
+    </row>
+    <row r="423">
+      <c r="D423" s="12"/>
+      <c r="E423" s="13"/>
+    </row>
+    <row r="424">
+      <c r="D424" s="12"/>
+      <c r="E424" s="13"/>
+    </row>
+    <row r="425">
+      <c r="D425" s="12"/>
+      <c r="E425" s="13"/>
+    </row>
+    <row r="426">
+      <c r="D426" s="12"/>
+      <c r="E426" s="13"/>
+    </row>
+    <row r="427">
+      <c r="D427" s="12"/>
+      <c r="E427" s="13"/>
+    </row>
+    <row r="428">
+      <c r="D428" s="12"/>
+      <c r="E428" s="13"/>
+    </row>
+    <row r="429">
+      <c r="D429" s="12"/>
+      <c r="E429" s="13"/>
+    </row>
+    <row r="430">
+      <c r="D430" s="12"/>
+      <c r="E430" s="13"/>
+    </row>
+    <row r="431">
+      <c r="D431" s="12"/>
+      <c r="E431" s="13"/>
+    </row>
+    <row r="432">
+      <c r="D432" s="12"/>
+      <c r="E432" s="13"/>
+    </row>
+    <row r="433">
+      <c r="D433" s="12"/>
+      <c r="E433" s="13"/>
+    </row>
+    <row r="434">
+      <c r="D434" s="12"/>
+      <c r="E434" s="13"/>
+    </row>
+    <row r="435">
+      <c r="D435" s="12"/>
+      <c r="E435" s="13"/>
+    </row>
+    <row r="436">
+      <c r="D436" s="12"/>
+      <c r="E436" s="13"/>
+    </row>
+    <row r="437">
+      <c r="D437" s="12"/>
+      <c r="E437" s="13"/>
+    </row>
+    <row r="438">
+      <c r="D438" s="12"/>
+      <c r="E438" s="13"/>
+    </row>
+    <row r="439">
+      <c r="D439" s="12"/>
+      <c r="E439" s="13"/>
+    </row>
+    <row r="440">
+      <c r="D440" s="12"/>
+      <c r="E440" s="13"/>
+    </row>
+    <row r="441">
+      <c r="D441" s="12"/>
+      <c r="E441" s="13"/>
+    </row>
+    <row r="442">
+      <c r="D442" s="12"/>
+      <c r="E442" s="13"/>
+    </row>
+    <row r="443">
+      <c r="D443" s="12"/>
+      <c r="E443" s="13"/>
+    </row>
+    <row r="444">
+      <c r="D444" s="12"/>
+      <c r="E444" s="13"/>
+    </row>
+    <row r="445">
+      <c r="D445" s="12"/>
+      <c r="E445" s="13"/>
+    </row>
+    <row r="446">
+      <c r="D446" s="12"/>
+      <c r="E446" s="13"/>
+    </row>
+    <row r="447">
+      <c r="D447" s="12"/>
+      <c r="E447" s="13"/>
+    </row>
+    <row r="448">
+      <c r="D448" s="12"/>
+      <c r="E448" s="13"/>
+    </row>
+    <row r="449">
+      <c r="D449" s="12"/>
+      <c r="E449" s="13"/>
+    </row>
+    <row r="450">
+      <c r="D450" s="12"/>
+      <c r="E450" s="13"/>
+    </row>
+    <row r="451">
+      <c r="D451" s="12"/>
+      <c r="E451" s="13"/>
+    </row>
+    <row r="452">
+      <c r="D452" s="12"/>
+      <c r="E452" s="13"/>
+    </row>
+    <row r="453">
+      <c r="D453" s="12"/>
+      <c r="E453" s="13"/>
+    </row>
+    <row r="454">
+      <c r="D454" s="12"/>
+      <c r="E454" s="13"/>
+    </row>
+    <row r="455">
+      <c r="D455" s="12"/>
+      <c r="E455" s="13"/>
+    </row>
+    <row r="456">
+      <c r="D456" s="12"/>
+      <c r="E456" s="13"/>
+    </row>
+    <row r="457">
+      <c r="D457" s="12"/>
+      <c r="E457" s="13"/>
+    </row>
+    <row r="458">
+      <c r="D458" s="12"/>
+      <c r="E458" s="13"/>
+    </row>
+    <row r="459">
+      <c r="D459" s="12"/>
+      <c r="E459" s="13"/>
+    </row>
+    <row r="460">
+      <c r="D460" s="12"/>
+      <c r="E460" s="13"/>
+    </row>
+    <row r="461">
+      <c r="D461" s="12"/>
+      <c r="E461" s="13"/>
+    </row>
+    <row r="462">
+      <c r="D462" s="12"/>
+      <c r="E462" s="13"/>
+    </row>
+    <row r="463">
+      <c r="D463" s="12"/>
+      <c r="E463" s="13"/>
+    </row>
+    <row r="464">
+      <c r="D464" s="12"/>
+      <c r="E464" s="13"/>
+    </row>
+    <row r="465">
+      <c r="D465" s="12"/>
+      <c r="E465" s="13"/>
+    </row>
+    <row r="466">
+      <c r="D466" s="12"/>
+      <c r="E466" s="13"/>
+    </row>
+    <row r="467">
+      <c r="D467" s="12"/>
+      <c r="E467" s="13"/>
+    </row>
+    <row r="468">
+      <c r="D468" s="12"/>
+      <c r="E468" s="13"/>
+    </row>
+    <row r="469">
+      <c r="D469" s="12"/>
+      <c r="E469" s="13"/>
+    </row>
+    <row r="470">
+      <c r="D470" s="12"/>
+      <c r="E470" s="13"/>
+    </row>
+    <row r="471">
+      <c r="D471" s="12"/>
+      <c r="E471" s="13"/>
+    </row>
+    <row r="472">
+      <c r="D472" s="12"/>
+      <c r="E472" s="13"/>
+    </row>
+    <row r="473">
+      <c r="D473" s="12"/>
+      <c r="E473" s="13"/>
+    </row>
+    <row r="474">
+      <c r="D474" s="12"/>
+      <c r="E474" s="13"/>
+    </row>
+    <row r="475">
+      <c r="D475" s="12"/>
+      <c r="E475" s="13"/>
+    </row>
+    <row r="476">
+      <c r="D476" s="12"/>
+      <c r="E476" s="13"/>
+    </row>
+    <row r="477">
+      <c r="D477" s="12"/>
+      <c r="E477" s="13"/>
+    </row>
+    <row r="478">
+      <c r="D478" s="12"/>
+      <c r="E478" s="13"/>
+    </row>
+    <row r="479">
+      <c r="D479" s="12"/>
+      <c r="E479" s="13"/>
+    </row>
+    <row r="480">
+      <c r="D480" s="12"/>
+      <c r="E480" s="13"/>
+    </row>
+    <row r="481">
+      <c r="D481" s="12"/>
+      <c r="E481" s="13"/>
+    </row>
+    <row r="482">
+      <c r="D482" s="12"/>
+      <c r="E482" s="13"/>
+    </row>
+    <row r="483">
+      <c r="D483" s="12"/>
+      <c r="E483" s="13"/>
+    </row>
+    <row r="484">
+      <c r="D484" s="12"/>
+      <c r="E484" s="13"/>
+    </row>
+    <row r="485">
+      <c r="D485" s="12"/>
+      <c r="E485" s="13"/>
+    </row>
+    <row r="486">
+      <c r="D486" s="12"/>
+      <c r="E486" s="13"/>
+    </row>
+    <row r="487">
+      <c r="D487" s="12"/>
+      <c r="E487" s="13"/>
+    </row>
+    <row r="488">
+      <c r="D488" s="12"/>
+      <c r="E488" s="13"/>
+    </row>
+    <row r="489">
+      <c r="D489" s="12"/>
+      <c r="E489" s="13"/>
+    </row>
+    <row r="490">
+      <c r="D490" s="12"/>
+      <c r="E490" s="13"/>
+    </row>
+    <row r="491">
+      <c r="D491" s="12"/>
+      <c r="E491" s="13"/>
+    </row>
+    <row r="492">
+      <c r="D492" s="12"/>
+      <c r="E492" s="13"/>
+    </row>
+    <row r="493">
+      <c r="D493" s="12"/>
+      <c r="E493" s="13"/>
+    </row>
+    <row r="494">
+      <c r="D494" s="12"/>
+      <c r="E494" s="13"/>
+    </row>
+    <row r="495">
+      <c r="D495" s="12"/>
+      <c r="E495" s="13"/>
+    </row>
+    <row r="496">
+      <c r="D496" s="12"/>
+      <c r="E496" s="13"/>
+    </row>
+    <row r="497">
+      <c r="D497" s="12"/>
+      <c r="E497" s="13"/>
+    </row>
+    <row r="498">
+      <c r="D498" s="12"/>
+      <c r="E498" s="13"/>
+    </row>
+    <row r="499">
+      <c r="D499" s="12"/>
+      <c r="E499" s="13"/>
+    </row>
+    <row r="500">
+      <c r="D500" s="12"/>
+      <c r="E500" s="13"/>
+    </row>
+    <row r="501">
+      <c r="D501" s="12"/>
+      <c r="E501" s="13"/>
+    </row>
+    <row r="502">
+      <c r="D502" s="12"/>
+      <c r="E502" s="13"/>
+    </row>
+    <row r="503">
+      <c r="D503" s="12"/>
+      <c r="E503" s="13"/>
+    </row>
+    <row r="504">
+      <c r="D504" s="12"/>
+      <c r="E504" s="13"/>
+    </row>
+    <row r="505">
+      <c r="D505" s="12"/>
+      <c r="E505" s="13"/>
+    </row>
+    <row r="506">
+      <c r="D506" s="12"/>
+      <c r="E506" s="13"/>
+    </row>
+    <row r="507">
+      <c r="D507" s="12"/>
+      <c r="E507" s="13"/>
+    </row>
+    <row r="508">
+      <c r="D508" s="12"/>
+      <c r="E508" s="13"/>
+    </row>
+    <row r="509">
+      <c r="D509" s="12"/>
+      <c r="E509" s="13"/>
+    </row>
+    <row r="510">
+      <c r="D510" s="12"/>
+      <c r="E510" s="13"/>
+    </row>
+    <row r="511">
+      <c r="D511" s="12"/>
+      <c r="E511" s="13"/>
+    </row>
+    <row r="512">
+      <c r="D512" s="12"/>
+      <c r="E512" s="13"/>
+    </row>
+    <row r="513">
+      <c r="D513" s="12"/>
+      <c r="E513" s="13"/>
+    </row>
+    <row r="514">
+      <c r="D514" s="12"/>
+      <c r="E514" s="13"/>
+    </row>
+    <row r="515">
+      <c r="D515" s="12"/>
+      <c r="E515" s="13"/>
+    </row>
+    <row r="516">
+      <c r="D516" s="12"/>
+      <c r="E516" s="13"/>
+    </row>
+    <row r="517">
+      <c r="D517" s="12"/>
+      <c r="E517" s="13"/>
+    </row>
+    <row r="518">
+      <c r="D518" s="12"/>
+      <c r="E518" s="13"/>
+    </row>
+    <row r="519">
+      <c r="D519" s="12"/>
+      <c r="E519" s="13"/>
+    </row>
+    <row r="520">
+      <c r="D520" s="12"/>
+      <c r="E520" s="13"/>
+    </row>
+    <row r="521">
+      <c r="D521" s="12"/>
+      <c r="E521" s="13"/>
+    </row>
+    <row r="522">
+      <c r="D522" s="12"/>
+      <c r="E522" s="13"/>
+    </row>
+    <row r="523">
+      <c r="D523" s="12"/>
+      <c r="E523" s="13"/>
+    </row>
+    <row r="524">
+      <c r="D524" s="12"/>
+      <c r="E524" s="13"/>
+    </row>
+    <row r="525">
+      <c r="D525" s="12"/>
+      <c r="E525" s="13"/>
+    </row>
+    <row r="526">
+      <c r="D526" s="12"/>
+      <c r="E526" s="13"/>
+    </row>
+    <row r="527">
+      <c r="D527" s="12"/>
+      <c r="E527" s="13"/>
+    </row>
+    <row r="528">
+      <c r="D528" s="12"/>
+      <c r="E528" s="13"/>
+    </row>
+    <row r="529">
+      <c r="D529" s="12"/>
+      <c r="E529" s="13"/>
+    </row>
+    <row r="530">
+      <c r="D530" s="12"/>
+      <c r="E530" s="13"/>
+    </row>
+    <row r="531">
+      <c r="D531" s="12"/>
+      <c r="E531" s="13"/>
+    </row>
+    <row r="532">
+      <c r="D532" s="12"/>
+      <c r="E532" s="13"/>
+    </row>
+    <row r="533">
+      <c r="D533" s="12"/>
+      <c r="E533" s="13"/>
+    </row>
+    <row r="534">
+      <c r="D534" s="12"/>
+      <c r="E534" s="13"/>
+    </row>
+    <row r="535">
+      <c r="D535" s="12"/>
+      <c r="E535" s="13"/>
+    </row>
+    <row r="536">
+      <c r="D536" s="12"/>
+      <c r="E536" s="13"/>
+    </row>
+    <row r="537">
+      <c r="D537" s="12"/>
+      <c r="E537" s="13"/>
+    </row>
+    <row r="538">
+      <c r="D538" s="12"/>
+      <c r="E538" s="13"/>
+    </row>
+    <row r="539">
+      <c r="D539" s="12"/>
+      <c r="E539" s="13"/>
+    </row>
+    <row r="540">
+      <c r="D540" s="12"/>
+      <c r="E540" s="13"/>
+    </row>
+    <row r="541">
+      <c r="D541" s="12"/>
+      <c r="E541" s="13"/>
+    </row>
+    <row r="542">
+      <c r="D542" s="12"/>
+      <c r="E542" s="13"/>
+    </row>
+    <row r="543">
+      <c r="D543" s="12"/>
+      <c r="E543" s="13"/>
+    </row>
+    <row r="544">
+      <c r="D544" s="12"/>
+      <c r="E544" s="13"/>
+    </row>
+    <row r="545">
+      <c r="D545" s="12"/>
+      <c r="E545" s="13"/>
+    </row>
+    <row r="546">
+      <c r="D546" s="12"/>
+      <c r="E546" s="13"/>
+    </row>
+    <row r="547">
+      <c r="D547" s="12"/>
+      <c r="E547" s="13"/>
+    </row>
+    <row r="548">
+      <c r="D548" s="12"/>
+      <c r="E548" s="13"/>
+    </row>
+    <row r="549">
+      <c r="D549" s="12"/>
+      <c r="E549" s="13"/>
+    </row>
+    <row r="550">
+      <c r="D550" s="12"/>
+      <c r="E550" s="13"/>
+    </row>
+    <row r="551">
+      <c r="D551" s="12"/>
+      <c r="E551" s="13"/>
+    </row>
+    <row r="552">
+      <c r="D552" s="12"/>
+      <c r="E552" s="13"/>
+    </row>
+    <row r="553">
+      <c r="D553" s="12"/>
+      <c r="E553" s="13"/>
+    </row>
+    <row r="554">
+      <c r="D554" s="12"/>
+      <c r="E554" s="13"/>
+    </row>
+    <row r="555">
+      <c r="D555" s="12"/>
+      <c r="E555" s="13"/>
+    </row>
+    <row r="556">
+      <c r="D556" s="12"/>
+      <c r="E556" s="13"/>
+    </row>
+    <row r="557">
+      <c r="D557" s="12"/>
+      <c r="E557" s="13"/>
+    </row>
+    <row r="558">
+      <c r="D558" s="12"/>
+      <c r="E558" s="13"/>
+    </row>
+    <row r="559">
+      <c r="D559" s="12"/>
+      <c r="E559" s="13"/>
+    </row>
+    <row r="560">
+      <c r="D560" s="12"/>
+      <c r="E560" s="13"/>
+    </row>
+    <row r="561">
+      <c r="D561" s="12"/>
+      <c r="E561" s="13"/>
+    </row>
+    <row r="562">
+      <c r="D562" s="12"/>
+      <c r="E562" s="13"/>
+    </row>
+    <row r="563">
+      <c r="D563" s="12"/>
+      <c r="E563" s="13"/>
+    </row>
+    <row r="564">
+      <c r="D564" s="12"/>
+      <c r="E564" s="13"/>
+    </row>
+    <row r="565">
+      <c r="D565" s="12"/>
+      <c r="E565" s="13"/>
+    </row>
+    <row r="566">
+      <c r="D566" s="12"/>
+      <c r="E566" s="13"/>
+    </row>
+    <row r="567">
+      <c r="D567" s="12"/>
+      <c r="E567" s="13"/>
+    </row>
+    <row r="568">
+      <c r="D568" s="12"/>
+      <c r="E568" s="13"/>
+    </row>
+    <row r="569">
+      <c r="D569" s="12"/>
+      <c r="E569" s="13"/>
+    </row>
+    <row r="570">
+      <c r="D570" s="12"/>
+      <c r="E570" s="13"/>
+    </row>
+    <row r="571">
+      <c r="D571" s="12"/>
+      <c r="E571" s="13"/>
+    </row>
+    <row r="572">
+      <c r="D572" s="12"/>
+      <c r="E572" s="13"/>
+    </row>
+    <row r="573">
+      <c r="D573" s="12"/>
+      <c r="E573" s="13"/>
+    </row>
+    <row r="574">
+      <c r="D574" s="12"/>
+      <c r="E574" s="13"/>
+    </row>
+    <row r="575">
+      <c r="D575" s="12"/>
+      <c r="E575" s="13"/>
+    </row>
+    <row r="576">
+      <c r="D576" s="12"/>
+      <c r="E576" s="13"/>
+    </row>
+    <row r="577">
+      <c r="D577" s="12"/>
+      <c r="E577" s="13"/>
+    </row>
+    <row r="578">
+      <c r="D578" s="12"/>
+      <c r="E578" s="13"/>
+    </row>
+    <row r="579">
+      <c r="D579" s="12"/>
+      <c r="E579" s="13"/>
+    </row>
+    <row r="580">
+      <c r="D580" s="12"/>
+      <c r="E580" s="13"/>
+    </row>
+    <row r="581">
+      <c r="D581" s="12"/>
+      <c r="E581" s="13"/>
+    </row>
+    <row r="582">
+      <c r="D582" s="12"/>
+      <c r="E582" s="13"/>
+    </row>
+    <row r="583">
+      <c r="D583" s="12"/>
+      <c r="E583" s="13"/>
+    </row>
+    <row r="584">
+      <c r="D584" s="12"/>
+      <c r="E584" s="13"/>
+    </row>
+    <row r="585">
+      <c r="D585" s="12"/>
+      <c r="E585" s="13"/>
+    </row>
+    <row r="586">
+      <c r="D586" s="12"/>
+      <c r="E586" s="13"/>
+    </row>
+    <row r="587">
+      <c r="D587" s="12"/>
+      <c r="E587" s="13"/>
+    </row>
+    <row r="588">
+      <c r="D588" s="12"/>
+      <c r="E588" s="13"/>
+    </row>
+    <row r="589">
+      <c r="D589" s="12"/>
+      <c r="E589" s="13"/>
+    </row>
+    <row r="590">
+      <c r="D590" s="12"/>
+      <c r="E590" s="13"/>
+    </row>
+    <row r="591">
+      <c r="D591" s="12"/>
+      <c r="E591" s="13"/>
+    </row>
+    <row r="592">
+      <c r="D592" s="12"/>
+      <c r="E592" s="13"/>
+    </row>
+    <row r="593">
+      <c r="D593" s="12"/>
+      <c r="E593" s="13"/>
+    </row>
+    <row r="594">
+      <c r="D594" s="12"/>
+      <c r="E594" s="13"/>
+    </row>
+    <row r="595">
+      <c r="D595" s="12"/>
+      <c r="E595" s="13"/>
+    </row>
+    <row r="596">
+      <c r="D596" s="12"/>
+      <c r="E596" s="13"/>
+    </row>
+    <row r="597">
+      <c r="D597" s="12"/>
+      <c r="E597" s="13"/>
+    </row>
+    <row r="598">
+      <c r="D598" s="12"/>
+      <c r="E598" s="13"/>
+    </row>
+    <row r="599">
+      <c r="D599" s="12"/>
+      <c r="E599" s="13"/>
+    </row>
+    <row r="600">
+      <c r="D600" s="12"/>
+      <c r="E600" s="13"/>
+    </row>
+    <row r="601">
+      <c r="D601" s="12"/>
+      <c r="E601" s="13"/>
+    </row>
+    <row r="602">
+      <c r="D602" s="12"/>
+      <c r="E602" s="13"/>
+    </row>
+    <row r="603">
+      <c r="D603" s="12"/>
+      <c r="E603" s="13"/>
+    </row>
+    <row r="604">
+      <c r="D604" s="12"/>
+      <c r="E604" s="13"/>
+    </row>
+    <row r="605">
+      <c r="D605" s="12"/>
+      <c r="E605" s="13"/>
+    </row>
+    <row r="606">
+      <c r="D606" s="12"/>
+      <c r="E606" s="13"/>
+    </row>
+    <row r="607">
+      <c r="D607" s="12"/>
+      <c r="E607" s="13"/>
+    </row>
+    <row r="608">
+      <c r="D608" s="12"/>
+      <c r="E608" s="13"/>
+    </row>
+    <row r="609">
+      <c r="D609" s="12"/>
+      <c r="E609" s="13"/>
+    </row>
+    <row r="610">
+      <c r="D610" s="12"/>
+      <c r="E610" s="13"/>
+    </row>
+    <row r="611">
+      <c r="D611" s="12"/>
+      <c r="E611" s="13"/>
+    </row>
+    <row r="612">
+      <c r="D612" s="12"/>
+      <c r="E612" s="13"/>
+    </row>
+    <row r="613">
+      <c r="D613" s="12"/>
+      <c r="E613" s="13"/>
+    </row>
+    <row r="614">
+      <c r="D614" s="12"/>
+      <c r="E614" s="13"/>
+    </row>
+    <row r="615">
+      <c r="D615" s="12"/>
+      <c r="E615" s="13"/>
+    </row>
+    <row r="616">
+      <c r="D616" s="12"/>
+      <c r="E616" s="13"/>
+    </row>
+    <row r="617">
+      <c r="D617" s="12"/>
+      <c r="E617" s="13"/>
+    </row>
+    <row r="618">
+      <c r="D618" s="12"/>
+      <c r="E618" s="13"/>
+    </row>
+    <row r="619">
+      <c r="D619" s="12"/>
+      <c r="E619" s="13"/>
+    </row>
+    <row r="620">
+      <c r="D620" s="12"/>
+      <c r="E620" s="13"/>
+    </row>
+    <row r="621">
+      <c r="D621" s="12"/>
+      <c r="E621" s="13"/>
+    </row>
+    <row r="622">
+      <c r="D622" s="12"/>
+      <c r="E622" s="13"/>
+    </row>
+    <row r="623">
+      <c r="D623" s="12"/>
+      <c r="E623" s="13"/>
+    </row>
+    <row r="624">
+      <c r="D624" s="12"/>
+      <c r="E624" s="13"/>
+    </row>
+    <row r="625">
+      <c r="D625" s="12"/>
+      <c r="E625" s="13"/>
+    </row>
+    <row r="626">
+      <c r="D626" s="12"/>
+      <c r="E626" s="13"/>
+    </row>
+    <row r="627">
+      <c r="D627" s="12"/>
+      <c r="E627" s="13"/>
+    </row>
+    <row r="628">
+      <c r="D628" s="12"/>
+      <c r="E628" s="13"/>
+    </row>
+    <row r="629">
+      <c r="D629" s="12"/>
+      <c r="E629" s="13"/>
+    </row>
+    <row r="630">
+      <c r="D630" s="12"/>
+      <c r="E630" s="13"/>
+    </row>
+    <row r="631">
+      <c r="D631" s="12"/>
+      <c r="E631" s="13"/>
+    </row>
+    <row r="632">
+      <c r="D632" s="12"/>
+      <c r="E632" s="13"/>
+    </row>
+    <row r="633">
+      <c r="D633" s="12"/>
+      <c r="E633" s="13"/>
+    </row>
+    <row r="634">
+      <c r="D634" s="12"/>
+      <c r="E634" s="13"/>
+    </row>
+    <row r="635">
+      <c r="D635" s="12"/>
+      <c r="E635" s="13"/>
+    </row>
+    <row r="636">
+      <c r="D636" s="12"/>
+      <c r="E636" s="13"/>
+    </row>
+    <row r="637">
+      <c r="D637" s="12"/>
+      <c r="E637" s="13"/>
+    </row>
+    <row r="638">
+      <c r="D638" s="12"/>
+      <c r="E638" s="13"/>
+    </row>
+    <row r="639">
+      <c r="D639" s="12"/>
+      <c r="E639" s="13"/>
+    </row>
+    <row r="640">
+      <c r="D640" s="12"/>
+      <c r="E640" s="13"/>
+    </row>
+    <row r="641">
+      <c r="D641" s="12"/>
+      <c r="E641" s="13"/>
+    </row>
+    <row r="642">
+      <c r="D642" s="12"/>
+      <c r="E642" s="13"/>
+    </row>
+    <row r="643">
+      <c r="D643" s="12"/>
+      <c r="E643" s="13"/>
+    </row>
+    <row r="644">
+      <c r="D644" s="12"/>
+      <c r="E644" s="13"/>
+    </row>
+    <row r="645">
+      <c r="D645" s="12"/>
+      <c r="E645" s="13"/>
+    </row>
+    <row r="646">
+      <c r="D646" s="12"/>
+      <c r="E646" s="13"/>
+    </row>
+    <row r="647">
+      <c r="D647" s="12"/>
+      <c r="E647" s="13"/>
+    </row>
+    <row r="648">
+      <c r="D648" s="12"/>
+      <c r="E648" s="13"/>
+    </row>
+    <row r="649">
+      <c r="D649" s="12"/>
+      <c r="E649" s="13"/>
+    </row>
+    <row r="650">
+      <c r="D650" s="12"/>
+      <c r="E650" s="13"/>
+    </row>
+    <row r="651">
+      <c r="D651" s="12"/>
+      <c r="E651" s="13"/>
+    </row>
+    <row r="652">
+      <c r="D652" s="12"/>
+      <c r="E652" s="13"/>
+    </row>
+    <row r="653">
+      <c r="D653" s="12"/>
+      <c r="E653" s="13"/>
+    </row>
+    <row r="654">
+      <c r="D654" s="12"/>
+      <c r="E654" s="13"/>
+    </row>
+    <row r="655">
+      <c r="D655" s="12"/>
+      <c r="E655" s="13"/>
+    </row>
+    <row r="656">
+      <c r="D656" s="12"/>
+      <c r="E656" s="13"/>
+    </row>
+    <row r="657">
+      <c r="D657" s="12"/>
+      <c r="E657" s="13"/>
+    </row>
+    <row r="658">
+      <c r="D658" s="12"/>
+      <c r="E658" s="13"/>
+    </row>
+    <row r="659">
+      <c r="D659" s="12"/>
+      <c r="E659" s="13"/>
+    </row>
+    <row r="660">
+      <c r="D660" s="12"/>
+      <c r="E660" s="13"/>
+    </row>
+    <row r="661">
+      <c r="D661" s="12"/>
+      <c r="E661" s="13"/>
+    </row>
+    <row r="662">
+      <c r="D662" s="12"/>
+      <c r="E662" s="13"/>
+    </row>
+    <row r="663">
+      <c r="D663" s="12"/>
+      <c r="E663" s="13"/>
+    </row>
+    <row r="664">
+      <c r="D664" s="12"/>
+      <c r="E664" s="13"/>
+    </row>
+    <row r="665">
+      <c r="D665" s="12"/>
+      <c r="E665" s="13"/>
+    </row>
+    <row r="666">
+      <c r="D666" s="12"/>
+      <c r="E666" s="13"/>
+    </row>
+    <row r="667">
+      <c r="D667" s="12"/>
+      <c r="E667" s="13"/>
+    </row>
+    <row r="668">
+      <c r="D668" s="12"/>
+      <c r="E668" s="13"/>
+    </row>
+    <row r="669">
+      <c r="D669" s="12"/>
+      <c r="E669" s="13"/>
+    </row>
+    <row r="670">
+      <c r="D670" s="12"/>
+      <c r="E670" s="13"/>
+    </row>
+    <row r="671">
+      <c r="D671" s="12"/>
+      <c r="E671" s="13"/>
+    </row>
+    <row r="672">
+      <c r="D672" s="12"/>
+      <c r="E672" s="13"/>
+    </row>
+    <row r="673">
+      <c r="D673" s="12"/>
+      <c r="E673" s="13"/>
+    </row>
+    <row r="674">
+      <c r="D674" s="12"/>
+      <c r="E674" s="13"/>
+    </row>
+    <row r="675">
+      <c r="D675" s="12"/>
+      <c r="E675" s="13"/>
+    </row>
+    <row r="676">
+      <c r="D676" s="12"/>
+      <c r="E676" s="13"/>
+    </row>
+    <row r="677">
+      <c r="D677" s="12"/>
+      <c r="E677" s="13"/>
+    </row>
+    <row r="678">
+      <c r="D678" s="12"/>
+      <c r="E678" s="13"/>
+    </row>
+    <row r="679">
+      <c r="D679" s="12"/>
+      <c r="E679" s="13"/>
+    </row>
+    <row r="680">
+      <c r="D680" s="12"/>
+      <c r="E680" s="13"/>
+    </row>
+    <row r="681">
+      <c r="D681" s="12"/>
+      <c r="E681" s="13"/>
+    </row>
+    <row r="682">
+      <c r="D682" s="12"/>
+      <c r="E682" s="13"/>
+    </row>
+    <row r="683">
+      <c r="D683" s="12"/>
+      <c r="E683" s="13"/>
+    </row>
+    <row r="684">
+      <c r="D684" s="12"/>
+      <c r="E684" s="13"/>
+    </row>
+    <row r="685">
+      <c r="D685" s="12"/>
+      <c r="E685" s="13"/>
+    </row>
+    <row r="686">
+      <c r="D686" s="12"/>
+      <c r="E686" s="13"/>
+    </row>
+    <row r="687">
+      <c r="D687" s="12"/>
+      <c r="E687" s="13"/>
+    </row>
+    <row r="688">
+      <c r="D688" s="12"/>
+      <c r="E688" s="13"/>
+    </row>
+    <row r="689">
+      <c r="D689" s="12"/>
+      <c r="E689" s="13"/>
+    </row>
+    <row r="690">
+      <c r="D690" s="12"/>
+      <c r="E690" s="13"/>
+    </row>
+    <row r="691">
+      <c r="D691" s="12"/>
+      <c r="E691" s="13"/>
+    </row>
+    <row r="692">
+      <c r="D692" s="12"/>
+      <c r="E692" s="13"/>
+    </row>
+    <row r="693">
+      <c r="D693" s="12"/>
+      <c r="E693" s="13"/>
+    </row>
+    <row r="694">
+      <c r="D694" s="12"/>
+      <c r="E694" s="13"/>
+    </row>
+    <row r="695">
+      <c r="D695" s="12"/>
+      <c r="E695" s="13"/>
+    </row>
+    <row r="696">
+      <c r="D696" s="12"/>
+      <c r="E696" s="13"/>
+    </row>
+    <row r="697">
+      <c r="D697" s="12"/>
+      <c r="E697" s="13"/>
+    </row>
+    <row r="698">
+      <c r="D698" s="12"/>
+      <c r="E698" s="13"/>
+    </row>
+    <row r="699">
+      <c r="D699" s="12"/>
+      <c r="E699" s="13"/>
+    </row>
+    <row r="700">
+      <c r="D700" s="12"/>
+      <c r="E700" s="13"/>
+    </row>
+    <row r="701">
+      <c r="D701" s="12"/>
+      <c r="E701" s="13"/>
+    </row>
+    <row r="702">
+      <c r="D702" s="12"/>
+      <c r="E702" s="13"/>
+    </row>
+    <row r="703">
+      <c r="D703" s="12"/>
+      <c r="E703" s="13"/>
+    </row>
+    <row r="704">
+      <c r="D704" s="12"/>
+      <c r="E704" s="13"/>
+    </row>
+    <row r="705">
+      <c r="D705" s="12"/>
+      <c r="E705" s="13"/>
+    </row>
+    <row r="706">
+      <c r="D706" s="12"/>
+      <c r="E706" s="13"/>
+    </row>
+    <row r="707">
+      <c r="D707" s="12"/>
+      <c r="E707" s="13"/>
+    </row>
+    <row r="708">
+      <c r="D708" s="12"/>
+      <c r="E708" s="13"/>
+    </row>
+    <row r="709">
+      <c r="D709" s="12"/>
+      <c r="E709" s="13"/>
+    </row>
+    <row r="710">
+      <c r="D710" s="12"/>
+      <c r="E710" s="13"/>
+    </row>
+    <row r="711">
+      <c r="D711" s="12"/>
+      <c r="E711" s="13"/>
+    </row>
+    <row r="712">
+      <c r="D712" s="12"/>
+      <c r="E712" s="13"/>
+    </row>
+    <row r="713">
+      <c r="D713" s="12"/>
+      <c r="E713" s="13"/>
+    </row>
+    <row r="714">
+      <c r="D714" s="12"/>
+      <c r="E714" s="13"/>
+    </row>
+    <row r="715">
+      <c r="D715" s="12"/>
+      <c r="E715" s="13"/>
+    </row>
+    <row r="716">
+      <c r="D716" s="12"/>
+      <c r="E716" s="13"/>
+    </row>
+    <row r="717">
+      <c r="D717" s="12"/>
+      <c r="E717" s="13"/>
+    </row>
+    <row r="718">
+      <c r="D718" s="12"/>
+      <c r="E718" s="13"/>
+    </row>
+    <row r="719">
+      <c r="D719" s="12"/>
+      <c r="E719" s="13"/>
+    </row>
+    <row r="720">
+      <c r="D720" s="12"/>
+      <c r="E720" s="13"/>
+    </row>
+    <row r="721">
+      <c r="D721" s="12"/>
+      <c r="E721" s="13"/>
+    </row>
+    <row r="722">
+      <c r="D722" s="12"/>
+      <c r="E722" s="13"/>
+    </row>
+    <row r="723">
+      <c r="D723" s="12"/>
+      <c r="E723" s="13"/>
+    </row>
+    <row r="724">
+      <c r="D724" s="12"/>
+      <c r="E724" s="13"/>
+    </row>
+    <row r="725">
+      <c r="D725" s="12"/>
+      <c r="E725" s="13"/>
+    </row>
+    <row r="726">
+      <c r="D726" s="12"/>
+      <c r="E726" s="13"/>
+    </row>
+    <row r="727">
+      <c r="D727" s="12"/>
+      <c r="E727" s="13"/>
+    </row>
+    <row r="728">
+      <c r="D728" s="12"/>
+      <c r="E728" s="13"/>
+    </row>
+    <row r="729">
+      <c r="D729" s="12"/>
+      <c r="E729" s="13"/>
+    </row>
+    <row r="730">
+      <c r="D730" s="12"/>
+      <c r="E730" s="13"/>
+    </row>
+    <row r="731">
+      <c r="D731" s="12"/>
+      <c r="E731" s="13"/>
+    </row>
+    <row r="732">
+      <c r="D732" s="12"/>
+      <c r="E732" s="13"/>
+    </row>
+    <row r="733">
+      <c r="D733" s="12"/>
+      <c r="E733" s="13"/>
+    </row>
+    <row r="734">
+      <c r="D734" s="12"/>
+      <c r="E734" s="13"/>
+    </row>
+    <row r="735">
+      <c r="D735" s="12"/>
+      <c r="E735" s="13"/>
+    </row>
+    <row r="736">
+      <c r="D736" s="12"/>
+      <c r="E736" s="13"/>
+    </row>
+    <row r="737">
+      <c r="D737" s="12"/>
+      <c r="E737" s="13"/>
+    </row>
+    <row r="738">
+      <c r="D738" s="12"/>
+      <c r="E738" s="13"/>
+    </row>
+    <row r="739">
+      <c r="D739" s="12"/>
+      <c r="E739" s="13"/>
+    </row>
+    <row r="740">
+      <c r="D740" s="12"/>
+      <c r="E740" s="13"/>
+    </row>
+    <row r="741">
+      <c r="D741" s="12"/>
+      <c r="E741" s="13"/>
+    </row>
+    <row r="742">
+      <c r="D742" s="12"/>
+      <c r="E742" s="13"/>
+    </row>
+    <row r="743">
+      <c r="D743" s="12"/>
+      <c r="E743" s="13"/>
+    </row>
+    <row r="744">
+      <c r="D744" s="12"/>
+      <c r="E744" s="13"/>
+    </row>
+    <row r="745">
+      <c r="D745" s="12"/>
+      <c r="E745" s="13"/>
+    </row>
+    <row r="746">
+      <c r="D746" s="12"/>
+      <c r="E746" s="13"/>
+    </row>
+    <row r="747">
+      <c r="D747" s="12"/>
+      <c r="E747" s="13"/>
+    </row>
+    <row r="748">
+      <c r="D748" s="12"/>
+      <c r="E748" s="13"/>
+    </row>
+    <row r="749">
+      <c r="D749" s="12"/>
+      <c r="E749" s="13"/>
+    </row>
+    <row r="750">
+      <c r="D750" s="12"/>
+      <c r="E750" s="13"/>
+    </row>
+    <row r="751">
+      <c r="D751" s="12"/>
+      <c r="E751" s="13"/>
+    </row>
+    <row r="752">
+      <c r="D752" s="12"/>
+      <c r="E752" s="13"/>
+    </row>
+    <row r="753">
+      <c r="D753" s="12"/>
+      <c r="E753" s="13"/>
+    </row>
+    <row r="754">
+      <c r="D754" s="12"/>
+      <c r="E754" s="13"/>
+    </row>
+    <row r="755">
+      <c r="D755" s="12"/>
+      <c r="E755" s="13"/>
+    </row>
+    <row r="756">
+      <c r="D756" s="12"/>
+      <c r="E756" s="13"/>
+    </row>
+    <row r="757">
+      <c r="D757" s="12"/>
+      <c r="E757" s="13"/>
+    </row>
+    <row r="758">
+      <c r="D758" s="12"/>
+      <c r="E758" s="13"/>
+    </row>
+    <row r="759">
+      <c r="D759" s="12"/>
+      <c r="E759" s="13"/>
+    </row>
+    <row r="760">
+      <c r="D760" s="12"/>
+      <c r="E760" s="13"/>
+    </row>
+    <row r="761">
+      <c r="D761" s="12"/>
+      <c r="E761" s="13"/>
+    </row>
+    <row r="762">
+      <c r="D762" s="12"/>
+      <c r="E762" s="13"/>
+    </row>
+    <row r="763">
+      <c r="D763" s="12"/>
+      <c r="E763" s="13"/>
+    </row>
+    <row r="764">
+      <c r="D764" s="12"/>
+      <c r="E764" s="13"/>
+    </row>
+    <row r="765">
+      <c r="D765" s="12"/>
+      <c r="E765" s="13"/>
+    </row>
+    <row r="766">
+      <c r="D766" s="12"/>
+      <c r="E766" s="13"/>
+    </row>
+    <row r="767">
+      <c r="D767" s="12"/>
+      <c r="E767" s="13"/>
+    </row>
+    <row r="768">
+      <c r="D768" s="12"/>
+      <c r="E768" s="13"/>
+    </row>
+    <row r="769">
+      <c r="D769" s="12"/>
+      <c r="E769" s="13"/>
+    </row>
+    <row r="770">
+      <c r="D770" s="12"/>
+      <c r="E770" s="13"/>
+    </row>
+    <row r="771">
+      <c r="D771" s="12"/>
+      <c r="E771" s="13"/>
+    </row>
+    <row r="772">
+      <c r="D772" s="12"/>
+      <c r="E772" s="13"/>
+    </row>
+    <row r="773">
+      <c r="D773" s="12"/>
+      <c r="E773" s="13"/>
+    </row>
+    <row r="774">
+      <c r="D774" s="12"/>
+      <c r="E774" s="13"/>
+    </row>
+    <row r="775">
+      <c r="D775" s="12"/>
+      <c r="E775" s="13"/>
+    </row>
+    <row r="776">
+      <c r="D776" s="12"/>
+      <c r="E776" s="13"/>
+    </row>
+    <row r="777">
+      <c r="D777" s="12"/>
+      <c r="E777" s="13"/>
+    </row>
+    <row r="778">
+      <c r="D778" s="12"/>
+      <c r="E778" s="13"/>
+    </row>
+    <row r="779">
+      <c r="D779" s="12"/>
+      <c r="E779" s="13"/>
+    </row>
+    <row r="780">
+      <c r="D780" s="12"/>
+      <c r="E780" s="13"/>
+    </row>
+    <row r="781">
+      <c r="D781" s="12"/>
+      <c r="E781" s="13"/>
+    </row>
+    <row r="782">
+      <c r="D782" s="12"/>
+      <c r="E782" s="13"/>
+    </row>
+    <row r="783">
+      <c r="D783" s="12"/>
+      <c r="E783" s="13"/>
+    </row>
+    <row r="784">
+      <c r="D784" s="12"/>
+      <c r="E784" s="13"/>
+    </row>
+    <row r="785">
+      <c r="D785" s="12"/>
+      <c r="E785" s="13"/>
+    </row>
+    <row r="786">
+      <c r="D786" s="12"/>
+      <c r="E786" s="13"/>
+    </row>
+    <row r="787">
+      <c r="D787" s="12"/>
+      <c r="E787" s="13"/>
+    </row>
+    <row r="788">
+      <c r="D788" s="12"/>
+      <c r="E788" s="13"/>
+    </row>
+    <row r="789">
+      <c r="D789" s="12"/>
+      <c r="E789" s="13"/>
+    </row>
+    <row r="790">
+      <c r="D790" s="12"/>
+      <c r="E790" s="13"/>
+    </row>
+    <row r="791">
+      <c r="D791" s="12"/>
+      <c r="E791" s="13"/>
+    </row>
+    <row r="792">
+      <c r="D792" s="12"/>
+      <c r="E792" s="13"/>
+    </row>
+    <row r="793">
+      <c r="D793" s="12"/>
+      <c r="E793" s="13"/>
+    </row>
+    <row r="794">
+      <c r="D794" s="12"/>
+      <c r="E794" s="13"/>
+    </row>
+    <row r="795">
+      <c r="D795" s="12"/>
+      <c r="E795" s="13"/>
+    </row>
+    <row r="796">
+      <c r="D796" s="12"/>
+      <c r="E796" s="13"/>
+    </row>
+    <row r="797">
+      <c r="D797" s="12"/>
+      <c r="E797" s="13"/>
+    </row>
+    <row r="798">
+      <c r="D798" s="12"/>
+      <c r="E798" s="13"/>
+    </row>
+    <row r="799">
+      <c r="D799" s="12"/>
+      <c r="E799" s="13"/>
+    </row>
+    <row r="800">
+      <c r="D800" s="12"/>
+      <c r="E800" s="13"/>
+    </row>
+    <row r="801">
+      <c r="D801" s="12"/>
+      <c r="E801" s="13"/>
+    </row>
+    <row r="802">
+      <c r="D802" s="12"/>
+      <c r="E802" s="13"/>
+    </row>
+    <row r="803">
+      <c r="D803" s="12"/>
+      <c r="E803" s="13"/>
+    </row>
+    <row r="804">
+      <c r="D804" s="12"/>
+      <c r="E804" s="13"/>
+    </row>
+    <row r="805">
+      <c r="D805" s="12"/>
+      <c r="E805" s="13"/>
+    </row>
+    <row r="806">
+      <c r="D806" s="12"/>
+      <c r="E806" s="13"/>
+    </row>
+    <row r="807">
+      <c r="D807" s="12"/>
+      <c r="E807" s="13"/>
+    </row>
+    <row r="808">
+      <c r="D808" s="12"/>
+      <c r="E808" s="13"/>
+    </row>
+    <row r="809">
+      <c r="D809" s="12"/>
+      <c r="E809" s="13"/>
+    </row>
+    <row r="810">
+      <c r="D810" s="12"/>
+      <c r="E810" s="13"/>
+    </row>
+    <row r="811">
+      <c r="D811" s="12"/>
+      <c r="E811" s="13"/>
+    </row>
+    <row r="812">
+      <c r="D812" s="12"/>
+      <c r="E812" s="13"/>
+    </row>
+    <row r="813">
+      <c r="D813" s="12"/>
+      <c r="E813" s="13"/>
+    </row>
+    <row r="814">
+      <c r="D814" s="12"/>
+      <c r="E814" s="13"/>
+    </row>
+    <row r="815">
+      <c r="D815" s="12"/>
+      <c r="E815" s="13"/>
+    </row>
+    <row r="816">
+      <c r="D816" s="12"/>
+      <c r="E816" s="13"/>
+    </row>
+    <row r="817">
+      <c r="D817" s="12"/>
+      <c r="E817" s="13"/>
+    </row>
+    <row r="818">
+      <c r="D818" s="12"/>
+      <c r="E818" s="13"/>
+    </row>
+    <row r="819">
+      <c r="D819" s="12"/>
+      <c r="E819" s="13"/>
+    </row>
+    <row r="820">
+      <c r="D820" s="12"/>
+      <c r="E820" s="13"/>
+    </row>
+    <row r="821">
+      <c r="D821" s="12"/>
+      <c r="E821" s="13"/>
+    </row>
+    <row r="822">
+      <c r="D822" s="12"/>
+      <c r="E822" s="13"/>
+    </row>
+    <row r="823">
+      <c r="D823" s="12"/>
+      <c r="E823" s="13"/>
+    </row>
+    <row r="824">
+      <c r="D824" s="12"/>
+      <c r="E824" s="13"/>
+    </row>
+    <row r="825">
+      <c r="D825" s="12"/>
+      <c r="E825" s="13"/>
+    </row>
+    <row r="826">
+      <c r="D826" s="12"/>
+      <c r="E826" s="13"/>
+    </row>
+    <row r="827">
+      <c r="D827" s="12"/>
+      <c r="E827" s="13"/>
+    </row>
+    <row r="828">
+      <c r="D828" s="12"/>
+      <c r="E828" s="13"/>
+    </row>
+    <row r="829">
+      <c r="D829" s="12"/>
+      <c r="E829" s="13"/>
+    </row>
+    <row r="830">
+      <c r="D830" s="12"/>
+      <c r="E830" s="13"/>
+    </row>
+    <row r="831">
+      <c r="D831" s="12"/>
+      <c r="E831" s="13"/>
+    </row>
+    <row r="832">
+      <c r="D832" s="12"/>
+      <c r="E832" s="13"/>
+    </row>
+    <row r="833">
+      <c r="D833" s="12"/>
+      <c r="E833" s="13"/>
+    </row>
+    <row r="834">
+      <c r="D834" s="12"/>
+      <c r="E834" s="13"/>
+    </row>
+    <row r="835">
+      <c r="D835" s="12"/>
+      <c r="E835" s="13"/>
+    </row>
+    <row r="836">
+      <c r="D836" s="12"/>
+      <c r="E836" s="13"/>
+    </row>
+    <row r="837">
+      <c r="D837" s="12"/>
+      <c r="E837" s="13"/>
+    </row>
+    <row r="838">
+      <c r="D838" s="12"/>
+      <c r="E838" s="13"/>
+    </row>
+    <row r="839">
+      <c r="D839" s="12"/>
+      <c r="E839" s="13"/>
+    </row>
+    <row r="840">
+      <c r="D840" s="12"/>
+      <c r="E840" s="13"/>
+    </row>
+    <row r="841">
+      <c r="D841" s="12"/>
+      <c r="E841" s="13"/>
+    </row>
+    <row r="842">
+      <c r="D842" s="12"/>
+      <c r="E842" s="13"/>
+    </row>
+    <row r="843">
+      <c r="D843" s="12"/>
+      <c r="E843" s="13"/>
+    </row>
+    <row r="844">
+      <c r="D844" s="12"/>
+      <c r="E844" s="13"/>
+    </row>
+    <row r="845">
+      <c r="D845" s="12"/>
+      <c r="E845" s="13"/>
+    </row>
+    <row r="846">
+      <c r="D846" s="12"/>
+      <c r="E846" s="13"/>
+    </row>
+    <row r="847">
+      <c r="D847" s="12"/>
+      <c r="E847" s="13"/>
+    </row>
+    <row r="848">
+      <c r="D848" s="12"/>
+      <c r="E848" s="13"/>
+    </row>
+    <row r="849">
+      <c r="D849" s="12"/>
+      <c r="E849" s="13"/>
+    </row>
+    <row r="850">
+      <c r="D850" s="12"/>
+      <c r="E850" s="13"/>
+    </row>
+    <row r="851">
+      <c r="D851" s="12"/>
+      <c r="E851" s="13"/>
+    </row>
+    <row r="852">
+      <c r="D852" s="12"/>
+      <c r="E852" s="13"/>
+    </row>
+    <row r="853">
+      <c r="D853" s="12"/>
+      <c r="E853" s="13"/>
+    </row>
+    <row r="854">
+      <c r="D854" s="12"/>
+      <c r="E854" s="13"/>
+    </row>
+    <row r="855">
+      <c r="D855" s="12"/>
+      <c r="E855" s="13"/>
+    </row>
+    <row r="856">
+      <c r="D856" s="12"/>
+      <c r="E856" s="13"/>
+    </row>
+    <row r="857">
+      <c r="D857" s="12"/>
+      <c r="E857" s="13"/>
+    </row>
+    <row r="858">
+      <c r="D858" s="12"/>
+      <c r="E858" s="13"/>
+    </row>
+    <row r="859">
+      <c r="D859" s="12"/>
+      <c r="E859" s="13"/>
+    </row>
+    <row r="860">
+      <c r="D860" s="12"/>
+      <c r="E860" s="13"/>
+    </row>
+    <row r="861">
+      <c r="D861" s="12"/>
+      <c r="E861" s="13"/>
+    </row>
+    <row r="862">
+      <c r="D862" s="12"/>
+      <c r="E862" s="13"/>
+    </row>
+    <row r="863">
+      <c r="D863" s="12"/>
+      <c r="E863" s="13"/>
+    </row>
+    <row r="864">
+      <c r="D864" s="12"/>
+      <c r="E864" s="13"/>
+    </row>
+    <row r="865">
+      <c r="D865" s="12"/>
+      <c r="E865" s="13"/>
+    </row>
+    <row r="866">
+      <c r="D866" s="12"/>
+      <c r="E866" s="13"/>
+    </row>
+    <row r="867">
+      <c r="D867" s="12"/>
+      <c r="E867" s="13"/>
+    </row>
+    <row r="868">
+      <c r="D868" s="12"/>
+      <c r="E868" s="13"/>
+    </row>
+    <row r="869">
+      <c r="D869" s="12"/>
+      <c r="E869" s="13"/>
+    </row>
+    <row r="870">
+      <c r="D870" s="12"/>
+      <c r="E870" s="13"/>
+    </row>
+    <row r="871">
+      <c r="D871" s="12"/>
+      <c r="E871" s="13"/>
+    </row>
+    <row r="872">
+      <c r="D872" s="12"/>
+      <c r="E872" s="13"/>
+    </row>
+    <row r="873">
+      <c r="D873" s="12"/>
+      <c r="E873" s="13"/>
+    </row>
+    <row r="874">
+      <c r="D874" s="12"/>
+      <c r="E874" s="13"/>
+    </row>
+    <row r="875">
+      <c r="D875" s="12"/>
+      <c r="E875" s="13"/>
+    </row>
+    <row r="876">
+      <c r="D876" s="12"/>
+      <c r="E876" s="13"/>
+    </row>
+    <row r="877">
+      <c r="D877" s="12"/>
+      <c r="E877" s="13"/>
+    </row>
+    <row r="878">
+      <c r="D878" s="12"/>
+      <c r="E878" s="13"/>
+    </row>
+    <row r="879">
+      <c r="D879" s="12"/>
+      <c r="E879" s="13"/>
+    </row>
+    <row r="880">
+      <c r="D880" s="12"/>
+      <c r="E880" s="13"/>
+    </row>
+    <row r="881">
+      <c r="D881" s="12"/>
+      <c r="E881" s="13"/>
+    </row>
+    <row r="882">
+      <c r="D882" s="12"/>
+      <c r="E882" s="13"/>
+    </row>
+    <row r="883">
+      <c r="D883" s="12"/>
+      <c r="E883" s="13"/>
+    </row>
+    <row r="884">
+      <c r="D884" s="12"/>
+      <c r="E884" s="13"/>
+    </row>
+    <row r="885">
+      <c r="D885" s="12"/>
+      <c r="E885" s="13"/>
+    </row>
+    <row r="886">
+      <c r="D886" s="12"/>
+      <c r="E886" s="13"/>
+    </row>
+    <row r="887">
+      <c r="D887" s="12"/>
+      <c r="E887" s="13"/>
+    </row>
+    <row r="888">
+      <c r="D888" s="12"/>
+      <c r="E888" s="13"/>
+    </row>
+    <row r="889">
+      <c r="D889" s="12"/>
+      <c r="E889" s="13"/>
+    </row>
+    <row r="890">
+      <c r="D890" s="12"/>
+      <c r="E890" s="13"/>
+    </row>
+    <row r="891">
+      <c r="D891" s="12"/>
+      <c r="E891" s="13"/>
+    </row>
+    <row r="892">
+      <c r="D892" s="12"/>
+      <c r="E892" s="13"/>
+    </row>
+    <row r="893">
+      <c r="D893" s="12"/>
+      <c r="E893" s="13"/>
+    </row>
+    <row r="894">
+      <c r="D894" s="12"/>
+      <c r="E894" s="13"/>
+    </row>
+    <row r="895">
+      <c r="D895" s="12"/>
+      <c r="E895" s="13"/>
+    </row>
+    <row r="896">
+      <c r="D896" s="12"/>
+      <c r="E896" s="13"/>
+    </row>
+    <row r="897">
+      <c r="D897" s="12"/>
+      <c r="E897" s="13"/>
+    </row>
+    <row r="898">
+      <c r="D898" s="12"/>
+      <c r="E898" s="13"/>
+    </row>
+    <row r="899">
+      <c r="D899" s="12"/>
+      <c r="E899" s="13"/>
+    </row>
+    <row r="900">
+      <c r="D900" s="12"/>
+      <c r="E900" s="13"/>
+    </row>
+    <row r="901">
+      <c r="D901" s="12"/>
+      <c r="E901" s="13"/>
+    </row>
+    <row r="902">
+      <c r="D902" s="12"/>
+      <c r="E902" s="13"/>
+    </row>
+    <row r="903">
+      <c r="D903" s="12"/>
+      <c r="E903" s="13"/>
+    </row>
+    <row r="904">
+      <c r="D904" s="12"/>
+      <c r="E904" s="13"/>
+    </row>
+    <row r="905">
+      <c r="D905" s="12"/>
+      <c r="E905" s="13"/>
+    </row>
+    <row r="906">
+      <c r="D906" s="12"/>
+      <c r="E906" s="13"/>
+    </row>
+    <row r="907">
+      <c r="D907" s="12"/>
+      <c r="E907" s="13"/>
+    </row>
+    <row r="908">
+      <c r="D908" s="12"/>
+      <c r="E908" s="13"/>
+    </row>
+    <row r="909">
+      <c r="D909" s="12"/>
+      <c r="E909" s="13"/>
+    </row>
+    <row r="910">
+      <c r="D910" s="12"/>
+      <c r="E910" s="13"/>
+    </row>
+    <row r="911">
+      <c r="D911" s="12"/>
+      <c r="E911" s="13"/>
+    </row>
+    <row r="912">
+      <c r="D912" s="12"/>
+      <c r="E912" s="13"/>
+    </row>
+    <row r="913">
+      <c r="D913" s="12"/>
+      <c r="E913" s="13"/>
+    </row>
+    <row r="914">
+      <c r="D914" s="12"/>
+      <c r="E914" s="13"/>
+    </row>
+    <row r="915">
+      <c r="D915" s="12"/>
+      <c r="E915" s="13"/>
+    </row>
+    <row r="916">
+      <c r="D916" s="12"/>
+      <c r="E916" s="13"/>
+    </row>
+    <row r="917">
+      <c r="D917" s="12"/>
+      <c r="E917" s="13"/>
+    </row>
+    <row r="918">
+      <c r="D918" s="12"/>
+      <c r="E918" s="13"/>
+    </row>
+    <row r="919">
+      <c r="D919" s="12"/>
+      <c r="E919" s="13"/>
+    </row>
+    <row r="920">
+      <c r="D920" s="12"/>
+      <c r="E920" s="13"/>
+    </row>
+    <row r="921">
+      <c r="D921" s="12"/>
+      <c r="E921" s="13"/>
+    </row>
+    <row r="922">
+      <c r="D922" s="12"/>
+      <c r="E922" s="13"/>
+    </row>
+    <row r="923">
+      <c r="D923" s="12"/>
+      <c r="E923" s="13"/>
+    </row>
+    <row r="924">
+      <c r="D924" s="12"/>
+      <c r="E924" s="13"/>
+    </row>
+    <row r="925">
+      <c r="D925" s="12"/>
+      <c r="E925" s="13"/>
+    </row>
+    <row r="926">
+      <c r="D926" s="12"/>
+      <c r="E926" s="13"/>
+    </row>
+    <row r="927">
+      <c r="D927" s="12"/>
+      <c r="E927" s="13"/>
+    </row>
+    <row r="928">
+      <c r="D928" s="12"/>
+      <c r="E928" s="13"/>
+    </row>
+    <row r="929">
+      <c r="D929" s="12"/>
+      <c r="E929" s="13"/>
+    </row>
+    <row r="930">
+      <c r="D930" s="12"/>
+      <c r="E930" s="13"/>
+    </row>
+    <row r="931">
+      <c r="D931" s="12"/>
+      <c r="E931" s="13"/>
+    </row>
+    <row r="932">
+      <c r="D932" s="12"/>
+      <c r="E932" s="13"/>
+    </row>
+    <row r="933">
+      <c r="D933" s="12"/>
+      <c r="E933" s="13"/>
+    </row>
+    <row r="934">
+      <c r="D934" s="12"/>
+      <c r="E934" s="13"/>
+    </row>
+    <row r="935">
+      <c r="D935" s="12"/>
+      <c r="E935" s="13"/>
+    </row>
+    <row r="936">
+      <c r="D936" s="12"/>
+      <c r="E936" s="13"/>
+    </row>
+    <row r="937">
+      <c r="D937" s="12"/>
+      <c r="E937" s="13"/>
+    </row>
+    <row r="938">
+      <c r="D938" s="12"/>
+      <c r="E938" s="13"/>
+    </row>
+    <row r="939">
+      <c r="D939" s="12"/>
+      <c r="E939" s="13"/>
+    </row>
+    <row r="940">
+      <c r="D940" s="12"/>
+      <c r="E940" s="13"/>
+    </row>
+    <row r="941">
+      <c r="D941" s="12"/>
+      <c r="E941" s="13"/>
+    </row>
+    <row r="942">
+      <c r="D942" s="12"/>
+      <c r="E942" s="13"/>
+    </row>
+    <row r="943">
+      <c r="D943" s="12"/>
+      <c r="E943" s="13"/>
+    </row>
+    <row r="944">
+      <c r="D944" s="12"/>
+      <c r="E944" s="13"/>
+    </row>
+    <row r="945">
+      <c r="D945" s="12"/>
+      <c r="E945" s="13"/>
+    </row>
+    <row r="946">
+      <c r="D946" s="12"/>
+      <c r="E946" s="13"/>
+    </row>
+    <row r="947">
+      <c r="D947" s="12"/>
+      <c r="E947" s="13"/>
+    </row>
+    <row r="948">
+      <c r="D948" s="12"/>
+      <c r="E948" s="13"/>
+    </row>
+    <row r="949">
+      <c r="D949" s="12"/>
+      <c r="E949" s="13"/>
+    </row>
+    <row r="950">
+      <c r="D950" s="12"/>
+      <c r="E950" s="13"/>
+    </row>
+    <row r="951">
+      <c r="D951" s="12"/>
+      <c r="E951" s="13"/>
+    </row>
+    <row r="952">
+      <c r="D952" s="12"/>
+      <c r="E952" s="13"/>
+    </row>
+    <row r="953">
+      <c r="D953" s="12"/>
+      <c r="E953" s="13"/>
+    </row>
+    <row r="954">
+      <c r="D954" s="12"/>
+      <c r="E954" s="13"/>
+    </row>
+    <row r="955">
+      <c r="D955" s="12"/>
+      <c r="E955" s="13"/>
+    </row>
+    <row r="956">
+      <c r="D956" s="12"/>
+      <c r="E956" s="13"/>
+    </row>
+    <row r="957">
+      <c r="D957" s="12"/>
+      <c r="E957" s="13"/>
+    </row>
+    <row r="958">
+      <c r="D958" s="12"/>
+      <c r="E958" s="13"/>
+    </row>
+    <row r="959">
+      <c r="D959" s="12"/>
+      <c r="E959" s="13"/>
+    </row>
+    <row r="960">
+      <c r="D960" s="12"/>
+      <c r="E960" s="13"/>
+    </row>
+    <row r="961">
+      <c r="D961" s="12"/>
+      <c r="E961" s="13"/>
+    </row>
+    <row r="962">
+      <c r="D962" s="12"/>
+      <c r="E962" s="13"/>
+    </row>
+    <row r="963">
+      <c r="D963" s="12"/>
+      <c r="E963" s="13"/>
+    </row>
+    <row r="964">
+      <c r="D964" s="12"/>
+      <c r="E964" s="13"/>
+    </row>
+    <row r="965">
+      <c r="D965" s="12"/>
+      <c r="E965" s="13"/>
+    </row>
+    <row r="966">
+      <c r="D966" s="12"/>
+      <c r="E966" s="13"/>
+    </row>
+    <row r="967">
+      <c r="D967" s="12"/>
+      <c r="E967" s="13"/>
+    </row>
+    <row r="968">
+      <c r="D968" s="12"/>
+      <c r="E968" s="13"/>
+    </row>
+    <row r="969">
+      <c r="D969" s="12"/>
+      <c r="E969" s="13"/>
+    </row>
+    <row r="970">
+      <c r="D970" s="12"/>
+      <c r="E970" s="13"/>
+    </row>
+    <row r="971">
+      <c r="D971" s="12"/>
+      <c r="E971" s="13"/>
+    </row>
+    <row r="972">
+      <c r="D972" s="12"/>
+      <c r="E972" s="13"/>
+    </row>
+    <row r="973">
+      <c r="D973" s="12"/>
+      <c r="E973" s="13"/>
+    </row>
+    <row r="974">
+      <c r="D974" s="12"/>
+      <c r="E974" s="13"/>
+    </row>
+    <row r="975">
+      <c r="D975" s="12"/>
+      <c r="E975" s="13"/>
+    </row>
+    <row r="976">
+      <c r="D976" s="12"/>
+      <c r="E976" s="13"/>
+    </row>
+    <row r="977">
+      <c r="D977" s="12"/>
+      <c r="E977" s="13"/>
+    </row>
+    <row r="978">
+      <c r="D978" s="12"/>
+      <c r="E978" s="13"/>
+    </row>
+    <row r="979">
+      <c r="D979" s="12"/>
+      <c r="E979" s="13"/>
+    </row>
+    <row r="980">
+      <c r="D980" s="12"/>
+      <c r="E980" s="13"/>
+    </row>
+    <row r="981">
+      <c r="D981" s="12"/>
+      <c r="E981" s="13"/>
+    </row>
+    <row r="982">
+      <c r="D982" s="12"/>
+      <c r="E982" s="13"/>
+    </row>
+    <row r="983">
+      <c r="D983" s="12"/>
+      <c r="E983" s="13"/>
+    </row>
+    <row r="984">
+      <c r="D984" s="12"/>
+      <c r="E984" s="13"/>
+    </row>
+    <row r="985">
+      <c r="D985" s="12"/>
+      <c r="E985" s="13"/>
+    </row>
+    <row r="986">
+      <c r="D986" s="12"/>
+      <c r="E986" s="13"/>
+    </row>
+    <row r="987">
+      <c r="D987" s="12"/>
+      <c r="E987" s="13"/>
+    </row>
+    <row r="988">
+      <c r="D988" s="12"/>
+      <c r="E988" s="13"/>
+    </row>
+    <row r="989">
+      <c r="D989" s="12"/>
+      <c r="E989" s="13"/>
+    </row>
+    <row r="990">
+      <c r="D990" s="12"/>
+      <c r="E990" s="13"/>
+    </row>
+    <row r="991">
+      <c r="D991" s="12"/>
+      <c r="E991" s="13"/>
+    </row>
+    <row r="992">
+      <c r="D992" s="12"/>
+      <c r="E992" s="13"/>
+    </row>
+    <row r="993">
+      <c r="D993" s="12"/>
+      <c r="E993" s="13"/>
+    </row>
+    <row r="994">
+      <c r="D994" s="12"/>
+      <c r="E994" s="13"/>
+    </row>
+    <row r="995">
+      <c r="D995" s="12"/>
+      <c r="E995" s="13"/>
+    </row>
+    <row r="996">
+      <c r="D996" s="12"/>
+      <c r="E996" s="13"/>
+    </row>
+    <row r="997">
+      <c r="D997" s="12"/>
+      <c r="E997" s="13"/>
+    </row>
+    <row r="998">
+      <c r="D998" s="12"/>
+      <c r="E998" s="13"/>
+    </row>
+    <row r="999">
+      <c r="D999" s="12"/>
+      <c r="E999" s="13"/>
+    </row>
+    <row r="1000">
+      <c r="D1000" s="12"/>
+      <c r="E1000" s="13"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3158,10 +7349,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C2" s="2">
         <v>43832.125</v>
@@ -3172,10 +7363,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C3" s="2">
         <v>43832.125</v>
@@ -3186,10 +7377,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C4" s="2">
         <v>43832.125</v>
@@ -3200,10 +7391,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C5" s="2">
         <v>43832.125</v>
@@ -3214,10 +7405,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C6" s="2">
         <v>43832.125</v>
@@ -3228,10 +7419,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C7" s="2">
         <v>43832.125</v>
@@ -3242,10 +7433,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C8" s="2">
         <v>43832.125</v>
@@ -3256,10 +7447,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C9" s="2">
         <v>43832.125</v>
@@ -3270,10 +7461,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C10" s="2">
         <v>43832.125</v>
@@ -3314,16 +7505,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -3334,22 +7525,22 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>242</v>
+        <v>222</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G2" s="2">
         <v>43832.125</v>
@@ -3359,23 +7550,23 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>244</v>
+      <c r="A3" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>246</v>
+        <v>224</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G3" s="2">
         <v>43832.125</v>
@@ -3385,23 +7576,23 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>248</v>
+      <c r="A4" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>250</v>
+        <v>226</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G4" s="2">
         <v>43832.125</v>
@@ -3412,22 +7603,22 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>254</v>
+        <v>228</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G5" s="2">
         <v>43832.125</v>
@@ -3438,22 +7629,22 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>258</v>
+        <v>230</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G6" s="2">
         <v>43832.125</v>
@@ -3463,23 +7654,23 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>260</v>
+      <c r="A7" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>262</v>
+        <v>232</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G7" s="2">
         <v>43850.125</v>
@@ -3489,23 +7680,23 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>264</v>
+      <c r="A8" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>266</v>
+        <v>234</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G8" s="2">
         <v>43853.125</v>
@@ -3515,23 +7706,23 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>268</v>
+      <c r="A9" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>270</v>
+        <v>228</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G9" s="2">
         <v>43892.125</v>
@@ -3541,23 +7732,23 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>272</v>
+      <c r="A10" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>274</v>
+        <v>228</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G10" s="2">
         <v>43831.125</v>
@@ -3567,23 +7758,23 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>276</v>
+      <c r="A11" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>278</v>
+        <v>226</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>282</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G11" s="2">
         <v>44928.125</v>
@@ -3593,23 +7784,23 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>280</v>
+      <c r="A12" s="6" t="s">
+        <v>284</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>282</v>
+        <v>230</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G12" s="2">
         <v>45293.125</v>
@@ -3619,23 +7810,23 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>284</v>
+      <c r="A13" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>286</v>
+        <v>230</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G13" s="2">
         <v>44928.125</v>
@@ -3645,23 +7836,23 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>288</v>
+      <c r="A14" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>290</v>
+        <v>230</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G14" s="2">
         <v>43850.125</v>
@@ -3672,22 +7863,22 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>294</v>
+        <v>226</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>298</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G15" s="2">
         <v>43853.125</v>
@@ -3698,22 +7889,22 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>298</v>
+        <v>226</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>302</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G16" s="2">
         <v>43832.125</v>
@@ -3724,22 +7915,22 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>302</v>
+        <v>230</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>306</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G17" s="2">
         <v>43832.125</v>
@@ -3749,23 +7940,23 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>304</v>
+      <c r="A18" s="6" t="s">
+        <v>308</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>306</v>
+        <v>228</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>310</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G18" s="2">
         <v>43832.125</v>
@@ -3776,22 +7967,22 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>310</v>
+        <v>228</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G19" s="2">
         <v>43832.125</v>
@@ -3801,23 +7992,23 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>312</v>
+      <c r="A20" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>314</v>
+        <v>226</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G20" s="2">
         <v>43850.125</v>
@@ -3828,22 +8019,22 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>318</v>
+        <v>236</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G21" s="2">
         <v>43853.125</v>
@@ -3854,22 +8045,22 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>322</v>
+        <v>238</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>326</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G22" s="2">
         <v>43892.125</v>
@@ -3880,22 +8071,22 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>326</v>
+        <v>238</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G23" s="2">
         <v>43831.125</v>
@@ -3906,22 +8097,22 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>329</v>
+        <v>236</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G24" s="2">
         <v>43853.125</v>
@@ -4135,16 +8326,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -4155,21 +8346,21 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D2" s="1">
         <v>4.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="5">
+        <v>21</v>
+      </c>
+      <c r="F2" s="14">
         <v>43832.125</v>
       </c>
       <c r="G2" s="3">
@@ -4178,21 +8369,21 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>244</v>
+        <v>341</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D3" s="1">
         <v>5.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5">
+        <v>24</v>
+      </c>
+      <c r="F3" s="14">
         <v>43832.125</v>
       </c>
       <c r="G3" s="3">
@@ -4201,21 +8392,21 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>248</v>
+        <v>343</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D4" s="1">
         <v>3.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="5">
+        <v>27</v>
+      </c>
+      <c r="F4" s="14">
         <v>43832.125</v>
       </c>
       <c r="G4" s="3">
@@ -4224,21 +8415,21 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D5" s="1">
         <v>4.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="5">
+        <v>30</v>
+      </c>
+      <c r="F5" s="14">
         <v>43832.125</v>
       </c>
       <c r="G5" s="3">
@@ -4247,21 +8438,21 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D6" s="1">
         <v>5.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="5">
+        <v>33</v>
+      </c>
+      <c r="F6" s="14">
         <v>43832.125</v>
       </c>
       <c r="G6" s="3">
@@ -4270,21 +8461,21 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>260</v>
+        <v>349</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D7" s="1">
         <v>5.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="5">
+        <v>30</v>
+      </c>
+      <c r="F7" s="14">
         <v>43850.125</v>
       </c>
       <c r="G7" s="3">
@@ -4293,21 +8484,21 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>264</v>
+        <v>351</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D8" s="1">
         <v>4.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="5">
+        <v>30</v>
+      </c>
+      <c r="F8" s="14">
         <v>43853.125</v>
       </c>
       <c r="G8" s="3">
@@ -4316,21 +8507,21 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>268</v>
+        <v>353</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D9" s="1">
         <v>3.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="5">
+        <v>42</v>
+      </c>
+      <c r="F9" s="14">
         <v>43892.125</v>
       </c>
       <c r="G9" s="3">
@@ -4339,21 +8530,21 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>272</v>
+        <v>355</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D10" s="1">
         <v>4.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="5">
+        <v>45</v>
+      </c>
+      <c r="F10" s="14">
         <v>43831.125</v>
       </c>
       <c r="G10" s="3">
@@ -4362,21 +8553,21 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>276</v>
+        <v>357</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D11" s="1">
         <v>4.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="5">
+        <v>48</v>
+      </c>
+      <c r="F11" s="14">
         <v>44928.125</v>
       </c>
       <c r="G11" s="3">
@@ -4385,21 +8576,21 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>280</v>
+        <v>359</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>284</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D12" s="1">
         <v>4.0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="5">
+        <v>33</v>
+      </c>
+      <c r="F12" s="14">
         <v>45293.125</v>
       </c>
       <c r="G12" s="3">
@@ -4408,21 +8599,21 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>284</v>
+        <v>361</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D13" s="1">
         <v>5.0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="5">
+        <v>33</v>
+      </c>
+      <c r="F13" s="14">
         <v>44928.125</v>
       </c>
       <c r="G13" s="3">
@@ -4431,21 +8622,21 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>288</v>
+        <v>363</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D14" s="1">
         <v>5.0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="5">
+        <v>33</v>
+      </c>
+      <c r="F14" s="14">
         <v>43850.125</v>
       </c>
       <c r="G14" s="3">
@@ -4454,21 +8645,21 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D15" s="1">
         <v>4.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="5">
+        <v>33</v>
+      </c>
+      <c r="F15" s="14">
         <v>43853.125</v>
       </c>
       <c r="G15" s="3">
@@ -4477,21 +8668,21 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D16" s="1">
         <v>4.0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="5">
+        <v>63</v>
+      </c>
+      <c r="F16" s="14">
         <v>43832.125</v>
       </c>
       <c r="G16" s="3">
@@ -4500,21 +8691,21 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D17" s="1">
         <v>5.0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="5">
+        <v>66</v>
+      </c>
+      <c r="F17" s="14">
         <v>43832.125</v>
       </c>
       <c r="G17" s="3">
@@ -4523,21 +8714,21 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>304</v>
+        <v>372</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>308</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D18" s="1">
         <v>3.0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="5">
+        <v>69</v>
+      </c>
+      <c r="F18" s="14">
         <v>43832.125</v>
       </c>
       <c r="G18" s="3">
@@ -4546,21 +8737,21 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D19" s="1">
         <v>4.0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="5">
+        <v>72</v>
+      </c>
+      <c r="F19" s="14">
         <v>43832.125</v>
       </c>
       <c r="G19" s="3">
@@ -4569,21 +8760,21 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>312</v>
+        <v>376</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D20" s="1">
         <v>4.0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="5">
+        <v>66</v>
+      </c>
+      <c r="F20" s="14">
         <v>43850.125</v>
       </c>
       <c r="G20" s="3">
@@ -4592,21 +8783,21 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>375</v>
+        <v>378</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>379</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D21" s="1">
         <v>4.0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="5">
+        <v>66</v>
+      </c>
+      <c r="F21" s="14">
         <v>43853.125</v>
       </c>
       <c r="G21" s="3">
@@ -4615,21 +8806,21 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D22" s="1">
         <v>5.0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="5">
+        <v>81</v>
+      </c>
+      <c r="F22" s="14">
         <v>43892.125</v>
       </c>
       <c r="G22" s="3">
@@ -4638,21 +8829,21 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D23" s="1">
         <v>5.0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="5">
+        <v>84</v>
+      </c>
+      <c r="F23" s="14">
         <v>43831.125</v>
       </c>
       <c r="G23" s="3">
@@ -4661,21 +8852,21 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D24" s="1">
         <v>5.0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="5">
+        <v>87</v>
+      </c>
+      <c r="F24" s="14">
         <v>44928.125</v>
       </c>
       <c r="G24" s="3">
@@ -4684,21 +8875,21 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>244</v>
+        <v>388</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D25" s="1">
         <v>5.0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="5">
+        <v>90</v>
+      </c>
+      <c r="F25" s="14">
         <v>45293.125</v>
       </c>
       <c r="G25" s="3">
@@ -4707,21 +8898,21 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>248</v>
+        <v>390</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D26" s="1">
         <v>4.0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="5">
+        <v>66</v>
+      </c>
+      <c r="F26" s="14">
         <v>43832.125</v>
       </c>
       <c r="G26" s="3">
@@ -4730,21 +8921,21 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D27" s="1">
         <v>5.0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="5">
+        <v>96</v>
+      </c>
+      <c r="F27" s="14">
         <v>43832.125</v>
       </c>
       <c r="G27" s="3">
@@ -4753,21 +8944,21 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D28" s="1">
         <v>5.0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="5">
+        <v>66</v>
+      </c>
+      <c r="F28" s="14">
         <v>43832.125</v>
       </c>
       <c r="G28" s="3">
@@ -4776,21 +8967,21 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>260</v>
+        <v>396</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D29" s="1">
         <v>5.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="5">
+        <v>102</v>
+      </c>
+      <c r="F29" s="14">
         <v>43850.125</v>
       </c>
       <c r="G29" s="3">
@@ -4799,21 +8990,21 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>264</v>
+        <v>398</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D30" s="1">
         <v>4.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="5">
+        <v>105</v>
+      </c>
+      <c r="F30" s="14">
         <v>43853.125</v>
       </c>
       <c r="G30" s="3">
@@ -4822,21 +9013,21 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>268</v>
+        <v>400</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D31" s="1">
         <v>3.0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="5">
+        <v>108</v>
+      </c>
+      <c r="F31" s="14">
         <v>43892.125</v>
       </c>
       <c r="G31" s="3">
@@ -4845,21 +9036,21 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>272</v>
+        <v>402</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D32" s="1">
         <v>4.0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="5">
+        <v>66</v>
+      </c>
+      <c r="F32" s="14">
         <v>43831.125</v>
       </c>
       <c r="G32" s="3">
@@ -4868,21 +9059,21 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>276</v>
+        <v>404</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D33" s="1">
         <v>4.0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="5">
+        <v>114</v>
+      </c>
+      <c r="F33" s="14">
         <v>44928.125</v>
       </c>
       <c r="G33" s="3">
@@ -4891,21 +9082,21 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>280</v>
+        <v>406</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>284</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D34" s="1">
         <v>5.0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F34" s="5">
+        <v>117</v>
+      </c>
+      <c r="F34" s="14">
         <v>45293.125</v>
       </c>
       <c r="G34" s="3">
@@ -4914,21 +9105,21 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>284</v>
+        <v>408</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D35" s="1">
         <v>5.0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35" s="5">
+        <v>120</v>
+      </c>
+      <c r="F35" s="14">
         <v>43832.125</v>
       </c>
       <c r="G35" s="3">
@@ -4937,21 +9128,21 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>288</v>
+        <v>410</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D36" s="1">
         <v>4.0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="5">
+        <v>123</v>
+      </c>
+      <c r="F36" s="14">
         <v>43832.125</v>
       </c>
       <c r="G36" s="3">
@@ -4960,21 +9151,21 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D37" s="1">
         <v>5.0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="5">
+        <v>123</v>
+      </c>
+      <c r="F37" s="14">
         <v>43832.125</v>
       </c>
       <c r="G37" s="3">
@@ -4983,21 +9174,21 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D38" s="1">
         <v>4.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F38" s="5">
+        <v>129</v>
+      </c>
+      <c r="F38" s="14">
         <v>43832.125</v>
       </c>
       <c r="G38" s="3">
@@ -5006,21 +9197,21 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D39" s="1">
         <v>4.0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F39" s="5">
+        <v>132</v>
+      </c>
+      <c r="F39" s="14">
         <v>43850.125</v>
       </c>
       <c r="G39" s="3">
@@ -5029,21 +9220,21 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>304</v>
+        <v>418</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>308</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D40" s="1">
         <v>5.0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" s="5">
+        <v>123</v>
+      </c>
+      <c r="F40" s="14">
         <v>43853.125</v>
       </c>
       <c r="G40" s="3">
@@ -5052,21 +9243,21 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D41" s="1">
         <v>4.0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F41" s="5">
+        <v>123</v>
+      </c>
+      <c r="F41" s="14">
         <v>43892.125</v>
       </c>
       <c r="G41" s="3">
@@ -5075,21 +9266,21 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>312</v>
+        <v>422</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D42" s="1">
         <v>5.0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F42" s="5">
+        <v>141</v>
+      </c>
+      <c r="F42" s="14">
         <v>43831.125</v>
       </c>
       <c r="G42" s="3">
@@ -5098,21 +9289,21 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>375</v>
+        <v>424</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>379</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D43" s="1">
         <v>3.0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F43" s="5">
+        <v>144</v>
+      </c>
+      <c r="F43" s="14">
         <v>44928.125</v>
       </c>
       <c r="G43" s="3">
@@ -5121,21 +9312,21 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D44" s="1">
         <v>4.0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F44" s="5">
+        <v>123</v>
+      </c>
+      <c r="F44" s="14">
         <v>45293.125</v>
       </c>
       <c r="G44" s="3">
@@ -5144,21 +9335,21 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>380</v>
+        <v>428</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D45" s="1">
         <v>5.0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F45" s="5">
+        <v>123</v>
+      </c>
+      <c r="F45" s="14">
         <v>45293.125</v>
       </c>
       <c r="G45" s="3">
@@ -5166,7 +9357,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="F46" s="5"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="3"/>
     </row>
     <row r="47">

--- a/seeds/seeds.xlsx
+++ b/seeds/seeds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="427">
   <si>
     <t>id</t>
   </si>
@@ -1115,9 +1115,6 @@
     <t>uuid-review-14</t>
   </si>
   <si>
-    <t>uuid-patinaço</t>
-  </si>
-  <si>
     <t>A pista de patinação é ampla e bem cuidada. Um lugar divertido para famílias e amigos. Eles também oferecem aulas para iniciantes</t>
   </si>
   <si>
@@ -1154,9 +1151,6 @@
     <t>uuid-review-20</t>
   </si>
   <si>
-    <t>uuid-piscinão-azul</t>
-  </si>
-  <si>
     <t>A melhor fuga do calor! O parque aquático tem opções para todos, desde piscinas tranquilas até escorregadores emocionantes.</t>
   </si>
   <si>
@@ -1167,9 +1161,6 @@
   </si>
   <si>
     <t>uuid-review-22</t>
-  </si>
-  <si>
-    <t>uuid-pizzarolla</t>
   </si>
   <si>
     <t>Uma pizzaria que se destaca. A massa fina e crocante e os ingredientes frescos fazem toda a diferença. Excelente atendimento também</t>
@@ -8648,10 +8639,10 @@
         <v>365</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="D15" s="1">
         <v>4.0</v>
@@ -8668,13 +8659,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D16" s="1">
         <v>4.0</v>
@@ -8691,13 +8682,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D17" s="1">
         <v>5.0</v>
@@ -8714,13 +8705,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>308</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D18" s="1">
         <v>3.0</v>
@@ -8737,13 +8728,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D19" s="1">
         <v>4.0</v>
@@ -8760,13 +8751,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>316</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D20" s="1">
         <v>4.0</v>
@@ -8783,13 +8774,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="D21" s="1">
         <v>4.0</v>
@@ -8806,13 +8797,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>324</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D22" s="1">
         <v>5.0</v>
@@ -8829,13 +8820,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D23" s="1">
         <v>5.0</v>
@@ -8852,13 +8843,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>244</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D24" s="1">
         <v>5.0</v>
@@ -8875,13 +8866,13 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D25" s="1">
         <v>5.0</v>
@@ -8898,13 +8889,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>252</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D26" s="1">
         <v>4.0</v>
@@ -8921,13 +8912,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D27" s="1">
         <v>5.0</v>
@@ -8944,13 +8935,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D28" s="1">
         <v>5.0</v>
@@ -8967,13 +8958,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>264</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D29" s="1">
         <v>5.0</v>
@@ -8990,13 +8981,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D30" s="1">
         <v>4.0</v>
@@ -9013,13 +9004,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>272</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D31" s="1">
         <v>3.0</v>
@@ -9036,13 +9027,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>276</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D32" s="1">
         <v>4.0</v>
@@ -9059,13 +9050,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>280</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D33" s="1">
         <v>4.0</v>
@@ -9082,13 +9073,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>284</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D34" s="1">
         <v>5.0</v>
@@ -9105,13 +9096,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>288</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D35" s="1">
         <v>5.0</v>
@@ -9128,13 +9119,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>292</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D36" s="1">
         <v>4.0</v>
@@ -9151,13 +9142,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D37" s="1">
         <v>5.0</v>
@@ -9174,13 +9165,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D38" s="1">
         <v>4.0</v>
@@ -9197,13 +9188,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D39" s="1">
         <v>4.0</v>
@@ -9220,13 +9211,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>308</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D40" s="1">
         <v>5.0</v>
@@ -9243,13 +9234,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D41" s="1">
         <v>4.0</v>
@@ -9266,13 +9257,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>316</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D42" s="1">
         <v>5.0</v>
@@ -9289,13 +9280,13 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>379</v>
+        <v>421</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D43" s="1">
         <v>3.0</v>
@@ -9312,13 +9303,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>324</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D44" s="1">
         <v>4.0</v>
@@ -9335,13 +9326,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>384</v>
+        <v>425</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D45" s="1">
         <v>5.0</v>

--- a/seeds/seeds.xlsx
+++ b/seeds/seeds.xlsx
@@ -7,15 +7,19 @@
     <sheet state="visible" name="users" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="establishment_types" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="establishments" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="ratings" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="establishment_images" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="ratings" sheetId="6" r:id="rId9"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">establishments!$A$1:$AA$22</definedName>
+    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">establishment_images!$A$1:$Z$47</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="508">
   <si>
     <t>id</t>
   </si>
@@ -743,12 +747,54 @@
     <t>description</t>
   </si>
   <si>
+    <t>tag</t>
+  </si>
+  <si>
     <t>address</t>
   </si>
   <si>
     <t>id_sponsor</t>
   </si>
   <si>
+    <t>uuid-baoba</t>
+  </si>
+  <si>
+    <t>Baobá</t>
+  </si>
+  <si>
+    <t>O Baobá é o lugar perfeito para relaxar e desfrutar de deliciosos coquetéis e petiscos. Venha nos visitar e aproveite nossa atmosfera acolhedora e música ao vivo todas as sextas-feiras!</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Rua da  Selva, 42</t>
+  </si>
+  <si>
+    <t>uuid-casa-club</t>
+  </si>
+  <si>
+    <t>Casa Club</t>
+  </si>
+  <si>
+    <t>A Casa Club é o lugar perfeito para quem busca diversão e entretenimento. Com uma decoração moderna e sofisticada, oferecemos uma ampla variedade de bebidas e petiscos deliciosos. Venha curtir a noite conosco e aproveite nossas promoções especiais!</t>
+  </si>
+  <si>
+    <t>Rua dos clubes, 45</t>
+  </si>
+  <si>
+    <t>uuid-centro-de-descobertas</t>
+  </si>
+  <si>
+    <t>Centro de descobertas</t>
+  </si>
+  <si>
+    <t>O Centro de Descobertas é o lugar perfeito para explorar e aprender. Com uma variedade de atividades interativas e educativas, oferecemos uma experiência única para todas as idades. Venha descobrir conosco!</t>
+  </si>
+  <si>
+    <t>Rua da descoberta, 32</t>
+  </si>
+  <si>
     <t>uuid-cinelandia</t>
   </si>
   <si>
@@ -761,6 +807,165 @@
     <t>Rua Dos Filmes, 324</t>
   </si>
   <si>
+    <t>uuid-fliperama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fliperama </t>
+  </si>
+  <si>
+    <t>O Fliperama é o lugar perfeito para se divertir com amigos e família! Com nossas máquinas de jogos clássicos e modernos, você pode passar horas se divertindo. Além disso, oferecemos deliciosos lanches e bebidas para acompanhar sua diversão. Venha nos visitar e experimente a emoção do Fliperama!</t>
+  </si>
+  <si>
+    <t>Avenida dos Jogos, 34</t>
+  </si>
+  <si>
+    <t>uuid-jardim-botanico-da-cidade</t>
+  </si>
+  <si>
+    <t>Jardim Botanico da Cidade</t>
+  </si>
+  <si>
+    <t>O Jardim Botânico da Cidade é um refúgio encantador para os amantes da natureza. Com uma variedade deslumbrante de plantas e flores, este paraíso verde oferece tranquilidade e beleza em cada passo. Venha explorar e se maravilhar com a exuberância deste lugar único!</t>
+  </si>
+  <si>
+    <t>Rodovia Luiz Gonzaga, 43</t>
+  </si>
+  <si>
+    <t>uuid-jurassic-park-burguer</t>
+  </si>
+  <si>
+    <t>Jurassic Park Burguer</t>
+  </si>
+  <si>
+    <t>Adoramos o Tematica Jurassic Park Burguer! A comida era deliciosa e os hambúrgueres eram tão suculentos como os dinossauros! A decoração era incrível, nos sentimos como se estivéssemos realmente no parque. Os funcionários eram simpáticos e prestativos, tornando a nossa experiência ainda mais agradável. Com certeza voltaremos para mais aventuras gastronômicas pré-históricas!</t>
+  </si>
+  <si>
+    <t>Rua das comidas, 43</t>
+  </si>
+  <si>
+    <t>uuid-lagoa-azul</t>
+  </si>
+  <si>
+    <t>Lagoa Azul</t>
+  </si>
+  <si>
+    <t>O paraíso na terra! A Lagoa Azul é o refúgio perfeito para relaxar e se reconectar com a natureza. Desfrute de águas cristalinas, areia branca e uma paisagem deslumbrante. Venha viver momentos inesquecíveis em nosso paraíso tropical!</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>Rua da Criança, 43</t>
+  </si>
+  <si>
+    <t>uuid-museu-da-criaca</t>
+  </si>
+  <si>
+    <t>Museu da Criaça</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Museu da Criança é o lugar perfeito para a diversão em família! Com diversas atividades interativas, as crianças podem aprender enquanto se divertem. Venha conhecer nossas exposições e se encantar com o mundo da imaginação. </t>
+  </si>
+  <si>
+    <t>Rua da história, 11</t>
+  </si>
+  <si>
+    <t>uuid-museu-das-artes</t>
+  </si>
+  <si>
+    <t>Museu das Artes</t>
+  </si>
+  <si>
+    <t>O Museu das Artes é um lugar encantador que abriga uma vasta coleção de obras de arte. Venha explorar a história e a cultura através de exposições fascinantes. Desfrute de um ambiente acolhedor e descubra a beleza da arte em cada detalhe. Visite-nos e deixe-se inspirar!</t>
+  </si>
+  <si>
+    <t>Rua do Cateiro, 211</t>
+  </si>
+  <si>
+    <t>uuid-museu-do-espaco</t>
+  </si>
+  <si>
+    <t>Museu do espaço</t>
+  </si>
+  <si>
+    <t>O Museu do Espaço é o lugar perfeito para explorar o universo! Com exposições interativas e incríveis réplicas de naves espaciais, proporcionamos uma experiência única para os amantes da astronomia. Venha nos visitar e embarque nessa jornada fascinante pelo cosmos!</t>
+  </si>
+  <si>
+    <t>advertising</t>
+  </si>
+  <si>
+    <t>Avenida da descoberta, 123</t>
+  </si>
+  <si>
+    <t>uuid-parque-da-crianca</t>
+  </si>
+  <si>
+    <t>Parque da Criança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Parque da Criança é o lugar perfeito para a diversão em família! Com diversas opções de brinquedos e atividades, as crianças vão se divertir muito enquanto os pais relaxam em um ambiente seguro e agradável. Venha nos visitar e aproveite o melhor do lazer em família! </t>
+  </si>
+  <si>
+    <t>Rua Central, 32</t>
+  </si>
+  <si>
+    <t>uuid-parquemania</t>
+  </si>
+  <si>
+    <t>Parquemania</t>
+  </si>
+  <si>
+    <t>Parquemania - O melhor parque de diversões da cidade! Venha se divertir em nossos brinquedos radicais e aproveite nossas deliciosas opções gastronômicas. Uma experiência inesquecível para toda a família!</t>
+  </si>
+  <si>
+    <t>Rua da Alegria, 123</t>
+  </si>
+  <si>
+    <t>uuid-picinic-da-sol</t>
+  </si>
+  <si>
+    <t>Picinic da Sol</t>
+  </si>
+  <si>
+    <t>O Picnic da Sol é o lugar perfeito para desfrutar de momentos ao ar livre. Com uma atmosfera acolhedora e uma variedade de opções de alimentos frescos e deliciosos, você vai se sentir em um verdadeiro paraíso gastronômico. Venha aproveitar o sol e saborear nossas delícias!</t>
+  </si>
+  <si>
+    <t>Praça da Iluminação, centro</t>
+  </si>
+  <si>
+    <t>uuid-piscinao-azul</t>
+  </si>
+  <si>
+    <t>Piscinão Azul</t>
+  </si>
+  <si>
+    <t>O Piscinão Azul é o lugar perfeito para relaxar e se refrescar. Com uma piscina cristalina e um ambiente acolhedor, oferecemos o melhor em entretenimento aquático. Venha nos visitar e desfrute de momentos inesquecíveis!</t>
+  </si>
+  <si>
+    <t>Rua dos clubes, 32</t>
+  </si>
+  <si>
+    <t>uuid-pizzamania</t>
+  </si>
+  <si>
+    <t>Pizzamania</t>
+  </si>
+  <si>
+    <t>Venha experimentar as melhores pizzas da cidade! Com uma variedade de sabores irresistíveis e ingredientes frescos, a Pizzamania é o lugar perfeito para satisfazer seu desejo por pizza. Ambiente acolhedor e atendimento de primeira. Não perca tempo, faça sua reserva agora mesmo!</t>
+  </si>
+  <si>
+    <t>uuid-rancho-alegre</t>
+  </si>
+  <si>
+    <t>Rancho Alegre</t>
+  </si>
+  <si>
+    <t>O Rancho Alegre é o lugar perfeito para desfrutar de deliciosas refeições caseiras. Com um ambiente acolhedor e atendimento impecável, oferecemos pratos tradicionais da culinária brasileira. Venha nos visitar e saborear o melhor da gastronomia em um ambiente familiar e aconchegante.</t>
+  </si>
+  <si>
+    <t>Avenida do Rancho, 235</t>
+  </si>
+  <si>
     <t>uuid-restaurante-da-rose</t>
   </si>
   <si>
@@ -773,52 +978,28 @@
     <t>Avenida dos Pratos, 123</t>
   </si>
   <si>
-    <t>uuid-parquemania</t>
-  </si>
-  <si>
-    <t>Parquemania</t>
-  </si>
-  <si>
-    <t>Parquemania - O melhor parque de diversões da cidade! Venha se divertir em nossos brinquedos radicais e aproveite nossas deliciosas opções gastronômicas. Uma experiência inesquecível para toda a família!</t>
-  </si>
-  <si>
-    <t>Rua da Alegria, 123</t>
-  </si>
-  <si>
-    <t>uuid-parque-da-crianca</t>
-  </si>
-  <si>
-    <t>Parque da Criança</t>
-  </si>
-  <si>
-    <t>O Parque da Criança é o lugar perfeito para a diversão em família! Com diversas opções de brinquedos e atividades, as crianças vão se divertir muito enquanto os pais relaxam em um ambiente seguro e agradável. Venha nos visitar e aproveite o melhor do lazer em família! #ParqueDaCriança #DiversãoEmFamília #LazerSeguro</t>
-  </si>
-  <si>
-    <t>Rua Central, 32</t>
-  </si>
-  <si>
-    <t>uuid-museu-do-espaco</t>
-  </si>
-  <si>
-    <t>Museu do espaço</t>
-  </si>
-  <si>
-    <t>O Museu do Espaço é o lugar perfeito para explorar o universo! Com exposições interativas e incríveis réplicas de naves espaciais, proporcionamos uma experiência única para os amantes da astronomia. Venha nos visitar e embarque nessa jornada fascinante pelo cosmos!</t>
-  </si>
-  <si>
-    <t>Avenida da descoberta, 123</t>
-  </si>
-  <si>
-    <t>uuid-teatro-rural</t>
-  </si>
-  <si>
-    <t>Teatro Rural</t>
-  </si>
-  <si>
-    <t>O Teatro Rural é um espaço encantador que oferece espetáculos emocionantes e divertidos para toda a família. Venha se encantar com nossas peças teatrais e desfrute de momentos inesquecíveis em meio à natureza. Aproveite também nossa deliciosa gastronomia e ambiente acolhedor. Esperamos por você!</t>
-  </si>
-  <si>
-    <t>Rua dos Bois, 23</t>
+    <t>uuid-serra-dos-cavalos</t>
+  </si>
+  <si>
+    <t>Serra dos Cavalos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venha conhecer a Serra dos Cavalos, o refúgio perfeito para os amantes da natureza. Desfrute de trilhas deslumbrantes, cachoeiras encantadoras e uma vista panorâmica de tirar o fôlego. Aventure-se nesse paraíso e viva momentos inesquecíveis. </t>
+  </si>
+  <si>
+    <t>Trila ecológica do cavalo</t>
+  </si>
+  <si>
+    <t>uuid-veneza-parque</t>
+  </si>
+  <si>
+    <t>Veneza Parque</t>
+  </si>
+  <si>
+    <t>O Veneza Parque é o lugar perfeito para se divertir em família. Com uma ampla variedade de atrações, como piscinas, toboáguas e áreas de lazer, garantimos momentos inesquecíveis. Venha nos visitar e aproveite o melhor do entretenimento!</t>
+  </si>
+  <si>
+    <t>Rodovia das Águas, km 34</t>
   </si>
   <si>
     <t>uuid-zoo-safari-a-dentro</t>
@@ -833,198 +1014,291 @@
     <t>Avenida da Selva, 32</t>
   </si>
   <si>
-    <t>uuid-lagoa-azul</t>
-  </si>
-  <si>
-    <t>Lagoa Azul</t>
-  </si>
-  <si>
-    <t>O paraíso na terra! A Lagoa Azul é o refúgio perfeito para relaxar e se reconectar com a natureza. Desfrute de águas cristalinas, areia branca e uma paisagem deslumbrante. Venha viver momentos inesquecíveis em nosso paraíso tropical!</t>
-  </si>
-  <si>
-    <t>Rua da Criança, 43</t>
-  </si>
-  <si>
-    <t>uuid-serra-dos-cavalos</t>
-  </si>
-  <si>
-    <t>Serra dos Cavalos</t>
-  </si>
-  <si>
-    <t>Venha conhecer a Serra dos Cavalos, o refúgio perfeito para os amantes da natureza. Desfrute de trilhas deslumbrantes, cachoeiras encantadoras e uma vista panorâmica de tirar o fôlego. Aventure-se nesse paraíso e viva momentos inesquecíveis. #SerraDosCavalos #Natureza</t>
-  </si>
-  <si>
-    <t>Trila ecológica do cavalo</t>
-  </si>
-  <si>
-    <t>uuid-veneza-parque</t>
-  </si>
-  <si>
-    <t>Veneza Parque</t>
-  </si>
-  <si>
-    <t>O Veneza Parque é o lugar perfeito para se divertir em família. Com uma ampla variedade de atrações, como piscinas, toboáguas e áreas de lazer, garantimos momentos inesquecíveis. Venha nos visitar e aproveite o melhor do entretenimento!</t>
-  </si>
-  <si>
-    <t>Rodovia das Águas, km 34</t>
-  </si>
-  <si>
-    <t>uuid-centro-de-descobertas</t>
-  </si>
-  <si>
-    <t>Centro de descobertas</t>
-  </si>
-  <si>
-    <t>O Centro de Descobertas é o lugar perfeito para explorar e aprender. Com uma variedade de atividades interativas e educativas, oferecemos uma experiência única para todas as idades. Venha descobrir conosco!</t>
-  </si>
-  <si>
-    <t>Rua da descoberta, 32</t>
-  </si>
-  <si>
-    <t>uuid-museu-das-artes</t>
-  </si>
-  <si>
-    <t>Museu das Artes</t>
-  </si>
-  <si>
-    <t>O Museu das Artes é um lugar encantador que abriga uma vasta coleção de obras de arte. Venha explorar a história e a cultura através de exposições fascinantes. Desfrute de um ambiente acolhedor e descubra a beleza da arte em cada detalhe. Visite-nos e deixe-se inspirar!</t>
-  </si>
-  <si>
-    <t>Rua do Cateiro, 211</t>
-  </si>
-  <si>
-    <t>uuid-jardim-botanico-da-cidade</t>
-  </si>
-  <si>
-    <t>Jardim Botanico da Cidade</t>
-  </si>
-  <si>
-    <t>"O Jardim Botânico da Cidade é um refúgio encantador para os amantes da natureza. Com uma variedade deslumbrante de plantas e flores, este paraíso verde oferece tranquilidade e beleza em cada passo. Venha explorar e se maravilhar com a exuberância deste lugar único!" (300 caracteres)</t>
-  </si>
-  <si>
-    <t>Rodovia Luiz Gonzaga, 43</t>
-  </si>
-  <si>
-    <t>uuid-patinaco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patinaço </t>
-  </si>
-  <si>
-    <t>O melhor lugar para patinar em São Paulo! Venha se divertir e praticar suas habilidades no gelo conosco. Ambiente familiar e seguro para todas as idades. Não perca a oportunidade de conhecer o Patinaço!</t>
-  </si>
-  <si>
-    <t>Shopping da Cidade, 12</t>
-  </si>
-  <si>
-    <t>uuid-fliperama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fliperama </t>
-  </si>
-  <si>
-    <t>"O Fliperama é o lugar perfeito para se divertir com amigos e família! Com nossas máquinas de jogos clássicos e modernos, você pode passar horas se divertindo. Além disso, oferecemos deliciosos lanches e bebidas para acompanhar sua diversão. Venha nos visitar e experimente a emoção do Fliperama!" (caracteres: 296)</t>
-  </si>
-  <si>
-    <t>Avenida dos Jogos, 34</t>
-  </si>
-  <si>
-    <t>uuid-museu-da-criaca</t>
-  </si>
-  <si>
-    <t>Museu da Criaça</t>
-  </si>
-  <si>
-    <t>O Museu da Criança é o lugar perfeito para a diversão em família! Com diversas atividades interativas, as crianças podem aprender enquanto se divertem. Venha conhecer nossas exposições e se encantar com o mundo da imaginação. #MuseudaCriança #DiversãoemFamília #ExperiênciaInterativa</t>
-  </si>
-  <si>
-    <t>Rua da história, 11</t>
-  </si>
-  <si>
-    <t>uuid-picinic-da-sol</t>
-  </si>
-  <si>
-    <t>Picinic da Sol</t>
-  </si>
-  <si>
-    <t>O Picnic da Sol é o lugar perfeito para desfrutar de momentos ao ar livre. Com uma atmosfera acolhedora e uma variedade de opções de alimentos frescos e deliciosos, você vai se sentir em um verdadeiro paraíso gastronômico. Venha aproveitar o sol e saborear nossas delícias!</t>
-  </si>
-  <si>
-    <t>Praça da Iluminação, centro</t>
-  </si>
-  <si>
-    <t>uuid-baoba</t>
-  </si>
-  <si>
-    <t>Baobá</t>
-  </si>
-  <si>
-    <t>O Baobá é o lugar perfeito para relaxar e desfrutar de deliciosos coquetéis e petiscos. Venha nos visitar e aproveite nossa atmosfera acolhedora e música ao vivo todas as sextas-feiras!</t>
-  </si>
-  <si>
-    <t>Rua da  Selva, 42</t>
-  </si>
-  <si>
-    <t>uuid-rancho-alegre</t>
-  </si>
-  <si>
-    <t>Rancho Alegre</t>
-  </si>
-  <si>
-    <t>O Rancho Alegre é o lugar perfeito para desfrutar de deliciosas refeições caseiras. Com um ambiente acolhedor e atendimento impecável, oferecemos pratos tradicionais da culinária brasileira. Venha nos visitar e saborear o melhor da gastronomia em um ambiente familiar e aconchegante.</t>
-  </si>
-  <si>
-    <t>Avenida do Rancho, 235</t>
-  </si>
-  <si>
-    <t>uuid-piscinao-azul</t>
-  </si>
-  <si>
-    <t>Piscinão Azul</t>
-  </si>
-  <si>
-    <t>O Piscinão Azul é o lugar perfeito para relaxar e se refrescar. Com uma piscina cristalina e um ambiente acolhedor, oferecemos o melhor em entretenimento aquático. Venha nos visitar e desfrute de momentos inesquecíveis!</t>
-  </si>
-  <si>
-    <t>Rua dos clubes, 32</t>
-  </si>
-  <si>
-    <t>uuid-burguelandia</t>
-  </si>
-  <si>
-    <t>Burguelândia</t>
-  </si>
-  <si>
-    <t>Venha experimentar os melhores hambúrgueres artesanais da cidade! Com ingredientes frescos e um ambiente descontraído, Burguelândia é o lugar perfeito para satisfazer seu desejo por um delicioso lanche. Não perca tempo, faça uma visita e descubra o sabor que vai te conquistar!</t>
-  </si>
-  <si>
-    <t>Rua das comidas, 43</t>
-  </si>
-  <si>
-    <t>uuid-pizzamania</t>
-  </si>
-  <si>
-    <t>Pizzamania</t>
-  </si>
-  <si>
-    <t>Venha experimentar as melhores pizzas da cidade! Com uma variedade de sabores irresistíveis e ingredientes frescos, a Pizzamania é o lugar perfeito para satisfazer seu desejo por pizza. Ambiente acolhedor e atendimento de primeira. Não perca tempo, faça sua reserva agora mesmo!</t>
-  </si>
-  <si>
-    <t>uuid-casa-club</t>
-  </si>
-  <si>
-    <t>Casa Club</t>
-  </si>
-  <si>
-    <t>A Casa Club é o lugar perfeito para quem busca diversão e entretenimento. Com uma decoração moderna e sofisticada, oferecemos uma ampla variedade de bebidas e petiscos deliciosos. Venha curtir a noite conosco e aproveite nossas promoções especiais!</t>
-  </si>
-  <si>
-    <t>Rua dos clubes, 45</t>
-  </si>
-  <si>
     <t>id_establishment</t>
   </si>
   <si>
+    <t>img_description</t>
+  </si>
+  <si>
+    <t>cover</t>
+  </si>
+  <si>
+    <t>baoba-1</t>
+  </si>
+  <si>
+    <t>algumas pessoas em baixo de um gigantesco baoba</t>
+  </si>
+  <si>
+    <t>baoba-2</t>
+  </si>
+  <si>
+    <t>varios baobas em uma estrada de terra ao por do sol</t>
+  </si>
+  <si>
+    <t>casa-club-1</t>
+  </si>
+  <si>
+    <t>menino pulando de cabeça em uma piscina</t>
+  </si>
+  <si>
+    <t>casa-club-2</t>
+  </si>
+  <si>
+    <t>duas criancas brincando na escada de uma piscina</t>
+  </si>
+  <si>
+    <t>centro-de-descobertas-1</t>
+  </si>
+  <si>
+    <t>esqueleto de um tiranossauro Rex no centro de um museu</t>
+  </si>
+  <si>
+    <t>centro-de-descobertas-2</t>
+  </si>
+  <si>
+    <t>um enorme escultura de elefante com crianças brincando ao redor</t>
+  </si>
+  <si>
+    <t>cinelandia-1</t>
+  </si>
+  <si>
+    <t>várias cadeiras vermelhas vazias em uma sala de teatro</t>
+  </si>
+  <si>
+    <t>cinelandia-2</t>
+  </si>
+  <si>
+    <t>cortinas vermelhas fechadas em um teatro</t>
+  </si>
+  <si>
+    <t>fliperama-1</t>
+  </si>
+  <si>
+    <t>homem e um jovem jogando em um arcade</t>
+  </si>
+  <si>
+    <t>fliperama-2</t>
+  </si>
+  <si>
+    <t>máquinas de fliperama enfileiradas em um arcade</t>
+  </si>
+  <si>
+    <t>jardim-botanico-da-cidade-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">criança tirando foto de brotos de plantas em um jardim </t>
+  </si>
+  <si>
+    <t>jardim-botanico-da-cidade-2</t>
+  </si>
+  <si>
+    <t>caminho de terra entre árvores</t>
+  </si>
+  <si>
+    <t>jardim-botanico-da-cidade-3</t>
+  </si>
+  <si>
+    <t>menina sentada em um galho de arvore</t>
+  </si>
+  <si>
+    <t>jardim-botanico-da-cidade-4</t>
+  </si>
+  <si>
+    <t>caminho entre arcos cercado por flores e plantas</t>
+  </si>
+  <si>
+    <t>jurassic-park-burguer-1</t>
+  </si>
+  <si>
+    <t>entrada de resturante com nome tematico de Jurassic Park</t>
+  </si>
+  <si>
+    <t>jurassic-park-burguer-2</t>
+  </si>
+  <si>
+    <t>carne de haburguer assada em cima de uma tábua de madeira</t>
+  </si>
+  <si>
+    <t>lagoa-azul-1</t>
+  </si>
+  <si>
+    <t>pessoa em uma canoa vermelha navegando por um rio entre montanhas</t>
+  </si>
+  <si>
+    <t>lagoa-azul-2</t>
+  </si>
+  <si>
+    <t>lago azul em meio a pinheiros em um dia ensolarado</t>
+  </si>
+  <si>
+    <t>museu-da-crianca-1</t>
+  </si>
+  <si>
+    <t>crianças brincando em uma fonte de água no chão</t>
+  </si>
+  <si>
+    <t>museu-da-crianca-2</t>
+  </si>
+  <si>
+    <t>menina assistindo em uma tela com crianças brincando ao fundo em uma biblioteca</t>
+  </si>
+  <si>
+    <t>museu-das-artes-1</t>
+  </si>
+  <si>
+    <t>foto de cima de uma mesa onde criança colore pedra e papeis com lapis coloridos</t>
+  </si>
+  <si>
+    <t>museu-das-artes-2</t>
+  </si>
+  <si>
+    <t>foto em tons de cinza com crianças dentro de um casulo transparente</t>
+  </si>
+  <si>
+    <t>museu-do-espaco-1</t>
+  </si>
+  <si>
+    <t>menina de jaleco branco e oculos de proteção fazendo experimentos</t>
+  </si>
+  <si>
+    <t>museu-do-espaco-2</t>
+  </si>
+  <si>
+    <t>criança com oculos de realidade virtual e luz ambiente azulada</t>
+  </si>
+  <si>
+    <t>parque-da-crianca-1</t>
+  </si>
+  <si>
+    <t>crianças a bera de um lago alimentando pombos</t>
+  </si>
+  <si>
+    <t>parque-da-crianca-2</t>
+  </si>
+  <si>
+    <t>crianças em uma rede entre arvores</t>
+  </si>
+  <si>
+    <t>parque-da-crianca-3</t>
+  </si>
+  <si>
+    <t>foto aérea de um parque com crianças</t>
+  </si>
+  <si>
+    <t>parquemania-1</t>
+  </si>
+  <si>
+    <t>homem e uma menina jogam um jogo de basquete</t>
+  </si>
+  <si>
+    <t>parquemania-2</t>
+  </si>
+  <si>
+    <t>corredor entre vários fliperamas alinhados de ambos os lados e ambiente com tom rosa claro</t>
+  </si>
+  <si>
+    <t>picnic-da-sol-1</t>
+  </si>
+  <si>
+    <t>mulher e menina lendo livros sentadas em uma tolaha laranja cobrindo a grama</t>
+  </si>
+  <si>
+    <t>picnic-da-sol-2</t>
+  </si>
+  <si>
+    <t>cesta de comidas em cima de uma toalha azul listrada</t>
+  </si>
+  <si>
+    <t>piscinao-azul-1</t>
+  </si>
+  <si>
+    <t>mulher deitada em uma boia na piscina</t>
+  </si>
+  <si>
+    <t>piscinao-azul-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pés de criança e adulto na borda de uma piscina </t>
+  </si>
+  <si>
+    <t>pizzamania-1</t>
+  </si>
+  <si>
+    <t>forno de pizza a lenha com homem cozinhando ao fundo</t>
+  </si>
+  <si>
+    <t>pizzamania-2</t>
+  </si>
+  <si>
+    <t>família brindando em uma mesa de jantar</t>
+  </si>
+  <si>
+    <t>rancho-alegre-1</t>
+  </si>
+  <si>
+    <t>mulher selecionando sementes em uma estufa de plantas</t>
+  </si>
+  <si>
+    <t>rancho-alegre-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menino sentado em um carro de safari </t>
+  </si>
+  <si>
+    <t>rancho-alegre-3</t>
+  </si>
+  <si>
+    <t>crinaça de costas em uma fazenda</t>
+  </si>
+  <si>
+    <t>restaurante-da-rose-1</t>
+  </si>
+  <si>
+    <t>foto de cima de uim prato de comida</t>
+  </si>
+  <si>
+    <t>restaurante-da-rose-2</t>
+  </si>
+  <si>
+    <t>familia comendo em uma mesa de almoço</t>
+  </si>
+  <si>
+    <t>serra-dos-cavalos-1</t>
+  </si>
+  <si>
+    <t>vista para campo de grama do alto de uma montanha</t>
+  </si>
+  <si>
+    <t>serra-dos-cavalos-2</t>
+  </si>
+  <si>
+    <t>mulher e cirança passeiam de mãos dadas em uma trilha entre as arvores</t>
+  </si>
+  <si>
+    <t>veneza-parque-1</t>
+  </si>
+  <si>
+    <t>vista aérea de um parque com piscinas</t>
+  </si>
+  <si>
+    <t>veneza-parque-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parque em uma piscina </t>
+  </si>
+  <si>
+    <t>zoo-safari-a-dentro-1</t>
+  </si>
+  <si>
+    <t>crainças observam um elefante de longe</t>
+  </si>
+  <si>
+    <t>zoo-safari-a-dentro-2</t>
+  </si>
+  <si>
+    <t>carro atravessado selva ao por do sol</t>
+  </si>
+  <si>
     <t>review</t>
   </si>
   <si>
@@ -1064,12 +1338,6 @@
     <t>Fascinante! A exposição interativa é uma jornada incrível pelo universo. Recomendo muito para quem tem interesse em astronomia</t>
   </si>
   <si>
-    <t>uuid-review-6</t>
-  </si>
-  <si>
-    <t>Uma experiência única que combina arte e natureza. As peças são sempre emocionantes e o cenário ao ar livre é deslumbrante.</t>
-  </si>
-  <si>
     <t>uuid-review-7</t>
   </si>
   <si>
@@ -1112,12 +1380,6 @@
     <t>Um refúgio verde no meio da cidade. A diversidade de plantas e flores é estonteante, e os caminhos são perfeitos para uma caminhada tranquila.</t>
   </si>
   <si>
-    <t>uuid-review-14</t>
-  </si>
-  <si>
-    <t>A pista de patinação é ampla e bem cuidada. Um lugar divertido para famílias e amigos. Eles também oferecem aulas para iniciantes</t>
-  </si>
-  <si>
     <t>uuid-review-15</t>
   </si>
   <si>
@@ -1157,9 +1419,6 @@
     <t>uuid-review-21</t>
   </si>
   <si>
-    <t>O paraíso dos hambúrgueres! Cada opção no menu é mais deliciosa que a outra. O ambiente é descontraído e perfeito para encontros</t>
-  </si>
-  <si>
     <t>uuid-review-22</t>
   </si>
   <si>
@@ -1196,12 +1455,6 @@
     <t>O show do planetário é simplesmente hipnotizante. Uma ótima maneira de passar a tarde aprendendo sobre as maravilhas do universo.</t>
   </si>
   <si>
-    <t>uuid-review-28</t>
-  </si>
-  <si>
-    <t>Uma joia escondida. Assistir a uma peça aqui é uma experiência íntima e especial, com o cenário natural acrescentando ao espetáculo.</t>
-  </si>
-  <si>
     <t>uuid-review-29</t>
   </si>
   <si>
@@ -1244,12 +1497,6 @@
     <t>Excelente lugar para uma caminhada tranquila ou uma corrida matinal. A diversidade de plantas e o layout são simplesmente impressionantes.</t>
   </si>
   <si>
-    <t>uuid-review-36</t>
-  </si>
-  <si>
-    <t>Ambiente divertido e acolhedor, ideal para patinadores de todos os níveis. Eles também fazem festas de aniversário incríveis aqui.</t>
-  </si>
-  <si>
     <t>uuid-review-37</t>
   </si>
   <si>
@@ -1289,7 +1536,7 @@
     <t>uuid-review-43</t>
   </si>
   <si>
-    <t>As opções de hambúrgueres são criativas e deliciosas. O ambiente é vibrante e convidativo, perfeito para uma noite casual com amigos.</t>
+    <t>As opções de hambúrgueres são criativas e deliciosas. O ambiente é vibrante e convidativo, perfeito para passar o dia com as crianças.</t>
   </si>
   <si>
     <t>uuid-review-44</t>
@@ -1342,7 +1589,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1377,6 +1624,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1405,6 +1658,10 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -7483,9 +7740,9 @@
     <col customWidth="1" min="2" max="2" width="20.5"/>
     <col customWidth="1" min="3" max="3" width="14.5"/>
     <col customWidth="1" min="4" max="4" width="563.75"/>
-    <col customWidth="1" min="5" max="6" width="18.38"/>
-    <col customWidth="1" min="7" max="7" width="20.38"/>
-    <col customWidth="1" min="8" max="8" width="17.0"/>
+    <col customWidth="1" min="5" max="7" width="18.38"/>
+    <col customWidth="1" min="8" max="8" width="20.38"/>
+    <col customWidth="1" min="9" max="9" width="17.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7508,791 +7765,810 @@
         <v>243</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="H2" s="3">
-        <v>43834.125</v>
+        <v>249</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="I2" s="3">
+        <v>43888.125</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="H3" s="3">
-        <v>43835.125</v>
+        <v>253</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H3" s="2">
+        <v>43853.125</v>
+      </c>
+      <c r="I3" s="2">
+        <v>43887.125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="H4" s="3">
-        <v>43875.125</v>
+        <v>257</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45293.125</v>
+      </c>
+      <c r="I4" s="3">
+        <v>45349.125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="H5" s="3">
-        <v>43837.125</v>
+        <v>261</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="I5" s="3">
+        <v>43834.125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>262</v>
+        <v>226</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G6" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="H6" s="3">
-        <v>43875.125</v>
+        <v>265</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H6" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="I6" s="3">
+        <v>43855.125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>266</v>
+        <v>230</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G7" s="2">
+        <v>269</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="2">
         <v>43850.125</v>
       </c>
-      <c r="H7" s="3">
-        <v>43895.125</v>
+      <c r="I7" s="3">
+        <v>43904.125</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>268</v>
+      <c r="A8" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>270</v>
+        <v>238</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G8" s="2">
-        <v>43853.125</v>
-      </c>
-      <c r="H8" s="3">
-        <v>43859.125</v>
+        <v>273</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="2">
+        <v>43892.125</v>
+      </c>
+      <c r="I8" s="3">
+        <v>43946.125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>228</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>43892.125</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>43924.125</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>276</v>
+      <c r="A10" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>278</v>
+        <v>230</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G10" s="2">
-        <v>43831.125</v>
-      </c>
-      <c r="H10" s="3">
-        <v>43834.125</v>
+        <v>282</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="I10" s="3">
+        <v>43886.125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G11" s="2">
+        <v>286</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" s="2">
         <v>44928.125</v>
       </c>
-      <c r="H11" s="3">
-        <v>44932.125</v>
+      <c r="I11" s="3">
+        <v>44973.125</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>284</v>
+      <c r="A12" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>230</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G12" s="2">
-        <v>45293.125</v>
-      </c>
-      <c r="H12" s="3">
-        <v>45349.125</v>
+        <v>291</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="I12" s="3">
+        <v>43875.125</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>288</v>
+      <c r="A13" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>290</v>
+        <v>228</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G13" s="2">
-        <v>44928.125</v>
-      </c>
-      <c r="H13" s="3">
-        <v>44973.125</v>
+        <v>295</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="I13" s="3">
+        <v>43837.125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" s="2">
-        <v>43850.125</v>
-      </c>
-      <c r="H14" s="3">
-        <v>43904.125</v>
+        <v>299</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="I14" s="3">
+        <v>43875.125</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>296</v>
+      <c r="A15" s="6" t="s">
+        <v>300</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>299</v>
+        <v>248</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G15" s="2">
-        <v>43853.125</v>
-      </c>
-      <c r="H15" s="3">
-        <v>43856.125</v>
+        <v>303</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="I15" s="3">
+        <v>43866.125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G16" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="H16" s="3">
-        <v>43855.125</v>
+        <v>307</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16" s="2">
+        <v>43853.125</v>
+      </c>
+      <c r="I16" s="3">
+        <v>43887.125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>307</v>
+        <v>248</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G17" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="H17" s="3">
-        <v>43886.125</v>
+        <v>273</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H17" s="2">
+        <v>43831.125</v>
+      </c>
+      <c r="I17" s="3">
+        <v>43852.125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G18" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="H18" s="3">
-        <v>43866.125</v>
+        <v>314</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H18" s="2">
+        <v>43850.125</v>
+      </c>
+      <c r="I18" s="3">
+        <v>43852.125</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>312</v>
+      <c r="A19" s="6" t="s">
+        <v>315</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>315</v>
+        <v>248</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G19" s="2">
-        <v>43832.125</v>
-      </c>
-      <c r="H19" s="3">
-        <v>43888.125</v>
+        <v>318</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="I19" s="3">
+        <v>43835.125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" s="2">
+        <v>43831.125</v>
+      </c>
+      <c r="I20" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G20" s="2">
-        <v>43850.125</v>
-      </c>
-      <c r="H20" s="3">
-        <v>43852.125</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="D21" s="6" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>323</v>
+        <v>248</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G21" s="2">
+        <v>326</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H21" s="2">
+        <v>44928.125</v>
+      </c>
+      <c r="I21" s="3">
+        <v>44932.125</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H22" s="2">
         <v>43853.125</v>
       </c>
-      <c r="H21" s="3">
-        <v>43887.125</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G22" s="2">
-        <v>43892.125</v>
-      </c>
-      <c r="H22" s="3">
-        <v>43946.125</v>
+      <c r="I22" s="3">
+        <v>43859.125</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G23" s="2">
-        <v>43831.125</v>
-      </c>
-      <c r="H23" s="3">
-        <v>43852.125</v>
-      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G24" s="2">
-        <v>43853.125</v>
-      </c>
-      <c r="H24" s="2">
-        <v>43887.125</v>
-      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25">
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26">
-      <c r="G26" s="2"/>
-      <c r="H26" s="3"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="3"/>
     </row>
     <row r="27">
-      <c r="G27" s="2"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="28">
-      <c r="G28" s="2"/>
-      <c r="H28" s="3"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29">
-      <c r="G29" s="2"/>
-      <c r="H29" s="3"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
     </row>
     <row r="30">
-      <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
     </row>
     <row r="31">
-      <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32">
-      <c r="G32" s="2"/>
-      <c r="H32" s="3"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
     </row>
     <row r="33">
-      <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
     </row>
     <row r="34">
-      <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
     </row>
     <row r="35">
-      <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
     </row>
     <row r="36">
-      <c r="G36" s="2"/>
-      <c r="H36" s="3"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
     </row>
     <row r="37">
-      <c r="G37" s="2"/>
-      <c r="H37" s="3"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
     </row>
     <row r="38">
-      <c r="G38" s="2"/>
-      <c r="H38" s="3"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="3"/>
     </row>
     <row r="39">
-      <c r="G39" s="2"/>
-      <c r="H39" s="3"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="3"/>
     </row>
     <row r="40">
-      <c r="G40" s="2"/>
-      <c r="H40" s="3"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="41">
-      <c r="G41" s="2"/>
-      <c r="H41" s="3"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="3"/>
     </row>
     <row r="42">
-      <c r="G42" s="2"/>
-      <c r="H42" s="3"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="3"/>
     </row>
     <row r="43">
-      <c r="G43" s="2"/>
-      <c r="H43" s="3"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="3"/>
     </row>
     <row r="44">
-      <c r="G44" s="2"/>
-      <c r="H44" s="3"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="3"/>
     </row>
     <row r="45">
-      <c r="G45" s="2"/>
-      <c r="H45" s="3"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="3"/>
     </row>
     <row r="46">
-      <c r="G46" s="2"/>
-      <c r="H46" s="3"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="3"/>
     </row>
     <row r="47">
-      <c r="G47" s="2"/>
-      <c r="H47" s="3"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="3"/>
     </row>
     <row r="48">
-      <c r="G48" s="2"/>
-      <c r="H48" s="3"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="3"/>
     </row>
     <row r="49">
-      <c r="G49" s="2"/>
-      <c r="H49" s="3"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="3"/>
     </row>
     <row r="50">
-      <c r="G50" s="2"/>
-      <c r="H50" s="3"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="3"/>
     </row>
     <row r="51">
-      <c r="G51" s="2"/>
-      <c r="H51" s="3"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="3"/>
     </row>
     <row r="52">
-      <c r="G52" s="2"/>
-      <c r="H52" s="3"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="3"/>
     </row>
     <row r="53">
-      <c r="G53" s="2"/>
-      <c r="H53" s="3"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="3"/>
     </row>
     <row r="54">
-      <c r="G54" s="2"/>
-      <c r="H54" s="3"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="3"/>
     </row>
     <row r="55">
-      <c r="G55" s="2"/>
-      <c r="H55" s="3"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="3"/>
     </row>
     <row r="56">
-      <c r="G56" s="2"/>
-      <c r="H56" s="3"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="3"/>
     </row>
     <row r="57">
-      <c r="G57" s="2"/>
-      <c r="H57" s="3"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="3"/>
     </row>
     <row r="58">
-      <c r="G58" s="2"/>
-      <c r="H58" s="3"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="3"/>
     </row>
     <row r="59">
-      <c r="G59" s="2"/>
-      <c r="H59" s="3"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="3"/>
     </row>
     <row r="60">
-      <c r="G60" s="2"/>
-      <c r="H60" s="3"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="3"/>
     </row>
     <row r="61">
-      <c r="G61" s="2"/>
-      <c r="H61" s="3"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="3"/>
     </row>
     <row r="62">
-      <c r="G62" s="2"/>
-      <c r="H62" s="3"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="3"/>
     </row>
     <row r="63">
-      <c r="G63" s="2"/>
-      <c r="H63" s="3"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="3"/>
     </row>
     <row r="64">
-      <c r="G64" s="2"/>
-      <c r="H64" s="3"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="3"/>
     </row>
     <row r="65">
-      <c r="G65" s="2"/>
-      <c r="H65" s="3"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="3"/>
     </row>
     <row r="66">
-      <c r="G66" s="2"/>
-      <c r="H66" s="3"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="3"/>
     </row>
     <row r="67">
-      <c r="G67" s="2"/>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68">
-      <c r="G68" s="2"/>
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69">
-      <c r="G69" s="2"/>
-      <c r="H69" s="3"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$AA$22">
+    <sortState ref="A1:AA22">
+      <sortCondition ref="A1:A22"/>
+    </sortState>
+  </autoFilter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -8307,7 +8583,974 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="23.38"/>
+    <col customWidth="1" min="1" max="1" width="23.38"/>
+    <col customWidth="1" min="2" max="2" width="24.13"/>
+    <col customWidth="1" min="3" max="3" width="64.75"/>
+    <col customWidth="1" min="4" max="4" width="15.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F2" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F3" s="3">
+        <v>43835.125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F4" s="3">
+        <v>43875.125</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F5" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F6" s="3">
+        <v>43835.125</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F7" s="3">
+        <v>43875.125</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F8" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F9" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F10" s="3">
+        <v>43835.125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F11" s="3">
+        <v>43875.125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F12" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F13" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F14" s="3">
+        <v>43835.125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F15" s="3">
+        <v>43875.125</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F16" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F17" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F18" s="3">
+        <v>43835.125</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F19" s="3">
+        <v>43875.125</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F20" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F21" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F22" s="3">
+        <v>43835.125</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F23" s="3">
+        <v>43875.125</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F24" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F25" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F26" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F27" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F28" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F29" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F30" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F31" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F32" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F33" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F34" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F35" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F36" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F37" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F38" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F39" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D40" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" s="15">
+        <v>43832.125</v>
+      </c>
+      <c r="F40" s="15">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F41" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D42" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="15">
+        <v>43832.125</v>
+      </c>
+      <c r="F42" s="15">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D43" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" s="15">
+        <v>43832.125</v>
+      </c>
+      <c r="F43" s="15">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D44" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" s="15">
+        <v>43832.125</v>
+      </c>
+      <c r="F44" s="15">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D45" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="15">
+        <v>43832.125</v>
+      </c>
+      <c r="F45" s="15">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D46" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" s="15">
+        <v>43832.125</v>
+      </c>
+      <c r="F46" s="15">
+        <v>43834.125</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>43832.125</v>
+      </c>
+      <c r="F47" s="3">
+        <v>43834.125</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="$A$1:$Z$47">
+    <sortState ref="A1:Z47">
+      <sortCondition ref="A1:A47"/>
+    </sortState>
+  </autoFilter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="23.38"/>
+    <col customWidth="1" min="2" max="2" width="31.38"/>
     <col customWidth="1" min="3" max="3" width="119.38"/>
     <col customWidth="1" min="6" max="6" width="16.13"/>
   </cols>
@@ -8317,16 +9560,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>336</v>
+        <v>426</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>337</v>
+        <v>427</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>338</v>
+        <v>428</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -8337,13 +9580,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>339</v>
+        <v>429</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="D2" s="1">
         <v>4.0</v>
@@ -8351,7 +9594,7 @@
       <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="16">
         <v>43832.125</v>
       </c>
       <c r="G2" s="3">
@@ -8360,13 +9603,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>341</v>
+        <v>431</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>248</v>
+        <v>315</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>342</v>
+        <v>432</v>
       </c>
       <c r="D3" s="1">
         <v>5.0</v>
@@ -8374,7 +9617,7 @@
       <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="16">
         <v>43832.125</v>
       </c>
       <c r="G3" s="3">
@@ -8383,13 +9626,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>343</v>
+        <v>433</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>344</v>
+        <v>434</v>
       </c>
       <c r="D4" s="1">
         <v>3.0</v>
@@ -8397,7 +9640,7 @@
       <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="16">
         <v>43832.125</v>
       </c>
       <c r="G4" s="3">
@@ -8406,13 +9649,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>345</v>
+        <v>435</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>346</v>
+        <v>436</v>
       </c>
       <c r="D5" s="1">
         <v>4.0</v>
@@ -8420,7 +9663,7 @@
       <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="16">
         <v>43832.125</v>
       </c>
       <c r="G5" s="3">
@@ -8429,13 +9672,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>347</v>
+        <v>437</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>348</v>
+        <v>438</v>
       </c>
       <c r="D6" s="1">
         <v>5.0</v>
@@ -8443,7 +9686,7 @@
       <c r="E6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="16">
         <v>43832.125</v>
       </c>
       <c r="G6" s="3">
@@ -8452,151 +9695,151 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>349</v>
+        <v>439</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>350</v>
+        <v>440</v>
       </c>
       <c r="D7" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="14">
-        <v>43850.125</v>
+      <c r="F7" s="16">
+        <v>43853.125</v>
       </c>
       <c r="G7" s="3">
-        <v>43895.125</v>
+        <v>43859.125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>351</v>
+        <v>441</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>352</v>
+        <v>442</v>
       </c>
       <c r="D8" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="14">
-        <v>43853.125</v>
+        <v>42</v>
+      </c>
+      <c r="F8" s="16">
+        <v>43892.125</v>
       </c>
       <c r="G8" s="3">
-        <v>43859.125</v>
+        <v>43924.125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>353</v>
+        <v>443</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>354</v>
+        <v>444</v>
       </c>
       <c r="D9" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="14">
-        <v>43892.125</v>
+        <v>45</v>
+      </c>
+      <c r="F9" s="16">
+        <v>43831.125</v>
       </c>
       <c r="G9" s="3">
-        <v>43924.125</v>
+        <v>43834.125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>355</v>
+        <v>445</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>356</v>
+        <v>446</v>
       </c>
       <c r="D10" s="1">
         <v>4.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="14">
-        <v>43831.125</v>
+        <v>48</v>
+      </c>
+      <c r="F10" s="16">
+        <v>44928.125</v>
       </c>
       <c r="G10" s="3">
-        <v>43834.125</v>
+        <v>44932.125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>357</v>
+        <v>447</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>358</v>
+        <v>448</v>
       </c>
       <c r="D11" s="1">
         <v>4.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="14">
-        <v>44928.125</v>
+        <v>33</v>
+      </c>
+      <c r="F11" s="16">
+        <v>45293.125</v>
       </c>
       <c r="G11" s="3">
-        <v>44932.125</v>
+        <v>45349.125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>359</v>
+        <v>449</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="D12" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="14">
-        <v>45293.125</v>
+      <c r="F12" s="16">
+        <v>44928.125</v>
       </c>
       <c r="G12" s="3">
-        <v>45349.125</v>
+        <v>44973.125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>361</v>
+        <v>451</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>362</v>
+        <v>452</v>
       </c>
       <c r="D13" s="1">
         <v>5.0</v>
@@ -8604,751 +9847,675 @@
       <c r="E13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="14">
-        <v>44928.125</v>
+      <c r="F13" s="16">
+        <v>43850.125</v>
       </c>
       <c r="G13" s="3">
-        <v>44973.125</v>
+        <v>43904.125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>292</v>
+        <v>453</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>364</v>
+        <v>454</v>
       </c>
       <c r="D14" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="14">
-        <v>43850.125</v>
+        <v>63</v>
+      </c>
+      <c r="F14" s="16">
+        <v>43832.125</v>
       </c>
       <c r="G14" s="3">
-        <v>43904.125</v>
+        <v>43855.125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>365</v>
+        <v>455</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>366</v>
+        <v>456</v>
       </c>
       <c r="D15" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="14">
-        <v>43853.125</v>
+        <v>66</v>
+      </c>
+      <c r="F15" s="16">
+        <v>43832.125</v>
       </c>
       <c r="G15" s="3">
-        <v>43856.125</v>
+        <v>43886.125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B16" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>300</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>368</v>
+        <v>458</v>
       </c>
       <c r="D16" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="14">
+        <v>69</v>
+      </c>
+      <c r="F16" s="16">
         <v>43832.125</v>
       </c>
       <c r="G16" s="3">
-        <v>43855.125</v>
+        <v>43866.125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>369</v>
+        <v>459</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="D17" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="14">
+        <v>72</v>
+      </c>
+      <c r="F17" s="16">
         <v>43832.125</v>
       </c>
       <c r="G17" s="3">
-        <v>43886.125</v>
+        <v>43888.125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>371</v>
+        <v>461</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>372</v>
+        <v>462</v>
       </c>
       <c r="D18" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="14">
-        <v>43832.125</v>
+        <v>66</v>
+      </c>
+      <c r="F18" s="16">
+        <v>43850.125</v>
       </c>
       <c r="G18" s="3">
-        <v>43866.125</v>
+        <v>43852.125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>373</v>
+        <v>463</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>374</v>
+        <v>464</v>
       </c>
       <c r="D19" s="1">
         <v>4.0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="14">
-        <v>43832.125</v>
+        <v>66</v>
+      </c>
+      <c r="F19" s="16">
+        <v>43853.125</v>
       </c>
       <c r="G19" s="3">
-        <v>43888.125</v>
+        <v>43887.125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>316</v>
+        <v>465</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>376</v>
+        <v>272</v>
       </c>
       <c r="D20" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="14">
-        <v>43850.125</v>
+        <v>81</v>
+      </c>
+      <c r="F20" s="16">
+        <v>43892.125</v>
       </c>
       <c r="G20" s="3">
-        <v>43852.125</v>
+        <v>43946.125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>377</v>
+        <v>466</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>378</v>
+        <v>467</v>
       </c>
       <c r="D21" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="14">
-        <v>43853.125</v>
+        <v>84</v>
+      </c>
+      <c r="F21" s="16">
+        <v>43831.125</v>
       </c>
       <c r="G21" s="3">
-        <v>43887.125</v>
+        <v>43852.125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>324</v>
+        <v>258</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>380</v>
+        <v>469</v>
       </c>
       <c r="D22" s="1">
         <v>5.0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="14">
-        <v>43892.125</v>
+        <v>87</v>
+      </c>
+      <c r="F22" s="16">
+        <v>44928.125</v>
       </c>
       <c r="G22" s="3">
-        <v>43946.125</v>
+        <v>44962.125</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>328</v>
+        <v>470</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>315</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>382</v>
+        <v>471</v>
       </c>
       <c r="D23" s="1">
         <v>5.0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="14">
-        <v>43831.125</v>
+        <v>90</v>
+      </c>
+      <c r="F23" s="16">
+        <v>45293.125</v>
       </c>
       <c r="G23" s="3">
-        <v>43852.125</v>
+        <v>45349.125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>244</v>
+        <v>472</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>384</v>
+        <v>473</v>
       </c>
       <c r="D24" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="14">
-        <v>44928.125</v>
+        <v>66</v>
+      </c>
+      <c r="F24" s="16">
+        <v>43832.125</v>
       </c>
       <c r="G24" s="3">
-        <v>44962.125</v>
+        <v>43839.125</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>248</v>
+        <v>474</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>386</v>
+        <v>475</v>
       </c>
       <c r="D25" s="1">
         <v>5.0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="14">
-        <v>45293.125</v>
+        <v>96</v>
+      </c>
+      <c r="F25" s="16">
+        <v>43832.125</v>
       </c>
       <c r="G25" s="3">
-        <v>45349.125</v>
+        <v>43886.125</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>252</v>
+        <v>476</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>388</v>
+        <v>477</v>
       </c>
       <c r="D26" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="16">
         <v>43832.125</v>
       </c>
       <c r="G26" s="3">
-        <v>43839.125</v>
+        <v>43910.125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>256</v>
+        <v>478</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>390</v>
+        <v>479</v>
       </c>
       <c r="D27" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="14">
-        <v>43832.125</v>
+        <v>105</v>
+      </c>
+      <c r="F27" s="16">
+        <v>43853.125</v>
       </c>
       <c r="G27" s="3">
-        <v>43886.125</v>
+        <v>43861.125</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>260</v>
+        <v>480</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="D28" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="14">
-        <v>43832.125</v>
+        <v>108</v>
+      </c>
+      <c r="F28" s="16">
+        <v>43892.125</v>
       </c>
       <c r="G28" s="3">
-        <v>43910.125</v>
+        <v>43899.125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>393</v>
+        <v>482</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>394</v>
+        <v>483</v>
       </c>
       <c r="D29" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29" s="14">
-        <v>43850.125</v>
+        <v>66</v>
+      </c>
+      <c r="F29" s="16">
+        <v>43831.125</v>
       </c>
       <c r="G29" s="3">
-        <v>43859.125</v>
+        <v>43865.125</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>395</v>
+        <v>484</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>396</v>
+        <v>485</v>
       </c>
       <c r="D30" s="1">
         <v>4.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" s="14">
-        <v>43853.125</v>
+        <v>114</v>
+      </c>
+      <c r="F30" s="16">
+        <v>44928.125</v>
       </c>
       <c r="G30" s="3">
-        <v>43861.125</v>
+        <v>44981.125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>397</v>
+        <v>486</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>398</v>
+        <v>487</v>
       </c>
       <c r="D31" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="14">
-        <v>43892.125</v>
+        <v>117</v>
+      </c>
+      <c r="F31" s="16">
+        <v>45293.125</v>
       </c>
       <c r="G31" s="3">
-        <v>43899.125</v>
+        <v>45295.125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>399</v>
+        <v>488</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="D32" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="14">
-        <v>43831.125</v>
+        <v>120</v>
+      </c>
+      <c r="F32" s="16">
+        <v>43832.125</v>
       </c>
       <c r="G32" s="3">
-        <v>43865.125</v>
+        <v>43844.125</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="D33" s="1">
         <v>4.0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="14">
-        <v>44928.125</v>
+        <v>123</v>
+      </c>
+      <c r="F33" s="16">
+        <v>43832.125</v>
       </c>
       <c r="G33" s="3">
-        <v>44981.125</v>
+        <v>43837.125</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>284</v>
+        <v>492</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="D34" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="14">
-        <v>45293.125</v>
+        <v>129</v>
+      </c>
+      <c r="F34" s="16">
+        <v>43832.125</v>
       </c>
       <c r="G34" s="3">
-        <v>45295.125</v>
+        <v>43897.125</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>288</v>
+        <v>494</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>406</v>
+        <v>495</v>
       </c>
       <c r="D35" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F35" s="14">
-        <v>43832.125</v>
+        <v>132</v>
+      </c>
+      <c r="F35" s="16">
+        <v>43850.125</v>
       </c>
       <c r="G35" s="3">
-        <v>43844.125</v>
+        <v>43893.125</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>407</v>
+        <v>496</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>408</v>
+        <v>497</v>
       </c>
       <c r="D36" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F36" s="14">
-        <v>43832.125</v>
+      <c r="F36" s="16">
+        <v>43853.125</v>
       </c>
       <c r="G36" s="3">
-        <v>43837.125</v>
+        <v>43876.125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>409</v>
+        <v>498</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>410</v>
+        <v>499</v>
       </c>
       <c r="D37" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F37" s="14">
-        <v>43832.125</v>
+      <c r="F37" s="16">
+        <v>43892.125</v>
       </c>
       <c r="G37" s="3">
-        <v>43919.125</v>
+        <v>43937.125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>300</v>
+        <v>500</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>311</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>412</v>
+        <v>501</v>
       </c>
       <c r="D38" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F38" s="14">
-        <v>43832.125</v>
+        <v>141</v>
+      </c>
+      <c r="F38" s="16">
+        <v>43831.125</v>
       </c>
       <c r="G38" s="3">
-        <v>43897.125</v>
+        <v>43907.125</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>413</v>
+        <v>502</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>414</v>
+        <v>503</v>
       </c>
       <c r="D39" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F39" s="14">
-        <v>43850.125</v>
+        <v>144</v>
+      </c>
+      <c r="F39" s="16">
+        <v>44928.125</v>
       </c>
       <c r="G39" s="3">
-        <v>43893.125</v>
+        <v>44982.125</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>308</v>
+        <v>504</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>416</v>
+        <v>505</v>
       </c>
       <c r="D40" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F40" s="14">
-        <v>43853.125</v>
+      <c r="F40" s="16">
+        <v>45293.125</v>
       </c>
       <c r="G40" s="3">
-        <v>43876.125</v>
+        <v>45360.125</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>417</v>
+        <v>506</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>418</v>
+        <v>507</v>
       </c>
       <c r="D41" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F41" s="14">
-        <v>43892.125</v>
+      <c r="F41" s="16">
+        <v>45293.125</v>
       </c>
       <c r="G41" s="3">
-        <v>43937.125</v>
+        <v>45373.125</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D42" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F42" s="14">
-        <v>43831.125</v>
-      </c>
-      <c r="G42" s="3">
-        <v>43907.125</v>
-      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D43" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F43" s="14">
-        <v>44928.125</v>
-      </c>
-      <c r="G43" s="3">
-        <v>44982.125</v>
-      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D44" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F44" s="14">
-        <v>45293.125</v>
-      </c>
-      <c r="G44" s="3">
-        <v>45360.125</v>
-      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D45" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F45" s="14">
-        <v>45293.125</v>
-      </c>
-      <c r="G45" s="3">
-        <v>45373.125</v>
-      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46">
-      <c r="F46" s="14"/>
+      <c r="F46" s="2"/>
       <c r="G46" s="3"/>
     </row>
     <row r="47">
@@ -9426,22 +10593,6 @@
     <row r="65">
       <c r="F65" s="2"/>
       <c r="G65" s="3"/>
-    </row>
-    <row r="66">
-      <c r="F66" s="2"/>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67">
-      <c r="F67" s="2"/>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68">
-      <c r="F68" s="2"/>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69">
-      <c r="F69" s="2"/>
-      <c r="G69" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
